--- a/scenario_defaults.xlsx
+++ b/scenario_defaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\pyPPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D939E-D8D9-4B78-A098-F4AB8A470EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E40ED0-E316-4520-A052-A93B38E5040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="5364" windowWidth="25524" windowHeight="19524" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
+    <workbookView xWindow="11172" yWindow="2244" windowWidth="25524" windowHeight="19524" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_defaults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -156,12 +156,40 @@
   </si>
   <si>
     <t>Wind Capacity (MW)</t>
+  </si>
+  <si>
+    <t>REC100_highSMP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levelised</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC100_fixedREC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC100_Levelised</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>PPA100_REF</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>PPA100_highSMP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_fixedREC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_Levelised</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>HV_C_III</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,8 +202,52 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Internal Rate of Return (%)</t>
+    <t>REC100_noREC</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC100_Market</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_noREC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_Market</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_REF1GW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_REF2GW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_REF3GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF4GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF5GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF6GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF7GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF8GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF9GW</t>
+  </si>
+  <si>
+    <t>PPA100_REF10GW</t>
   </si>
 </sst>
 </file>
@@ -817,7 +889,63 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1155,20 +1283,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D3535E-5386-407C-865F-4665FABC59A2}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="46.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,34 +1317,254 @@
       <c r="C1" t="s">
         <v>41</v>
       </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:C2" si="0">B1</f>
+        <f t="shared" ref="B2:M2" si="0">B1</f>
         <v>REC100_REF</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
+        <v>REC100_highSMP</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v>REC100_fixedREC</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>REC100_noREC</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>REC100_Market</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>REC100_Levelised</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
         <v>PPA100_REF</v>
       </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>PPA100_highSMP</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>PPA100_fixedREC</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>PPA100_noREC</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>PPA100_Market</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" si="0"/>
+        <v>PPA100_Levelised</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:O2" si="1">N1</f>
+        <v>PPA100_REF1GW</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" si="1"/>
+        <v>PPA100_REF2GW</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:W2" si="2">P1</f>
+        <v>PPA100_REF3GW</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF4GW</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF5GW</v>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF6GW</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF7GW</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF8GW</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF9GW</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_REF10GW</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:C3" si="1">"output/"&amp;B2&amp;".xlsx"</f>
+        <f t="shared" ref="B3:M3" si="3">"output/"&amp;B2&amp;".xlsx"</f>
         <v>output/REC100_REF.xlsx</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>output/REC100_highSMP.xlsx</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/REC100_fixedREC.xlsx</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/REC100_noREC.xlsx</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/REC100_Market.xlsx</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/REC100_Levelised.xlsx</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
         <v>output/PPA100_REF.xlsx</v>
       </c>
+      <c r="I3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/PPA100_highSMP.xlsx</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/PPA100_fixedREC.xlsx</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/PPA100_noREC.xlsx</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/PPA100_Market.xlsx</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="3"/>
+        <v>output/PPA100_Levelised.xlsx</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:V3" si="4">"output/"&amp;N2&amp;".xlsx"</f>
+        <v>output/PPA100_REF1GW.xlsx</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:W3" si="5">"output/"&amp;O2&amp;".xlsx"</f>
+        <v>output/PPA100_REF2GW.xlsx</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="4"/>
+        <v>output/PPA100_REF3GW.xlsx</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="5"/>
+        <v>output/PPA100_REF4GW.xlsx</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="4"/>
+        <v>output/PPA100_REF5GW.xlsx</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="5"/>
+        <v>output/PPA100_REF6GW.xlsx</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="4"/>
+        <v>output/PPA100_REF7GW.xlsx</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="5"/>
+        <v>output/PPA100_REF8GW.xlsx</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="4"/>
+        <v>output/PPA100_REF9GW.xlsx</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="5"/>
+        <v>output/PPA100_REF10GW.xlsx</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1215,8 +1574,68 @@
       <c r="C4">
         <v>3000</v>
       </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <v>3000</v>
+      </c>
+      <c r="M4">
+        <v>3000</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>2000</v>
+      </c>
+      <c r="P4">
+        <v>3000</v>
+      </c>
+      <c r="Q4">
+        <v>4000</v>
+      </c>
+      <c r="R4">
+        <v>5000</v>
+      </c>
+      <c r="S4">
+        <v>6000</v>
+      </c>
+      <c r="T4">
+        <v>7000</v>
+      </c>
+      <c r="U4">
+        <v>8000</v>
+      </c>
+      <c r="V4">
+        <v>9000</v>
+      </c>
+      <c r="W4">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1645,68 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1237,8 +1716,68 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1246,10 +1785,70 @@
         <v>100</v>
       </c>
       <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1259,8 +1858,68 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1270,8 +1929,68 @@
       <c r="C9">
         <v>2023</v>
       </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+      <c r="G9">
+        <v>2023</v>
+      </c>
+      <c r="H9">
+        <v>2023</v>
+      </c>
+      <c r="I9">
+        <v>2023</v>
+      </c>
+      <c r="J9">
+        <v>2023</v>
+      </c>
+      <c r="K9">
+        <v>2023</v>
+      </c>
+      <c r="L9">
+        <v>2023</v>
+      </c>
+      <c r="M9">
+        <v>2023</v>
+      </c>
+      <c r="N9">
+        <v>2023</v>
+      </c>
+      <c r="O9">
+        <v>2023</v>
+      </c>
+      <c r="P9">
+        <v>2023</v>
+      </c>
+      <c r="Q9">
+        <v>2023</v>
+      </c>
+      <c r="R9">
+        <v>2023</v>
+      </c>
+      <c r="S9">
+        <v>2023</v>
+      </c>
+      <c r="T9">
+        <v>2023</v>
+      </c>
+      <c r="U9">
+        <v>2023</v>
+      </c>
+      <c r="V9">
+        <v>2023</v>
+      </c>
+      <c r="W9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +2000,68 @@
       <c r="C10">
         <v>2050</v>
       </c>
+      <c r="D10">
+        <v>2050</v>
+      </c>
+      <c r="E10">
+        <v>2050</v>
+      </c>
+      <c r="F10">
+        <v>2050</v>
+      </c>
+      <c r="G10">
+        <v>2050</v>
+      </c>
+      <c r="H10">
+        <v>2050</v>
+      </c>
+      <c r="I10">
+        <v>2050</v>
+      </c>
+      <c r="J10">
+        <v>2050</v>
+      </c>
+      <c r="K10">
+        <v>2050</v>
+      </c>
+      <c r="L10">
+        <v>2050</v>
+      </c>
+      <c r="M10">
+        <v>2050</v>
+      </c>
+      <c r="N10">
+        <v>2050</v>
+      </c>
+      <c r="O10">
+        <v>2050</v>
+      </c>
+      <c r="P10">
+        <v>2050</v>
+      </c>
+      <c r="Q10">
+        <v>2050</v>
+      </c>
+      <c r="R10">
+        <v>2050</v>
+      </c>
+      <c r="S10">
+        <v>2050</v>
+      </c>
+      <c r="T10">
+        <v>2050</v>
+      </c>
+      <c r="U10">
+        <v>2050</v>
+      </c>
+      <c r="V10">
+        <v>2050</v>
+      </c>
+      <c r="W10">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1292,8 +2071,68 @@
       <c r="C11">
         <v>2030</v>
       </c>
+      <c r="D11">
+        <v>2030</v>
+      </c>
+      <c r="E11">
+        <v>2030</v>
+      </c>
+      <c r="F11">
+        <v>2030</v>
+      </c>
+      <c r="G11">
+        <v>2030</v>
+      </c>
+      <c r="H11">
+        <v>2030</v>
+      </c>
+      <c r="I11">
+        <v>2030</v>
+      </c>
+      <c r="J11">
+        <v>2030</v>
+      </c>
+      <c r="K11">
+        <v>2030</v>
+      </c>
+      <c r="L11">
+        <v>2030</v>
+      </c>
+      <c r="M11">
+        <v>2030</v>
+      </c>
+      <c r="N11">
+        <v>2030</v>
+      </c>
+      <c r="O11">
+        <v>2030</v>
+      </c>
+      <c r="P11">
+        <v>2030</v>
+      </c>
+      <c r="Q11">
+        <v>2030</v>
+      </c>
+      <c r="R11">
+        <v>2030</v>
+      </c>
+      <c r="S11">
+        <v>2030</v>
+      </c>
+      <c r="T11">
+        <v>2030</v>
+      </c>
+      <c r="U11">
+        <v>2030</v>
+      </c>
+      <c r="V11">
+        <v>2030</v>
+      </c>
+      <c r="W11">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1303,8 +2142,68 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1312,21 +2211,141 @@
         <v>0.04</v>
       </c>
       <c r="C13">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
         <v>0.04</v>
       </c>
+      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13">
+        <v>0.04</v>
+      </c>
+      <c r="G13">
+        <v>0.04</v>
+      </c>
+      <c r="H13">
+        <v>0.04</v>
+      </c>
+      <c r="I13">
+        <v>0.08</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13">
+        <v>0.04</v>
+      </c>
+      <c r="L13">
+        <v>0.04</v>
+      </c>
+      <c r="M13">
+        <v>0.04</v>
+      </c>
+      <c r="N13">
+        <v>0.04</v>
+      </c>
+      <c r="O13">
+        <v>0.04</v>
+      </c>
+      <c r="P13">
+        <v>0.04</v>
+      </c>
+      <c r="Q13">
+        <v>0.04</v>
+      </c>
+      <c r="R13">
+        <v>0.04</v>
+      </c>
+      <c r="S13">
+        <v>0.04</v>
+      </c>
+      <c r="T13">
+        <v>0.04</v>
+      </c>
+      <c r="U13">
+        <v>0.04</v>
+      </c>
+      <c r="V13">
+        <v>0.04</v>
+      </c>
+      <c r="W13">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1336,8 +2355,68 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1347,8 +2426,68 @@
       <c r="C16">
         <v>167000</v>
       </c>
+      <c r="D16">
+        <v>167000</v>
+      </c>
+      <c r="E16">
+        <v>167000</v>
+      </c>
+      <c r="F16">
+        <v>167000</v>
+      </c>
+      <c r="G16">
+        <v>167000</v>
+      </c>
+      <c r="H16">
+        <v>167000</v>
+      </c>
+      <c r="I16">
+        <v>167000</v>
+      </c>
+      <c r="J16">
+        <v>167000</v>
+      </c>
+      <c r="K16">
+        <v>167000</v>
+      </c>
+      <c r="L16">
+        <v>167000</v>
+      </c>
+      <c r="M16">
+        <v>167000</v>
+      </c>
+      <c r="N16">
+        <v>167000</v>
+      </c>
+      <c r="O16">
+        <v>167000</v>
+      </c>
+      <c r="P16">
+        <v>167000</v>
+      </c>
+      <c r="Q16">
+        <v>167000</v>
+      </c>
+      <c r="R16">
+        <v>167000</v>
+      </c>
+      <c r="S16">
+        <v>167000</v>
+      </c>
+      <c r="T16">
+        <v>167000</v>
+      </c>
+      <c r="U16">
+        <v>167000</v>
+      </c>
+      <c r="V16">
+        <v>167000</v>
+      </c>
+      <c r="W16">
+        <v>167000</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1356,10 +2495,72 @@
         <v>0.04</v>
       </c>
       <c r="C17">
+        <f>C13</f>
+        <v>0.08</v>
+      </c>
+      <c r="D17">
         <v>0.04</v>
       </c>
+      <c r="E17">
+        <v>0.04</v>
+      </c>
+      <c r="F17">
+        <v>0.04</v>
+      </c>
+      <c r="G17">
+        <v>0.04</v>
+      </c>
+      <c r="H17">
+        <v>0.04</v>
+      </c>
+      <c r="I17">
+        <f>I13</f>
+        <v>0.08</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>0.04</v>
+      </c>
+      <c r="L17">
+        <v>0.04</v>
+      </c>
+      <c r="M17">
+        <v>0.04</v>
+      </c>
+      <c r="N17">
+        <v>0.04</v>
+      </c>
+      <c r="O17">
+        <v>0.04</v>
+      </c>
+      <c r="P17">
+        <v>0.04</v>
+      </c>
+      <c r="Q17">
+        <v>0.04</v>
+      </c>
+      <c r="R17">
+        <v>0.04</v>
+      </c>
+      <c r="S17">
+        <v>0.04</v>
+      </c>
+      <c r="T17">
+        <v>0.04</v>
+      </c>
+      <c r="U17">
+        <v>0.04</v>
+      </c>
+      <c r="V17">
+        <v>0.04</v>
+      </c>
+      <c r="W17">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1369,8 +2570,68 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1380,8 +2641,68 @@
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1391,8 +2712,68 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1402,8 +2783,68 @@
       <c r="C21">
         <v>80000</v>
       </c>
+      <c r="D21">
+        <v>80000</v>
+      </c>
+      <c r="E21">
+        <v>80000</v>
+      </c>
+      <c r="F21">
+        <v>80000</v>
+      </c>
+      <c r="G21">
+        <v>80000</v>
+      </c>
+      <c r="H21">
+        <v>80000</v>
+      </c>
+      <c r="I21">
+        <v>80000</v>
+      </c>
+      <c r="J21">
+        <v>80000</v>
+      </c>
+      <c r="K21">
+        <v>80000</v>
+      </c>
+      <c r="L21">
+        <v>80000</v>
+      </c>
+      <c r="M21">
+        <v>80000</v>
+      </c>
+      <c r="N21">
+        <v>80000</v>
+      </c>
+      <c r="O21">
+        <v>80000</v>
+      </c>
+      <c r="P21">
+        <v>80000</v>
+      </c>
+      <c r="Q21">
+        <v>80000</v>
+      </c>
+      <c r="R21">
+        <v>80000</v>
+      </c>
+      <c r="S21">
+        <v>80000</v>
+      </c>
+      <c r="T21">
+        <v>80000</v>
+      </c>
+      <c r="U21">
+        <v>80000</v>
+      </c>
+      <c r="V21">
+        <v>80000</v>
+      </c>
+      <c r="W21">
+        <v>80000</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1413,8 +2854,68 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +2925,68 @@
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1435,8 +2996,68 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1446,8 +3067,68 @@
       <c r="C25">
         <v>1400</v>
       </c>
+      <c r="D25">
+        <v>1400</v>
+      </c>
+      <c r="E25">
+        <v>1400</v>
+      </c>
+      <c r="F25">
+        <v>1400</v>
+      </c>
+      <c r="G25">
+        <v>1400</v>
+      </c>
+      <c r="H25">
+        <v>1400</v>
+      </c>
+      <c r="I25">
+        <v>1400</v>
+      </c>
+      <c r="J25">
+        <v>1400</v>
+      </c>
+      <c r="K25">
+        <v>1400</v>
+      </c>
+      <c r="L25">
+        <v>1400</v>
+      </c>
+      <c r="M25">
+        <v>1400</v>
+      </c>
+      <c r="N25">
+        <v>1400</v>
+      </c>
+      <c r="O25">
+        <v>1400</v>
+      </c>
+      <c r="P25">
+        <v>1400</v>
+      </c>
+      <c r="Q25">
+        <v>1400</v>
+      </c>
+      <c r="R25">
+        <v>1400</v>
+      </c>
+      <c r="S25">
+        <v>1400</v>
+      </c>
+      <c r="T25">
+        <v>1400</v>
+      </c>
+      <c r="U25">
+        <v>1400</v>
+      </c>
+      <c r="V25">
+        <v>1400</v>
+      </c>
+      <c r="W25">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1455,10 +3136,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1468,8 +3209,68 @@
       <c r="C27">
         <v>1000000000</v>
       </c>
+      <c r="D27">
+        <v>1000000000</v>
+      </c>
+      <c r="E27">
+        <v>1000000000</v>
+      </c>
+      <c r="F27">
+        <v>1000000000</v>
+      </c>
+      <c r="G27">
+        <v>1000000000</v>
+      </c>
+      <c r="H27">
+        <v>1000000000</v>
+      </c>
+      <c r="I27">
+        <v>1000000000</v>
+      </c>
+      <c r="J27">
+        <v>1000000000</v>
+      </c>
+      <c r="K27">
+        <v>1000000000</v>
+      </c>
+      <c r="L27">
+        <v>1000000000</v>
+      </c>
+      <c r="M27">
+        <v>1000000000</v>
+      </c>
+      <c r="N27">
+        <v>1000000000</v>
+      </c>
+      <c r="O27">
+        <v>1000000000</v>
+      </c>
+      <c r="P27">
+        <v>1000000000</v>
+      </c>
+      <c r="Q27">
+        <v>1000000000</v>
+      </c>
+      <c r="R27">
+        <v>1000000000</v>
+      </c>
+      <c r="S27">
+        <v>1000000000</v>
+      </c>
+      <c r="T27">
+        <v>1000000000</v>
+      </c>
+      <c r="U27">
+        <v>1000000000</v>
+      </c>
+      <c r="V27">
+        <v>1000000000</v>
+      </c>
+      <c r="W27">
+        <v>1000000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1479,8 +3280,68 @@
       <c r="C28">
         <v>250000000</v>
       </c>
+      <c r="D28">
+        <v>250000000</v>
+      </c>
+      <c r="E28">
+        <v>250000000</v>
+      </c>
+      <c r="F28">
+        <v>250000000</v>
+      </c>
+      <c r="G28">
+        <v>250000000</v>
+      </c>
+      <c r="H28">
+        <v>250000000</v>
+      </c>
+      <c r="I28">
+        <v>250000000</v>
+      </c>
+      <c r="J28">
+        <v>250000000</v>
+      </c>
+      <c r="K28">
+        <v>250000000</v>
+      </c>
+      <c r="L28">
+        <v>250000000</v>
+      </c>
+      <c r="M28">
+        <v>250000000</v>
+      </c>
+      <c r="N28">
+        <v>250000000</v>
+      </c>
+      <c r="O28">
+        <v>250000000</v>
+      </c>
+      <c r="P28">
+        <v>250000000</v>
+      </c>
+      <c r="Q28">
+        <v>250000000</v>
+      </c>
+      <c r="R28">
+        <v>250000000</v>
+      </c>
+      <c r="S28">
+        <v>250000000</v>
+      </c>
+      <c r="T28">
+        <v>250000000</v>
+      </c>
+      <c r="U28">
+        <v>250000000</v>
+      </c>
+      <c r="V28">
+        <v>250000000</v>
+      </c>
+      <c r="W28">
+        <v>250000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1490,8 +3351,68 @@
       <c r="C29">
         <v>0.9</v>
       </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+      <c r="E29">
+        <v>0.9</v>
+      </c>
+      <c r="F29">
+        <v>0.9</v>
+      </c>
+      <c r="G29">
+        <v>0.9</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+      <c r="I29">
+        <v>0.9</v>
+      </c>
+      <c r="J29">
+        <v>0.9</v>
+      </c>
+      <c r="K29">
+        <v>0.9</v>
+      </c>
+      <c r="L29">
+        <v>0.9</v>
+      </c>
+      <c r="M29">
+        <v>0.9</v>
+      </c>
+      <c r="N29">
+        <v>0.9</v>
+      </c>
+      <c r="O29">
+        <v>0.9</v>
+      </c>
+      <c r="P29">
+        <v>0.9</v>
+      </c>
+      <c r="Q29">
+        <v>0.9</v>
+      </c>
+      <c r="R29">
+        <v>0.9</v>
+      </c>
+      <c r="S29">
+        <v>0.9</v>
+      </c>
+      <c r="T29">
+        <v>0.9</v>
+      </c>
+      <c r="U29">
+        <v>0.9</v>
+      </c>
+      <c r="V29">
+        <v>0.9</v>
+      </c>
+      <c r="W29">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1501,8 +3422,68 @@
       <c r="C30">
         <v>0.9</v>
       </c>
+      <c r="D30">
+        <v>0.9</v>
+      </c>
+      <c r="E30">
+        <v>0.9</v>
+      </c>
+      <c r="F30">
+        <v>0.9</v>
+      </c>
+      <c r="G30">
+        <v>0.9</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30">
+        <v>0.9</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <v>0.9</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <v>0.9</v>
+      </c>
+      <c r="N30">
+        <v>0.9</v>
+      </c>
+      <c r="O30">
+        <v>0.9</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>0.9</v>
+      </c>
+      <c r="R30">
+        <v>0.9</v>
+      </c>
+      <c r="S30">
+        <v>0.9</v>
+      </c>
+      <c r="T30">
+        <v>0.9</v>
+      </c>
+      <c r="U30">
+        <v>0.9</v>
+      </c>
+      <c r="V30">
+        <v>0.9</v>
+      </c>
+      <c r="W30">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1512,10 +3493,70 @@
       <c r="C31">
         <v>4</v>
       </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -1523,10 +3564,70 @@
       <c r="C32">
         <v>20</v>
       </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32">
+        <v>20</v>
+      </c>
+      <c r="W32">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -1534,100 +3635,609 @@
       <c r="C33">
         <v>0.05</v>
       </c>
+      <c r="D33">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+      <c r="F33">
+        <v>0.05</v>
+      </c>
+      <c r="G33">
+        <v>0.05</v>
+      </c>
+      <c r="H33">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>0.05</v>
+      </c>
+      <c r="K33">
+        <v>0.05</v>
+      </c>
+      <c r="L33">
+        <v>0.05</v>
+      </c>
+      <c r="M33">
+        <v>0.05</v>
+      </c>
+      <c r="N33">
+        <v>0.05</v>
+      </c>
+      <c r="O33">
+        <v>0.05</v>
+      </c>
+      <c r="P33">
+        <v>0.05</v>
+      </c>
+      <c r="Q33">
+        <v>0.05</v>
+      </c>
+      <c r="R33">
+        <v>0.05</v>
+      </c>
+      <c r="S33">
+        <v>0.05</v>
+      </c>
+      <c r="T33">
+        <v>0.05</v>
+      </c>
+      <c r="U33">
+        <v>0.05</v>
+      </c>
+      <c r="V33">
+        <v>0.05</v>
+      </c>
+      <c r="W33">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>7.4999999999999997E-2</v>
+        <v>25000</v>
       </c>
       <c r="C34">
-        <v>7.4999999999999997E-2</v>
+        <v>25000</v>
+      </c>
+      <c r="D34">
+        <v>25000</v>
+      </c>
+      <c r="E34">
+        <v>25000</v>
+      </c>
+      <c r="F34">
+        <v>25000</v>
+      </c>
+      <c r="G34">
+        <v>25000</v>
+      </c>
+      <c r="H34">
+        <v>25000</v>
+      </c>
+      <c r="I34">
+        <v>25000</v>
+      </c>
+      <c r="J34">
+        <v>25000</v>
+      </c>
+      <c r="K34">
+        <v>25000</v>
+      </c>
+      <c r="L34">
+        <v>25000</v>
+      </c>
+      <c r="M34">
+        <v>25000</v>
+      </c>
+      <c r="N34">
+        <v>25000</v>
+      </c>
+      <c r="O34">
+        <v>25000</v>
+      </c>
+      <c r="P34">
+        <v>25000</v>
+      </c>
+      <c r="Q34">
+        <v>25000</v>
+      </c>
+      <c r="R34">
+        <v>25000</v>
+      </c>
+      <c r="S34">
+        <v>25000</v>
+      </c>
+      <c r="T34">
+        <v>25000</v>
+      </c>
+      <c r="U34">
+        <v>25000</v>
+      </c>
+      <c r="V34">
+        <v>25000</v>
+      </c>
+      <c r="W34">
+        <v>25000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>25000</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>25000</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <v>0.1</v>
+      </c>
+      <c r="H36">
+        <v>0.1</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+      <c r="L36">
+        <v>0.1</v>
+      </c>
+      <c r="M36">
+        <v>0.1</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0.1</v>
+      </c>
+      <c r="P36">
+        <v>0.1</v>
+      </c>
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+      <c r="R36">
+        <v>0.1</v>
+      </c>
+      <c r="S36">
+        <v>0.1</v>
+      </c>
+      <c r="T36">
+        <v>0.1</v>
+      </c>
+      <c r="U36">
+        <v>0.1</v>
+      </c>
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+      <c r="W36">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="D38">
+        <v>120</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+      <c r="F38">
+        <v>120</v>
+      </c>
+      <c r="G38">
+        <v>120</v>
+      </c>
+      <c r="H38">
+        <v>120</v>
+      </c>
+      <c r="I38">
+        <v>120</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="K38">
+        <v>120</v>
+      </c>
+      <c r="L38">
+        <v>120</v>
+      </c>
+      <c r="M38">
+        <v>120</v>
+      </c>
+      <c r="N38">
+        <v>120</v>
+      </c>
+      <c r="O38">
+        <v>120</v>
+      </c>
+      <c r="P38">
+        <v>120</v>
+      </c>
+      <c r="Q38">
+        <v>120</v>
+      </c>
+      <c r="R38">
+        <v>120</v>
+      </c>
+      <c r="S38">
+        <v>120</v>
+      </c>
+      <c r="T38">
+        <v>120</v>
+      </c>
+      <c r="U38">
+        <v>120</v>
+      </c>
+      <c r="V38">
+        <v>120</v>
+      </c>
+      <c r="W38">
+        <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>20000</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>20000</v>
+      </c>
+      <c r="D39">
+        <v>20000</v>
+      </c>
+      <c r="E39">
+        <v>20000</v>
+      </c>
+      <c r="F39">
+        <v>20000</v>
+      </c>
+      <c r="G39">
+        <v>20000</v>
+      </c>
+      <c r="H39">
+        <v>20000</v>
+      </c>
+      <c r="I39">
+        <v>20000</v>
+      </c>
+      <c r="J39">
+        <v>20000</v>
+      </c>
+      <c r="K39">
+        <v>20000</v>
+      </c>
+      <c r="L39">
+        <v>20000</v>
+      </c>
+      <c r="M39">
+        <v>20000</v>
+      </c>
+      <c r="N39">
+        <v>20000</v>
+      </c>
+      <c r="O39">
+        <v>20000</v>
+      </c>
+      <c r="P39">
+        <v>20000</v>
+      </c>
+      <c r="Q39">
+        <v>20000</v>
+      </c>
+      <c r="R39">
+        <v>20000</v>
+      </c>
+      <c r="S39">
+        <v>20000</v>
+      </c>
+      <c r="T39">
+        <v>20000</v>
+      </c>
+      <c r="U39">
+        <v>20000</v>
+      </c>
+      <c r="V39">
+        <v>20000</v>
+      </c>
+      <c r="W39">
+        <v>20000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>20000</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41">
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C33 C35:C1048576">
-    <cfRule type="expression" dxfId="0" priority="50">
-      <formula>$C1&lt;&gt;$B1</formula>
+  <conditionalFormatting sqref="C41:C1048576">
+    <cfRule type="expression" dxfId="8" priority="31">
+      <formula>$B41&lt;&gt;$C41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:G31">
+    <cfRule type="expression" dxfId="7" priority="22">
+      <formula>$B1&lt;&gt;C1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G40">
+    <cfRule type="expression" dxfId="6" priority="29">
+      <formula>$B34&lt;&gt;C34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="expression" dxfId="5" priority="45">
+      <formula>$H1&lt;&gt;$B1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I31 I34:I40">
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>$H1&lt;&gt;$I1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 L1:M1 J2:M31 J34:M40">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>$H1&lt;&gt;J1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>$B1&lt;&gt;K1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N40 P2:P40 R2:R40 T2:T40 V2:V40">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>$H1&lt;&gt;$B1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O40 P1:W1 Q2:Q40 S2:S40 U2:U40 W2:W40">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$H1&lt;&gt;$B1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scenario_defaults.xlsx
+++ b/scenario_defaults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\pyPPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\project_run\semikr_ppa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E40ED0-E316-4520-A052-A93B38E5040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6F734-8EC1-458B-9A8A-BA053F432553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11172" yWindow="2244" windowWidth="25524" windowHeight="19524" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
+    <workbookView xWindow="10284" yWindow="3576" windowWidth="28764" windowHeight="19332" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_defaults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="87">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -248,6 +248,73 @@
   </si>
   <si>
     <t>PPA100_REF10GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised1GW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_Levelised2GW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_Levelised3GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised4GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised5GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised6GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised7GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised8GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised9GW</t>
+  </si>
+  <si>
+    <t>PPA100_Levelised10GW</t>
+  </si>
+  <si>
+    <t>Internal Rate of Return (%)</t>
+  </si>
+  <si>
+    <t>PPA100_G100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_G90</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPA100_G80</t>
+  </si>
+  <si>
+    <t>PPA100_G70</t>
+  </si>
+  <si>
+    <t>PPA100_G60</t>
+  </si>
+  <si>
+    <t>PPA100_G50</t>
+  </si>
+  <si>
+    <t>PPA100_G40</t>
+  </si>
+  <si>
+    <t>PPA100_G30</t>
+  </si>
+  <si>
+    <t>PPA100_G20</t>
+  </si>
+  <si>
+    <t>PPA100_G10</t>
   </si>
 </sst>
 </file>
@@ -889,7 +956,7 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -928,6 +995,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -936,6 +1010,125 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1283,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D3535E-5386-407C-865F-4665FABC59A2}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:CG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1301,13 +1494,34 @@
     <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.09765625" customWidth="1"/>
     <col min="12" max="12" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="42" width="37.69921875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.09765625" customWidth="1"/>
+    <col min="54" max="54" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="55" max="64" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="66" max="74" width="33" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="34.296875" bestFit="1" customWidth="1"/>
+    <col min="76" max="84" width="37.69921875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="38.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1377,8 +1591,194 @@
       <c r="W1" t="s">
         <v>65</v>
       </c>
+      <c r="X1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1439,7 +1839,7 @@
         <v>PPA100_REF2GW</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:W2" si="2">P1</f>
+        <f t="shared" ref="P2:X2" si="2">P1</f>
         <v>PPA100_REF3GW</v>
       </c>
       <c r="Q2" t="str">
@@ -1470,243 +1870,1111 @@
         <f t="shared" si="2"/>
         <v>PPA100_REF10GW</v>
       </c>
+      <c r="X2" t="str">
+        <f t="shared" si="2"/>
+        <v>PPA100_Levelised1GW</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Z2" si="3">Y1</f>
+        <v>PPA100_Levelised2GW</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" si="3"/>
+        <v>PPA100_Levelised3GW</v>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AQ2" si="4">AA1</f>
+        <v>PPA100_Levelised4GW</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised5GW</v>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised6GW</v>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised7GW</v>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised8GW</v>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised9GW</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_Levelised10GW</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G100</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G90</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G80</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G70</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G60</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G50</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G40</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G30</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G20</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" si="4"/>
+        <v>PPA100_G10</v>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" ref="AR2:BP2" si="5">AR1</f>
+        <v>REC100_REF</v>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" si="5"/>
+        <v>REC100_highSMP</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" si="5"/>
+        <v>REC100_fixedREC</v>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" si="5"/>
+        <v>REC100_noREC</v>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" si="5"/>
+        <v>REC100_Market</v>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" si="5"/>
+        <v>REC100_Levelised</v>
+      </c>
+      <c r="AX2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_highSMP</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_fixedREC</v>
+      </c>
+      <c r="BA2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_noREC</v>
+      </c>
+      <c r="BB2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_Market</v>
+      </c>
+      <c r="BC2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_Levelised</v>
+      </c>
+      <c r="BD2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF1GW</v>
+      </c>
+      <c r="BE2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF2GW</v>
+      </c>
+      <c r="BF2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF3GW</v>
+      </c>
+      <c r="BG2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF4GW</v>
+      </c>
+      <c r="BH2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF5GW</v>
+      </c>
+      <c r="BI2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF6GW</v>
+      </c>
+      <c r="BJ2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF7GW</v>
+      </c>
+      <c r="BK2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF8GW</v>
+      </c>
+      <c r="BL2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF9GW</v>
+      </c>
+      <c r="BM2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_REF10GW</v>
+      </c>
+      <c r="BN2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_Levelised1GW</v>
+      </c>
+      <c r="BO2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_Levelised2GW</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" si="5"/>
+        <v>PPA100_Levelised3GW</v>
+      </c>
+      <c r="BQ2" t="str">
+        <f t="shared" ref="BQ2:CG2" si="6">BQ1</f>
+        <v>PPA100_Levelised4GW</v>
+      </c>
+      <c r="BR2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised5GW</v>
+      </c>
+      <c r="BS2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised6GW</v>
+      </c>
+      <c r="BT2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised7GW</v>
+      </c>
+      <c r="BU2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised8GW</v>
+      </c>
+      <c r="BV2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised9GW</v>
+      </c>
+      <c r="BW2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_Levelised10GW</v>
+      </c>
+      <c r="BX2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G100</v>
+      </c>
+      <c r="BY2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G90</v>
+      </c>
+      <c r="BZ2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G80</v>
+      </c>
+      <c r="CA2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G70</v>
+      </c>
+      <c r="CB2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G60</v>
+      </c>
+      <c r="CC2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G50</v>
+      </c>
+      <c r="CD2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G40</v>
+      </c>
+      <c r="CE2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G30</v>
+      </c>
+      <c r="CF2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G20</v>
+      </c>
+      <c r="CG2" t="str">
+        <f t="shared" si="6"/>
+        <v>PPA100_G10</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:M3" si="3">"output/"&amp;B2&amp;".xlsx"</f>
-        <v>output/REC100_REF.xlsx</v>
+        <f>"output_20250218/"&amp;B2&amp;".xlsx"</f>
+        <v>output_20250218/REC100_REF.xlsx</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/REC100_highSMP.xlsx</v>
+        <f t="shared" ref="C3:AQ3" si="7">"output_20250218/"&amp;C2&amp;".xlsx"</f>
+        <v>output_20250218/REC100_highSMP.xlsx</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/REC100_fixedREC.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/REC100_fixedREC.xlsx</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/REC100_noREC.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/REC100_noREC.xlsx</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/REC100_Market.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/REC100_Market.xlsx</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/REC100_Levelised.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/REC100_Levelised.xlsx</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_REF.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF.xlsx</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_highSMP.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_highSMP.xlsx</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_fixedREC.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_fixedREC.xlsx</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_noREC.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_noREC.xlsx</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_Market.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Market.xlsx</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="3"/>
-        <v>output/PPA100_Levelised.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised.xlsx</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:V3" si="4">"output/"&amp;N2&amp;".xlsx"</f>
-        <v>output/PPA100_REF1GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF1GW.xlsx</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:W3" si="5">"output/"&amp;O2&amp;".xlsx"</f>
-        <v>output/PPA100_REF2GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF2GW.xlsx</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="4"/>
-        <v>output/PPA100_REF3GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF3GW.xlsx</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" si="5"/>
-        <v>output/PPA100_REF4GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF4GW.xlsx</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" si="4"/>
-        <v>output/PPA100_REF5GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF5GW.xlsx</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="5"/>
-        <v>output/PPA100_REF6GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF6GW.xlsx</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="4"/>
-        <v>output/PPA100_REF7GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF7GW.xlsx</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="5"/>
-        <v>output/PPA100_REF8GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF8GW.xlsx</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="4"/>
-        <v>output/PPA100_REF9GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF9GW.xlsx</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="5"/>
-        <v>output/PPA100_REF10GW.xlsx</v>
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_REF10GW.xlsx</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised1GW.xlsx</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised2GW.xlsx</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised3GW.xlsx</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised4GW.xlsx</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised5GW.xlsx</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised6GW.xlsx</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised7GW.xlsx</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised8GW.xlsx</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised9GW.xlsx</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_Levelised10GW.xlsx</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G100.xlsx</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G90.xlsx</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G80.xlsx</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G70.xlsx</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G60.xlsx</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G50.xlsx</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G40.xlsx</v>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G30.xlsx</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G20.xlsx</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="7"/>
+        <v>output_20250218/PPA100_G10.xlsx</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>"output_20250218_01GW/"&amp;AR2&amp;".xlsx"</f>
+        <v>output_20250218_01GW/REC100_REF.xlsx</v>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" ref="AS3:CG3" si="8">"output_20250218_01GW/"&amp;AS2&amp;".xlsx"</f>
+        <v>output_20250218_01GW/REC100_highSMP.xlsx</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/REC100_fixedREC.xlsx</v>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/REC100_noREC.xlsx</v>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/REC100_Market.xlsx</v>
+      </c>
+      <c r="AW3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/REC100_Levelised.xlsx</v>
+      </c>
+      <c r="AX3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF.xlsx</v>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_highSMP.xlsx</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_fixedREC.xlsx</v>
+      </c>
+      <c r="BA3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_noREC.xlsx</v>
+      </c>
+      <c r="BB3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Market.xlsx</v>
+      </c>
+      <c r="BC3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised.xlsx</v>
+      </c>
+      <c r="BD3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF1GW.xlsx</v>
+      </c>
+      <c r="BE3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF2GW.xlsx</v>
+      </c>
+      <c r="BF3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF3GW.xlsx</v>
+      </c>
+      <c r="BG3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF4GW.xlsx</v>
+      </c>
+      <c r="BH3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF5GW.xlsx</v>
+      </c>
+      <c r="BI3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF6GW.xlsx</v>
+      </c>
+      <c r="BJ3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF7GW.xlsx</v>
+      </c>
+      <c r="BK3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF8GW.xlsx</v>
+      </c>
+      <c r="BL3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF9GW.xlsx</v>
+      </c>
+      <c r="BM3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_REF10GW.xlsx</v>
+      </c>
+      <c r="BN3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised1GW.xlsx</v>
+      </c>
+      <c r="BO3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised2GW.xlsx</v>
+      </c>
+      <c r="BP3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised3GW.xlsx</v>
+      </c>
+      <c r="BQ3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised4GW.xlsx</v>
+      </c>
+      <c r="BR3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised5GW.xlsx</v>
+      </c>
+      <c r="BS3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised6GW.xlsx</v>
+      </c>
+      <c r="BT3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised7GW.xlsx</v>
+      </c>
+      <c r="BU3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised8GW.xlsx</v>
+      </c>
+      <c r="BV3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised9GW.xlsx</v>
+      </c>
+      <c r="BW3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_Levelised10GW.xlsx</v>
+      </c>
+      <c r="BX3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G100.xlsx</v>
+      </c>
+      <c r="BY3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G90.xlsx</v>
+      </c>
+      <c r="BZ3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G80.xlsx</v>
+      </c>
+      <c r="CA3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G70.xlsx</v>
+      </c>
+      <c r="CB3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G60.xlsx</v>
+      </c>
+      <c r="CC3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G50.xlsx</v>
+      </c>
+      <c r="CD3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G40.xlsx</v>
+      </c>
+      <c r="CE3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G30.xlsx</v>
+      </c>
+      <c r="CF3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G20.xlsx</v>
+      </c>
+      <c r="CG3" t="str">
+        <f t="shared" si="8"/>
+        <v>output_20250218_01GW/PPA100_G10.xlsx</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="X5">
+        <v>1000</v>
+      </c>
+      <c r="Y5">
+        <v>2000</v>
+      </c>
+      <c r="Z5">
+        <v>3000</v>
+      </c>
+      <c r="AA5">
+        <v>4000</v>
+      </c>
+      <c r="AB5">
+        <v>5000</v>
+      </c>
+      <c r="AC5">
+        <v>6000</v>
+      </c>
+      <c r="AD5">
+        <v>7000</v>
+      </c>
+      <c r="AE5">
+        <v>8000</v>
+      </c>
+      <c r="AF5">
+        <v>9000</v>
+      </c>
+      <c r="AG5">
+        <v>10000</v>
+      </c>
+      <c r="AH5">
+        <v>3000</v>
+      </c>
+      <c r="AI5">
+        <v>3000</v>
+      </c>
+      <c r="AJ5">
+        <v>3000</v>
+      </c>
+      <c r="AK5">
+        <v>3000</v>
+      </c>
+      <c r="AL5">
+        <v>3000</v>
+      </c>
+      <c r="AM5">
+        <v>3000</v>
+      </c>
+      <c r="AN5">
+        <v>3000</v>
+      </c>
+      <c r="AO5">
+        <v>3000</v>
+      </c>
+      <c r="AP5">
+        <v>3000</v>
+      </c>
+      <c r="AQ5">
+        <v>3000</v>
+      </c>
+      <c r="AR5">
+        <v>3000</v>
+      </c>
+      <c r="AS5">
+        <v>3000</v>
+      </c>
+      <c r="AT5">
+        <v>3000</v>
+      </c>
+      <c r="AU5">
+        <v>3000</v>
+      </c>
+      <c r="AV5">
+        <v>3000</v>
+      </c>
+      <c r="AW5">
+        <v>3000</v>
+      </c>
+      <c r="AX5">
+        <v>3000</v>
+      </c>
+      <c r="AY5">
+        <v>3000</v>
+      </c>
+      <c r="AZ5">
+        <v>3000</v>
+      </c>
+      <c r="BA5">
+        <v>3000</v>
+      </c>
+      <c r="BB5">
+        <v>3000</v>
+      </c>
+      <c r="BC5">
+        <v>3000</v>
+      </c>
+      <c r="BD5">
+        <v>1000</v>
+      </c>
+      <c r="BE5">
+        <v>2000</v>
+      </c>
+      <c r="BF5">
+        <v>3000</v>
+      </c>
+      <c r="BG5">
+        <v>4000</v>
+      </c>
+      <c r="BH5">
+        <v>5000</v>
+      </c>
+      <c r="BI5">
+        <v>6000</v>
+      </c>
+      <c r="BJ5">
+        <v>7000</v>
+      </c>
+      <c r="BK5">
+        <v>8000</v>
+      </c>
+      <c r="BL5">
+        <v>9000</v>
+      </c>
+      <c r="BM5">
+        <v>10000</v>
+      </c>
+      <c r="BN5">
+        <v>1000</v>
+      </c>
+      <c r="BO5">
+        <v>2000</v>
+      </c>
+      <c r="BP5">
+        <v>3000</v>
+      </c>
+      <c r="BQ5">
+        <v>4000</v>
+      </c>
+      <c r="BR5">
+        <v>5000</v>
+      </c>
+      <c r="BS5">
+        <v>6000</v>
+      </c>
+      <c r="BT5">
+        <v>7000</v>
+      </c>
+      <c r="BU5">
+        <v>8000</v>
+      </c>
+      <c r="BV5">
+        <v>9000</v>
+      </c>
+      <c r="BW5">
+        <v>10000</v>
+      </c>
+      <c r="BX5">
+        <v>3000</v>
+      </c>
+      <c r="BY5">
+        <v>3000</v>
+      </c>
+      <c r="BZ5">
+        <v>3000</v>
+      </c>
+      <c r="CA5">
+        <v>3000</v>
+      </c>
+      <c r="CB5">
+        <v>3000</v>
+      </c>
+      <c r="CC5">
+        <v>3000</v>
+      </c>
+      <c r="CD5">
+        <v>3000</v>
+      </c>
+      <c r="CE5">
+        <v>3000</v>
+      </c>
+      <c r="CF5">
+        <v>3000</v>
+      </c>
+      <c r="CG5">
+        <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1776,8 +3044,194 @@
       <c r="W6" t="b">
         <v>1</v>
       </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1847,8 +3301,194 @@
       <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>100</v>
+      </c>
+      <c r="AI7">
+        <v>90</v>
+      </c>
+      <c r="AJ7">
+        <v>80</v>
+      </c>
+      <c r="AK7">
+        <v>70</v>
+      </c>
+      <c r="AL7">
+        <v>60</v>
+      </c>
+      <c r="AM7">
+        <v>50</v>
+      </c>
+      <c r="AN7">
+        <v>40</v>
+      </c>
+      <c r="AO7">
+        <v>30</v>
+      </c>
+      <c r="AP7">
+        <v>20</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
+      <c r="AR7">
+        <v>100</v>
+      </c>
+      <c r="AS7">
+        <v>100</v>
+      </c>
+      <c r="AT7">
+        <v>100</v>
+      </c>
+      <c r="AU7">
+        <v>100</v>
+      </c>
+      <c r="AV7">
+        <v>100</v>
+      </c>
+      <c r="AW7">
+        <v>100</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>100</v>
+      </c>
+      <c r="BY7">
+        <v>90</v>
+      </c>
+      <c r="BZ7">
+        <v>80</v>
+      </c>
+      <c r="CA7">
+        <v>70</v>
+      </c>
+      <c r="CB7">
+        <v>60</v>
+      </c>
+      <c r="CC7">
+        <v>50</v>
+      </c>
+      <c r="CD7">
+        <v>40</v>
+      </c>
+      <c r="CE7">
+        <v>30</v>
+      </c>
+      <c r="CF7">
+        <v>20</v>
+      </c>
+      <c r="CG7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1918,8 +3558,194 @@
       <c r="W8" t="s">
         <v>9</v>
       </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1989,8 +3815,194 @@
       <c r="W9">
         <v>2023</v>
       </c>
+      <c r="X9">
+        <v>2023</v>
+      </c>
+      <c r="Y9">
+        <v>2023</v>
+      </c>
+      <c r="Z9">
+        <v>2023</v>
+      </c>
+      <c r="AA9">
+        <v>2023</v>
+      </c>
+      <c r="AB9">
+        <v>2023</v>
+      </c>
+      <c r="AC9">
+        <v>2023</v>
+      </c>
+      <c r="AD9">
+        <v>2023</v>
+      </c>
+      <c r="AE9">
+        <v>2023</v>
+      </c>
+      <c r="AF9">
+        <v>2023</v>
+      </c>
+      <c r="AG9">
+        <v>2023</v>
+      </c>
+      <c r="AH9">
+        <v>2023</v>
+      </c>
+      <c r="AI9">
+        <v>2023</v>
+      </c>
+      <c r="AJ9">
+        <v>2023</v>
+      </c>
+      <c r="AK9">
+        <v>2023</v>
+      </c>
+      <c r="AL9">
+        <v>2023</v>
+      </c>
+      <c r="AM9">
+        <v>2023</v>
+      </c>
+      <c r="AN9">
+        <v>2023</v>
+      </c>
+      <c r="AO9">
+        <v>2023</v>
+      </c>
+      <c r="AP9">
+        <v>2023</v>
+      </c>
+      <c r="AQ9">
+        <v>2023</v>
+      </c>
+      <c r="AR9">
+        <v>2023</v>
+      </c>
+      <c r="AS9">
+        <v>2023</v>
+      </c>
+      <c r="AT9">
+        <v>2023</v>
+      </c>
+      <c r="AU9">
+        <v>2023</v>
+      </c>
+      <c r="AV9">
+        <v>2023</v>
+      </c>
+      <c r="AW9">
+        <v>2023</v>
+      </c>
+      <c r="AX9">
+        <v>2023</v>
+      </c>
+      <c r="AY9">
+        <v>2023</v>
+      </c>
+      <c r="AZ9">
+        <v>2023</v>
+      </c>
+      <c r="BA9">
+        <v>2023</v>
+      </c>
+      <c r="BB9">
+        <v>2023</v>
+      </c>
+      <c r="BC9">
+        <v>2023</v>
+      </c>
+      <c r="BD9">
+        <v>2023</v>
+      </c>
+      <c r="BE9">
+        <v>2023</v>
+      </c>
+      <c r="BF9">
+        <v>2023</v>
+      </c>
+      <c r="BG9">
+        <v>2023</v>
+      </c>
+      <c r="BH9">
+        <v>2023</v>
+      </c>
+      <c r="BI9">
+        <v>2023</v>
+      </c>
+      <c r="BJ9">
+        <v>2023</v>
+      </c>
+      <c r="BK9">
+        <v>2023</v>
+      </c>
+      <c r="BL9">
+        <v>2023</v>
+      </c>
+      <c r="BM9">
+        <v>2023</v>
+      </c>
+      <c r="BN9">
+        <v>2023</v>
+      </c>
+      <c r="BO9">
+        <v>2023</v>
+      </c>
+      <c r="BP9">
+        <v>2023</v>
+      </c>
+      <c r="BQ9">
+        <v>2023</v>
+      </c>
+      <c r="BR9">
+        <v>2023</v>
+      </c>
+      <c r="BS9">
+        <v>2023</v>
+      </c>
+      <c r="BT9">
+        <v>2023</v>
+      </c>
+      <c r="BU9">
+        <v>2023</v>
+      </c>
+      <c r="BV9">
+        <v>2023</v>
+      </c>
+      <c r="BW9">
+        <v>2023</v>
+      </c>
+      <c r="BX9">
+        <v>2023</v>
+      </c>
+      <c r="BY9">
+        <v>2023</v>
+      </c>
+      <c r="BZ9">
+        <v>2023</v>
+      </c>
+      <c r="CA9">
+        <v>2023</v>
+      </c>
+      <c r="CB9">
+        <v>2023</v>
+      </c>
+      <c r="CC9">
+        <v>2023</v>
+      </c>
+      <c r="CD9">
+        <v>2023</v>
+      </c>
+      <c r="CE9">
+        <v>2023</v>
+      </c>
+      <c r="CF9">
+        <v>2023</v>
+      </c>
+      <c r="CG9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2060,8 +4072,194 @@
       <c r="W10">
         <v>2050</v>
       </c>
+      <c r="X10">
+        <v>2050</v>
+      </c>
+      <c r="Y10">
+        <v>2050</v>
+      </c>
+      <c r="Z10">
+        <v>2050</v>
+      </c>
+      <c r="AA10">
+        <v>2050</v>
+      </c>
+      <c r="AB10">
+        <v>2050</v>
+      </c>
+      <c r="AC10">
+        <v>2050</v>
+      </c>
+      <c r="AD10">
+        <v>2050</v>
+      </c>
+      <c r="AE10">
+        <v>2050</v>
+      </c>
+      <c r="AF10">
+        <v>2050</v>
+      </c>
+      <c r="AG10">
+        <v>2050</v>
+      </c>
+      <c r="AH10">
+        <v>2050</v>
+      </c>
+      <c r="AI10">
+        <v>2050</v>
+      </c>
+      <c r="AJ10">
+        <v>2050</v>
+      </c>
+      <c r="AK10">
+        <v>2050</v>
+      </c>
+      <c r="AL10">
+        <v>2050</v>
+      </c>
+      <c r="AM10">
+        <v>2050</v>
+      </c>
+      <c r="AN10">
+        <v>2050</v>
+      </c>
+      <c r="AO10">
+        <v>2050</v>
+      </c>
+      <c r="AP10">
+        <v>2050</v>
+      </c>
+      <c r="AQ10">
+        <v>2050</v>
+      </c>
+      <c r="AR10">
+        <v>2050</v>
+      </c>
+      <c r="AS10">
+        <v>2050</v>
+      </c>
+      <c r="AT10">
+        <v>2050</v>
+      </c>
+      <c r="AU10">
+        <v>2050</v>
+      </c>
+      <c r="AV10">
+        <v>2050</v>
+      </c>
+      <c r="AW10">
+        <v>2050</v>
+      </c>
+      <c r="AX10">
+        <v>2050</v>
+      </c>
+      <c r="AY10">
+        <v>2050</v>
+      </c>
+      <c r="AZ10">
+        <v>2050</v>
+      </c>
+      <c r="BA10">
+        <v>2050</v>
+      </c>
+      <c r="BB10">
+        <v>2050</v>
+      </c>
+      <c r="BC10">
+        <v>2050</v>
+      </c>
+      <c r="BD10">
+        <v>2050</v>
+      </c>
+      <c r="BE10">
+        <v>2050</v>
+      </c>
+      <c r="BF10">
+        <v>2050</v>
+      </c>
+      <c r="BG10">
+        <v>2050</v>
+      </c>
+      <c r="BH10">
+        <v>2050</v>
+      </c>
+      <c r="BI10">
+        <v>2050</v>
+      </c>
+      <c r="BJ10">
+        <v>2050</v>
+      </c>
+      <c r="BK10">
+        <v>2050</v>
+      </c>
+      <c r="BL10">
+        <v>2050</v>
+      </c>
+      <c r="BM10">
+        <v>2050</v>
+      </c>
+      <c r="BN10">
+        <v>2050</v>
+      </c>
+      <c r="BO10">
+        <v>2050</v>
+      </c>
+      <c r="BP10">
+        <v>2050</v>
+      </c>
+      <c r="BQ10">
+        <v>2050</v>
+      </c>
+      <c r="BR10">
+        <v>2050</v>
+      </c>
+      <c r="BS10">
+        <v>2050</v>
+      </c>
+      <c r="BT10">
+        <v>2050</v>
+      </c>
+      <c r="BU10">
+        <v>2050</v>
+      </c>
+      <c r="BV10">
+        <v>2050</v>
+      </c>
+      <c r="BW10">
+        <v>2050</v>
+      </c>
+      <c r="BX10">
+        <v>2050</v>
+      </c>
+      <c r="BY10">
+        <v>2050</v>
+      </c>
+      <c r="BZ10">
+        <v>2050</v>
+      </c>
+      <c r="CA10">
+        <v>2050</v>
+      </c>
+      <c r="CB10">
+        <v>2050</v>
+      </c>
+      <c r="CC10">
+        <v>2050</v>
+      </c>
+      <c r="CD10">
+        <v>2050</v>
+      </c>
+      <c r="CE10">
+        <v>2050</v>
+      </c>
+      <c r="CF10">
+        <v>2050</v>
+      </c>
+      <c r="CG10">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2131,8 +4329,194 @@
       <c r="W11">
         <v>2030</v>
       </c>
+      <c r="X11">
+        <v>2030</v>
+      </c>
+      <c r="Y11">
+        <v>2030</v>
+      </c>
+      <c r="Z11">
+        <v>2030</v>
+      </c>
+      <c r="AA11">
+        <v>2030</v>
+      </c>
+      <c r="AB11">
+        <v>2030</v>
+      </c>
+      <c r="AC11">
+        <v>2030</v>
+      </c>
+      <c r="AD11">
+        <v>2030</v>
+      </c>
+      <c r="AE11">
+        <v>2030</v>
+      </c>
+      <c r="AF11">
+        <v>2030</v>
+      </c>
+      <c r="AG11">
+        <v>2030</v>
+      </c>
+      <c r="AH11">
+        <v>2030</v>
+      </c>
+      <c r="AI11">
+        <v>2030</v>
+      </c>
+      <c r="AJ11">
+        <v>2030</v>
+      </c>
+      <c r="AK11">
+        <v>2030</v>
+      </c>
+      <c r="AL11">
+        <v>2030</v>
+      </c>
+      <c r="AM11">
+        <v>2030</v>
+      </c>
+      <c r="AN11">
+        <v>2030</v>
+      </c>
+      <c r="AO11">
+        <v>2030</v>
+      </c>
+      <c r="AP11">
+        <v>2030</v>
+      </c>
+      <c r="AQ11">
+        <v>2030</v>
+      </c>
+      <c r="AR11">
+        <v>2030</v>
+      </c>
+      <c r="AS11">
+        <v>2030</v>
+      </c>
+      <c r="AT11">
+        <v>2030</v>
+      </c>
+      <c r="AU11">
+        <v>2030</v>
+      </c>
+      <c r="AV11">
+        <v>2030</v>
+      </c>
+      <c r="AW11">
+        <v>2030</v>
+      </c>
+      <c r="AX11">
+        <v>2030</v>
+      </c>
+      <c r="AY11">
+        <v>2030</v>
+      </c>
+      <c r="AZ11">
+        <v>2030</v>
+      </c>
+      <c r="BA11">
+        <v>2030</v>
+      </c>
+      <c r="BB11">
+        <v>2030</v>
+      </c>
+      <c r="BC11">
+        <v>2030</v>
+      </c>
+      <c r="BD11">
+        <v>2030</v>
+      </c>
+      <c r="BE11">
+        <v>2030</v>
+      </c>
+      <c r="BF11">
+        <v>2030</v>
+      </c>
+      <c r="BG11">
+        <v>2030</v>
+      </c>
+      <c r="BH11">
+        <v>2030</v>
+      </c>
+      <c r="BI11">
+        <v>2030</v>
+      </c>
+      <c r="BJ11">
+        <v>2030</v>
+      </c>
+      <c r="BK11">
+        <v>2030</v>
+      </c>
+      <c r="BL11">
+        <v>2030</v>
+      </c>
+      <c r="BM11">
+        <v>2030</v>
+      </c>
+      <c r="BN11">
+        <v>2030</v>
+      </c>
+      <c r="BO11">
+        <v>2030</v>
+      </c>
+      <c r="BP11">
+        <v>2030</v>
+      </c>
+      <c r="BQ11">
+        <v>2030</v>
+      </c>
+      <c r="BR11">
+        <v>2030</v>
+      </c>
+      <c r="BS11">
+        <v>2030</v>
+      </c>
+      <c r="BT11">
+        <v>2030</v>
+      </c>
+      <c r="BU11">
+        <v>2030</v>
+      </c>
+      <c r="BV11">
+        <v>2030</v>
+      </c>
+      <c r="BW11">
+        <v>2030</v>
+      </c>
+      <c r="BX11">
+        <v>2030</v>
+      </c>
+      <c r="BY11">
+        <v>2030</v>
+      </c>
+      <c r="BZ11">
+        <v>2030</v>
+      </c>
+      <c r="CA11">
+        <v>2030</v>
+      </c>
+      <c r="CB11">
+        <v>2030</v>
+      </c>
+      <c r="CC11">
+        <v>2030</v>
+      </c>
+      <c r="CD11">
+        <v>2030</v>
+      </c>
+      <c r="CE11">
+        <v>2030</v>
+      </c>
+      <c r="CF11">
+        <v>2030</v>
+      </c>
+      <c r="CG11">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2202,8 +4586,194 @@
       <c r="W12" t="s">
         <v>14</v>
       </c>
+      <c r="X12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2273,8 +4843,194 @@
       <c r="W13">
         <v>0.04</v>
       </c>
+      <c r="X13">
+        <v>0.04</v>
+      </c>
+      <c r="Y13">
+        <v>0.04</v>
+      </c>
+      <c r="Z13">
+        <v>0.04</v>
+      </c>
+      <c r="AA13">
+        <v>0.04</v>
+      </c>
+      <c r="AB13">
+        <v>0.04</v>
+      </c>
+      <c r="AC13">
+        <v>0.04</v>
+      </c>
+      <c r="AD13">
+        <v>0.04</v>
+      </c>
+      <c r="AE13">
+        <v>0.04</v>
+      </c>
+      <c r="AF13">
+        <v>0.04</v>
+      </c>
+      <c r="AG13">
+        <v>0.04</v>
+      </c>
+      <c r="AH13">
+        <v>0.04</v>
+      </c>
+      <c r="AI13">
+        <v>0.04</v>
+      </c>
+      <c r="AJ13">
+        <v>0.04</v>
+      </c>
+      <c r="AK13">
+        <v>0.04</v>
+      </c>
+      <c r="AL13">
+        <v>0.04</v>
+      </c>
+      <c r="AM13">
+        <v>0.04</v>
+      </c>
+      <c r="AN13">
+        <v>0.04</v>
+      </c>
+      <c r="AO13">
+        <v>0.04</v>
+      </c>
+      <c r="AP13">
+        <v>0.04</v>
+      </c>
+      <c r="AQ13">
+        <v>0.04</v>
+      </c>
+      <c r="AR13">
+        <v>0.04</v>
+      </c>
+      <c r="AS13">
+        <v>0.08</v>
+      </c>
+      <c r="AT13">
+        <v>0.04</v>
+      </c>
+      <c r="AU13">
+        <v>0.04</v>
+      </c>
+      <c r="AV13">
+        <v>0.04</v>
+      </c>
+      <c r="AW13">
+        <v>0.04</v>
+      </c>
+      <c r="AX13">
+        <v>0.04</v>
+      </c>
+      <c r="AY13">
+        <v>0.08</v>
+      </c>
+      <c r="AZ13">
+        <v>0.04</v>
+      </c>
+      <c r="BA13">
+        <v>0.04</v>
+      </c>
+      <c r="BB13">
+        <v>0.04</v>
+      </c>
+      <c r="BC13">
+        <v>0.04</v>
+      </c>
+      <c r="BD13">
+        <v>0.04</v>
+      </c>
+      <c r="BE13">
+        <v>0.04</v>
+      </c>
+      <c r="BF13">
+        <v>0.04</v>
+      </c>
+      <c r="BG13">
+        <v>0.04</v>
+      </c>
+      <c r="BH13">
+        <v>0.04</v>
+      </c>
+      <c r="BI13">
+        <v>0.04</v>
+      </c>
+      <c r="BJ13">
+        <v>0.04</v>
+      </c>
+      <c r="BK13">
+        <v>0.04</v>
+      </c>
+      <c r="BL13">
+        <v>0.04</v>
+      </c>
+      <c r="BM13">
+        <v>0.04</v>
+      </c>
+      <c r="BN13">
+        <v>0.04</v>
+      </c>
+      <c r="BO13">
+        <v>0.04</v>
+      </c>
+      <c r="BP13">
+        <v>0.04</v>
+      </c>
+      <c r="BQ13">
+        <v>0.04</v>
+      </c>
+      <c r="BR13">
+        <v>0.04</v>
+      </c>
+      <c r="BS13">
+        <v>0.04</v>
+      </c>
+      <c r="BT13">
+        <v>0.04</v>
+      </c>
+      <c r="BU13">
+        <v>0.04</v>
+      </c>
+      <c r="BV13">
+        <v>0.04</v>
+      </c>
+      <c r="BW13">
+        <v>0.04</v>
+      </c>
+      <c r="BX13">
+        <v>0.04</v>
+      </c>
+      <c r="BY13">
+        <v>0.04</v>
+      </c>
+      <c r="BZ13">
+        <v>0.04</v>
+      </c>
+      <c r="CA13">
+        <v>0.04</v>
+      </c>
+      <c r="CB13">
+        <v>0.04</v>
+      </c>
+      <c r="CC13">
+        <v>0.04</v>
+      </c>
+      <c r="CD13">
+        <v>0.04</v>
+      </c>
+      <c r="CE13">
+        <v>0.04</v>
+      </c>
+      <c r="CF13">
+        <v>0.04</v>
+      </c>
+      <c r="CG13">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2344,8 +5100,194 @@
       <c r="W14" t="s">
         <v>49</v>
       </c>
+      <c r="X14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2415,8 +5357,194 @@
       <c r="W15" t="b">
         <v>1</v>
       </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2486,8 +5614,194 @@
       <c r="W16">
         <v>167000</v>
       </c>
+      <c r="X16">
+        <v>167000</v>
+      </c>
+      <c r="Y16">
+        <v>167000</v>
+      </c>
+      <c r="Z16">
+        <v>167000</v>
+      </c>
+      <c r="AA16">
+        <v>167000</v>
+      </c>
+      <c r="AB16">
+        <v>167000</v>
+      </c>
+      <c r="AC16">
+        <v>167000</v>
+      </c>
+      <c r="AD16">
+        <v>167000</v>
+      </c>
+      <c r="AE16">
+        <v>167000</v>
+      </c>
+      <c r="AF16">
+        <v>167000</v>
+      </c>
+      <c r="AG16">
+        <v>167000</v>
+      </c>
+      <c r="AH16">
+        <v>167000</v>
+      </c>
+      <c r="AI16">
+        <v>167000</v>
+      </c>
+      <c r="AJ16">
+        <v>167000</v>
+      </c>
+      <c r="AK16">
+        <v>167000</v>
+      </c>
+      <c r="AL16">
+        <v>167000</v>
+      </c>
+      <c r="AM16">
+        <v>167000</v>
+      </c>
+      <c r="AN16">
+        <v>167000</v>
+      </c>
+      <c r="AO16">
+        <v>167000</v>
+      </c>
+      <c r="AP16">
+        <v>167000</v>
+      </c>
+      <c r="AQ16">
+        <v>167000</v>
+      </c>
+      <c r="AR16">
+        <v>167000</v>
+      </c>
+      <c r="AS16">
+        <v>167000</v>
+      </c>
+      <c r="AT16">
+        <v>167000</v>
+      </c>
+      <c r="AU16">
+        <v>167000</v>
+      </c>
+      <c r="AV16">
+        <v>167000</v>
+      </c>
+      <c r="AW16">
+        <v>167000</v>
+      </c>
+      <c r="AX16">
+        <v>167000</v>
+      </c>
+      <c r="AY16">
+        <v>167000</v>
+      </c>
+      <c r="AZ16">
+        <v>167000</v>
+      </c>
+      <c r="BA16">
+        <v>167000</v>
+      </c>
+      <c r="BB16">
+        <v>167000</v>
+      </c>
+      <c r="BC16">
+        <v>167000</v>
+      </c>
+      <c r="BD16">
+        <v>167000</v>
+      </c>
+      <c r="BE16">
+        <v>167000</v>
+      </c>
+      <c r="BF16">
+        <v>167000</v>
+      </c>
+      <c r="BG16">
+        <v>167000</v>
+      </c>
+      <c r="BH16">
+        <v>167000</v>
+      </c>
+      <c r="BI16">
+        <v>167000</v>
+      </c>
+      <c r="BJ16">
+        <v>167000</v>
+      </c>
+      <c r="BK16">
+        <v>167000</v>
+      </c>
+      <c r="BL16">
+        <v>167000</v>
+      </c>
+      <c r="BM16">
+        <v>167000</v>
+      </c>
+      <c r="BN16">
+        <v>167000</v>
+      </c>
+      <c r="BO16">
+        <v>167000</v>
+      </c>
+      <c r="BP16">
+        <v>167000</v>
+      </c>
+      <c r="BQ16">
+        <v>167000</v>
+      </c>
+      <c r="BR16">
+        <v>167000</v>
+      </c>
+      <c r="BS16">
+        <v>167000</v>
+      </c>
+      <c r="BT16">
+        <v>167000</v>
+      </c>
+      <c r="BU16">
+        <v>167000</v>
+      </c>
+      <c r="BV16">
+        <v>167000</v>
+      </c>
+      <c r="BW16">
+        <v>167000</v>
+      </c>
+      <c r="BX16">
+        <v>167000</v>
+      </c>
+      <c r="BY16">
+        <v>167000</v>
+      </c>
+      <c r="BZ16">
+        <v>167000</v>
+      </c>
+      <c r="CA16">
+        <v>167000</v>
+      </c>
+      <c r="CB16">
+        <v>167000</v>
+      </c>
+      <c r="CC16">
+        <v>167000</v>
+      </c>
+      <c r="CD16">
+        <v>167000</v>
+      </c>
+      <c r="CE16">
+        <v>167000</v>
+      </c>
+      <c r="CF16">
+        <v>167000</v>
+      </c>
+      <c r="CG16">
+        <v>167000</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2559,8 +5873,196 @@
       <c r="W17">
         <v>0.04</v>
       </c>
+      <c r="X17">
+        <v>0.04</v>
+      </c>
+      <c r="Y17">
+        <v>0.04</v>
+      </c>
+      <c r="Z17">
+        <v>0.04</v>
+      </c>
+      <c r="AA17">
+        <v>0.04</v>
+      </c>
+      <c r="AB17">
+        <v>0.04</v>
+      </c>
+      <c r="AC17">
+        <v>0.04</v>
+      </c>
+      <c r="AD17">
+        <v>0.04</v>
+      </c>
+      <c r="AE17">
+        <v>0.04</v>
+      </c>
+      <c r="AF17">
+        <v>0.04</v>
+      </c>
+      <c r="AG17">
+        <v>0.04</v>
+      </c>
+      <c r="AH17">
+        <v>0.04</v>
+      </c>
+      <c r="AI17">
+        <v>0.04</v>
+      </c>
+      <c r="AJ17">
+        <v>0.04</v>
+      </c>
+      <c r="AK17">
+        <v>0.04</v>
+      </c>
+      <c r="AL17">
+        <v>0.04</v>
+      </c>
+      <c r="AM17">
+        <v>0.04</v>
+      </c>
+      <c r="AN17">
+        <v>0.04</v>
+      </c>
+      <c r="AO17">
+        <v>0.04</v>
+      </c>
+      <c r="AP17">
+        <v>0.04</v>
+      </c>
+      <c r="AQ17">
+        <v>0.04</v>
+      </c>
+      <c r="AR17">
+        <v>0.04</v>
+      </c>
+      <c r="AS17">
+        <f>AS13</f>
+        <v>0.08</v>
+      </c>
+      <c r="AT17">
+        <v>0.04</v>
+      </c>
+      <c r="AU17">
+        <v>0.04</v>
+      </c>
+      <c r="AV17">
+        <v>0.04</v>
+      </c>
+      <c r="AW17">
+        <v>0.04</v>
+      </c>
+      <c r="AX17">
+        <v>0.04</v>
+      </c>
+      <c r="AY17">
+        <f>AY13</f>
+        <v>0.08</v>
+      </c>
+      <c r="AZ17">
+        <v>0.04</v>
+      </c>
+      <c r="BA17">
+        <v>0.04</v>
+      </c>
+      <c r="BB17">
+        <v>0.04</v>
+      </c>
+      <c r="BC17">
+        <v>0.04</v>
+      </c>
+      <c r="BD17">
+        <v>0.04</v>
+      </c>
+      <c r="BE17">
+        <v>0.04</v>
+      </c>
+      <c r="BF17">
+        <v>0.04</v>
+      </c>
+      <c r="BG17">
+        <v>0.04</v>
+      </c>
+      <c r="BH17">
+        <v>0.04</v>
+      </c>
+      <c r="BI17">
+        <v>0.04</v>
+      </c>
+      <c r="BJ17">
+        <v>0.04</v>
+      </c>
+      <c r="BK17">
+        <v>0.04</v>
+      </c>
+      <c r="BL17">
+        <v>0.04</v>
+      </c>
+      <c r="BM17">
+        <v>0.04</v>
+      </c>
+      <c r="BN17">
+        <v>0.04</v>
+      </c>
+      <c r="BO17">
+        <v>0.04</v>
+      </c>
+      <c r="BP17">
+        <v>0.04</v>
+      </c>
+      <c r="BQ17">
+        <v>0.04</v>
+      </c>
+      <c r="BR17">
+        <v>0.04</v>
+      </c>
+      <c r="BS17">
+        <v>0.04</v>
+      </c>
+      <c r="BT17">
+        <v>0.04</v>
+      </c>
+      <c r="BU17">
+        <v>0.04</v>
+      </c>
+      <c r="BV17">
+        <v>0.04</v>
+      </c>
+      <c r="BW17">
+        <v>0.04</v>
+      </c>
+      <c r="BX17">
+        <v>0.04</v>
+      </c>
+      <c r="BY17">
+        <v>0.04</v>
+      </c>
+      <c r="BZ17">
+        <v>0.04</v>
+      </c>
+      <c r="CA17">
+        <v>0.04</v>
+      </c>
+      <c r="CB17">
+        <v>0.04</v>
+      </c>
+      <c r="CC17">
+        <v>0.04</v>
+      </c>
+      <c r="CD17">
+        <v>0.04</v>
+      </c>
+      <c r="CE17">
+        <v>0.04</v>
+      </c>
+      <c r="CF17">
+        <v>0.04</v>
+      </c>
+      <c r="CG17">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2630,8 +6132,194 @@
       <c r="W18" t="b">
         <v>0</v>
       </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2701,8 +6389,194 @@
       <c r="W19">
         <v>0</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2772,8 +6646,194 @@
       <c r="W20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2843,8 +6903,194 @@
       <c r="W21">
         <v>80000</v>
       </c>
+      <c r="X21">
+        <v>80000</v>
+      </c>
+      <c r="Y21">
+        <v>80000</v>
+      </c>
+      <c r="Z21">
+        <v>80000</v>
+      </c>
+      <c r="AA21">
+        <v>80000</v>
+      </c>
+      <c r="AB21">
+        <v>80000</v>
+      </c>
+      <c r="AC21">
+        <v>80000</v>
+      </c>
+      <c r="AD21">
+        <v>80000</v>
+      </c>
+      <c r="AE21">
+        <v>80000</v>
+      </c>
+      <c r="AF21">
+        <v>80000</v>
+      </c>
+      <c r="AG21">
+        <v>80000</v>
+      </c>
+      <c r="AH21">
+        <v>80000</v>
+      </c>
+      <c r="AI21">
+        <v>80000</v>
+      </c>
+      <c r="AJ21">
+        <v>80000</v>
+      </c>
+      <c r="AK21">
+        <v>80000</v>
+      </c>
+      <c r="AL21">
+        <v>80000</v>
+      </c>
+      <c r="AM21">
+        <v>80000</v>
+      </c>
+      <c r="AN21">
+        <v>80000</v>
+      </c>
+      <c r="AO21">
+        <v>80000</v>
+      </c>
+      <c r="AP21">
+        <v>80000</v>
+      </c>
+      <c r="AQ21">
+        <v>80000</v>
+      </c>
+      <c r="AR21">
+        <v>80000</v>
+      </c>
+      <c r="AS21">
+        <v>80000</v>
+      </c>
+      <c r="AT21">
+        <v>80000</v>
+      </c>
+      <c r="AU21">
+        <v>80000</v>
+      </c>
+      <c r="AV21">
+        <v>80000</v>
+      </c>
+      <c r="AW21">
+        <v>80000</v>
+      </c>
+      <c r="AX21">
+        <v>80000</v>
+      </c>
+      <c r="AY21">
+        <v>80000</v>
+      </c>
+      <c r="AZ21">
+        <v>80000</v>
+      </c>
+      <c r="BA21">
+        <v>80000</v>
+      </c>
+      <c r="BB21">
+        <v>80000</v>
+      </c>
+      <c r="BC21">
+        <v>80000</v>
+      </c>
+      <c r="BD21">
+        <v>80000</v>
+      </c>
+      <c r="BE21">
+        <v>80000</v>
+      </c>
+      <c r="BF21">
+        <v>80000</v>
+      </c>
+      <c r="BG21">
+        <v>80000</v>
+      </c>
+      <c r="BH21">
+        <v>80000</v>
+      </c>
+      <c r="BI21">
+        <v>80000</v>
+      </c>
+      <c r="BJ21">
+        <v>80000</v>
+      </c>
+      <c r="BK21">
+        <v>80000</v>
+      </c>
+      <c r="BL21">
+        <v>80000</v>
+      </c>
+      <c r="BM21">
+        <v>80000</v>
+      </c>
+      <c r="BN21">
+        <v>80000</v>
+      </c>
+      <c r="BO21">
+        <v>80000</v>
+      </c>
+      <c r="BP21">
+        <v>80000</v>
+      </c>
+      <c r="BQ21">
+        <v>80000</v>
+      </c>
+      <c r="BR21">
+        <v>80000</v>
+      </c>
+      <c r="BS21">
+        <v>80000</v>
+      </c>
+      <c r="BT21">
+        <v>80000</v>
+      </c>
+      <c r="BU21">
+        <v>80000</v>
+      </c>
+      <c r="BV21">
+        <v>80000</v>
+      </c>
+      <c r="BW21">
+        <v>80000</v>
+      </c>
+      <c r="BX21">
+        <v>80000</v>
+      </c>
+      <c r="BY21">
+        <v>80000</v>
+      </c>
+      <c r="BZ21">
+        <v>80000</v>
+      </c>
+      <c r="CA21">
+        <v>80000</v>
+      </c>
+      <c r="CB21">
+        <v>80000</v>
+      </c>
+      <c r="CC21">
+        <v>80000</v>
+      </c>
+      <c r="CD21">
+        <v>80000</v>
+      </c>
+      <c r="CE21">
+        <v>80000</v>
+      </c>
+      <c r="CF21">
+        <v>80000</v>
+      </c>
+      <c r="CG21">
+        <v>80000</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2914,8 +7160,194 @@
       <c r="W22" t="b">
         <v>1</v>
       </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BY22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG22" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2985,8 +7417,194 @@
       <c r="W23">
         <v>0</v>
       </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3056,8 +7674,194 @@
       <c r="W24" t="b">
         <v>1</v>
       </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BY24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG24" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3127,8 +7931,194 @@
       <c r="W25">
         <v>1400</v>
       </c>
+      <c r="X25">
+        <v>1400</v>
+      </c>
+      <c r="Y25">
+        <v>1400</v>
+      </c>
+      <c r="Z25">
+        <v>1400</v>
+      </c>
+      <c r="AA25">
+        <v>1400</v>
+      </c>
+      <c r="AB25">
+        <v>1400</v>
+      </c>
+      <c r="AC25">
+        <v>1400</v>
+      </c>
+      <c r="AD25">
+        <v>1400</v>
+      </c>
+      <c r="AE25">
+        <v>1400</v>
+      </c>
+      <c r="AF25">
+        <v>1400</v>
+      </c>
+      <c r="AG25">
+        <v>1400</v>
+      </c>
+      <c r="AH25">
+        <v>1400</v>
+      </c>
+      <c r="AI25">
+        <v>1400</v>
+      </c>
+      <c r="AJ25">
+        <v>1400</v>
+      </c>
+      <c r="AK25">
+        <v>1400</v>
+      </c>
+      <c r="AL25">
+        <v>1400</v>
+      </c>
+      <c r="AM25">
+        <v>1400</v>
+      </c>
+      <c r="AN25">
+        <v>1400</v>
+      </c>
+      <c r="AO25">
+        <v>1400</v>
+      </c>
+      <c r="AP25">
+        <v>1400</v>
+      </c>
+      <c r="AQ25">
+        <v>1400</v>
+      </c>
+      <c r="AR25">
+        <v>1400</v>
+      </c>
+      <c r="AS25">
+        <v>1400</v>
+      </c>
+      <c r="AT25">
+        <v>1400</v>
+      </c>
+      <c r="AU25">
+        <v>1400</v>
+      </c>
+      <c r="AV25">
+        <v>1400</v>
+      </c>
+      <c r="AW25">
+        <v>1400</v>
+      </c>
+      <c r="AX25">
+        <v>1400</v>
+      </c>
+      <c r="AY25">
+        <v>1400</v>
+      </c>
+      <c r="AZ25">
+        <v>1400</v>
+      </c>
+      <c r="BA25">
+        <v>1400</v>
+      </c>
+      <c r="BB25">
+        <v>1400</v>
+      </c>
+      <c r="BC25">
+        <v>1400</v>
+      </c>
+      <c r="BD25">
+        <v>1400</v>
+      </c>
+      <c r="BE25">
+        <v>1400</v>
+      </c>
+      <c r="BF25">
+        <v>1400</v>
+      </c>
+      <c r="BG25">
+        <v>1400</v>
+      </c>
+      <c r="BH25">
+        <v>1400</v>
+      </c>
+      <c r="BI25">
+        <v>1400</v>
+      </c>
+      <c r="BJ25">
+        <v>1400</v>
+      </c>
+      <c r="BK25">
+        <v>1400</v>
+      </c>
+      <c r="BL25">
+        <v>1400</v>
+      </c>
+      <c r="BM25">
+        <v>1400</v>
+      </c>
+      <c r="BN25">
+        <v>1400</v>
+      </c>
+      <c r="BO25">
+        <v>1400</v>
+      </c>
+      <c r="BP25">
+        <v>1400</v>
+      </c>
+      <c r="BQ25">
+        <v>1400</v>
+      </c>
+      <c r="BR25">
+        <v>1400</v>
+      </c>
+      <c r="BS25">
+        <v>1400</v>
+      </c>
+      <c r="BT25">
+        <v>1400</v>
+      </c>
+      <c r="BU25">
+        <v>1400</v>
+      </c>
+      <c r="BV25">
+        <v>1400</v>
+      </c>
+      <c r="BW25">
+        <v>1400</v>
+      </c>
+      <c r="BX25">
+        <v>1400</v>
+      </c>
+      <c r="BY25">
+        <v>1400</v>
+      </c>
+      <c r="BZ25">
+        <v>1400</v>
+      </c>
+      <c r="CA25">
+        <v>1400</v>
+      </c>
+      <c r="CB25">
+        <v>1400</v>
+      </c>
+      <c r="CC25">
+        <v>1400</v>
+      </c>
+      <c r="CD25">
+        <v>1400</v>
+      </c>
+      <c r="CE25">
+        <v>1400</v>
+      </c>
+      <c r="CF25">
+        <v>1400</v>
+      </c>
+      <c r="CG25">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3198,8 +8188,194 @@
       <c r="W26" t="b">
         <v>1</v>
       </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3269,8 +8445,194 @@
       <c r="W27">
         <v>1000000000</v>
       </c>
+      <c r="X27">
+        <v>1000000000</v>
+      </c>
+      <c r="Y27">
+        <v>1000000000</v>
+      </c>
+      <c r="Z27">
+        <v>1000000000</v>
+      </c>
+      <c r="AA27">
+        <v>1000000000</v>
+      </c>
+      <c r="AB27">
+        <v>1000000000</v>
+      </c>
+      <c r="AC27">
+        <v>1000000000</v>
+      </c>
+      <c r="AD27">
+        <v>1000000000</v>
+      </c>
+      <c r="AE27">
+        <v>1000000000</v>
+      </c>
+      <c r="AF27">
+        <v>1000000000</v>
+      </c>
+      <c r="AG27">
+        <v>1000000000</v>
+      </c>
+      <c r="AH27">
+        <v>1000000000</v>
+      </c>
+      <c r="AI27">
+        <v>1000000000</v>
+      </c>
+      <c r="AJ27">
+        <v>1000000000</v>
+      </c>
+      <c r="AK27">
+        <v>1000000000</v>
+      </c>
+      <c r="AL27">
+        <v>1000000000</v>
+      </c>
+      <c r="AM27">
+        <v>1000000000</v>
+      </c>
+      <c r="AN27">
+        <v>1000000000</v>
+      </c>
+      <c r="AO27">
+        <v>1000000000</v>
+      </c>
+      <c r="AP27">
+        <v>1000000000</v>
+      </c>
+      <c r="AQ27">
+        <v>1000000000</v>
+      </c>
+      <c r="AR27">
+        <v>1000000000</v>
+      </c>
+      <c r="AS27">
+        <v>1000000000</v>
+      </c>
+      <c r="AT27">
+        <v>1000000000</v>
+      </c>
+      <c r="AU27">
+        <v>1000000000</v>
+      </c>
+      <c r="AV27">
+        <v>1000000000</v>
+      </c>
+      <c r="AW27">
+        <v>1000000000</v>
+      </c>
+      <c r="AX27">
+        <v>1000000000</v>
+      </c>
+      <c r="AY27">
+        <v>1000000000</v>
+      </c>
+      <c r="AZ27">
+        <v>1000000000</v>
+      </c>
+      <c r="BA27">
+        <v>1000000000</v>
+      </c>
+      <c r="BB27">
+        <v>1000000000</v>
+      </c>
+      <c r="BC27">
+        <v>1000000000</v>
+      </c>
+      <c r="BD27">
+        <v>1000000000</v>
+      </c>
+      <c r="BE27">
+        <v>1000000000</v>
+      </c>
+      <c r="BF27">
+        <v>1000000000</v>
+      </c>
+      <c r="BG27">
+        <v>1000000000</v>
+      </c>
+      <c r="BH27">
+        <v>1000000000</v>
+      </c>
+      <c r="BI27">
+        <v>1000000000</v>
+      </c>
+      <c r="BJ27">
+        <v>1000000000</v>
+      </c>
+      <c r="BK27">
+        <v>1000000000</v>
+      </c>
+      <c r="BL27">
+        <v>1000000000</v>
+      </c>
+      <c r="BM27">
+        <v>1000000000</v>
+      </c>
+      <c r="BN27">
+        <v>1000000000</v>
+      </c>
+      <c r="BO27">
+        <v>1000000000</v>
+      </c>
+      <c r="BP27">
+        <v>1000000000</v>
+      </c>
+      <c r="BQ27">
+        <v>1000000000</v>
+      </c>
+      <c r="BR27">
+        <v>1000000000</v>
+      </c>
+      <c r="BS27">
+        <v>1000000000</v>
+      </c>
+      <c r="BT27">
+        <v>1000000000</v>
+      </c>
+      <c r="BU27">
+        <v>1000000000</v>
+      </c>
+      <c r="BV27">
+        <v>1000000000</v>
+      </c>
+      <c r="BW27">
+        <v>1000000000</v>
+      </c>
+      <c r="BX27">
+        <v>1000000000</v>
+      </c>
+      <c r="BY27">
+        <v>1000000000</v>
+      </c>
+      <c r="BZ27">
+        <v>1000000000</v>
+      </c>
+      <c r="CA27">
+        <v>1000000000</v>
+      </c>
+      <c r="CB27">
+        <v>1000000000</v>
+      </c>
+      <c r="CC27">
+        <v>1000000000</v>
+      </c>
+      <c r="CD27">
+        <v>1000000000</v>
+      </c>
+      <c r="CE27">
+        <v>1000000000</v>
+      </c>
+      <c r="CF27">
+        <v>1000000000</v>
+      </c>
+      <c r="CG27">
+        <v>1000000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3340,8 +8702,194 @@
       <c r="W28">
         <v>250000000</v>
       </c>
+      <c r="X28">
+        <v>250000000</v>
+      </c>
+      <c r="Y28">
+        <v>250000000</v>
+      </c>
+      <c r="Z28">
+        <v>250000000</v>
+      </c>
+      <c r="AA28">
+        <v>250000000</v>
+      </c>
+      <c r="AB28">
+        <v>250000000</v>
+      </c>
+      <c r="AC28">
+        <v>250000000</v>
+      </c>
+      <c r="AD28">
+        <v>250000000</v>
+      </c>
+      <c r="AE28">
+        <v>250000000</v>
+      </c>
+      <c r="AF28">
+        <v>250000000</v>
+      </c>
+      <c r="AG28">
+        <v>250000000</v>
+      </c>
+      <c r="AH28">
+        <v>250000000</v>
+      </c>
+      <c r="AI28">
+        <v>250000000</v>
+      </c>
+      <c r="AJ28">
+        <v>250000000</v>
+      </c>
+      <c r="AK28">
+        <v>250000000</v>
+      </c>
+      <c r="AL28">
+        <v>250000000</v>
+      </c>
+      <c r="AM28">
+        <v>250000000</v>
+      </c>
+      <c r="AN28">
+        <v>250000000</v>
+      </c>
+      <c r="AO28">
+        <v>250000000</v>
+      </c>
+      <c r="AP28">
+        <v>250000000</v>
+      </c>
+      <c r="AQ28">
+        <v>250000000</v>
+      </c>
+      <c r="AR28">
+        <v>250000000</v>
+      </c>
+      <c r="AS28">
+        <v>250000000</v>
+      </c>
+      <c r="AT28">
+        <v>250000000</v>
+      </c>
+      <c r="AU28">
+        <v>250000000</v>
+      </c>
+      <c r="AV28">
+        <v>250000000</v>
+      </c>
+      <c r="AW28">
+        <v>250000000</v>
+      </c>
+      <c r="AX28">
+        <v>250000000</v>
+      </c>
+      <c r="AY28">
+        <v>250000000</v>
+      </c>
+      <c r="AZ28">
+        <v>250000000</v>
+      </c>
+      <c r="BA28">
+        <v>250000000</v>
+      </c>
+      <c r="BB28">
+        <v>250000000</v>
+      </c>
+      <c r="BC28">
+        <v>250000000</v>
+      </c>
+      <c r="BD28">
+        <v>250000000</v>
+      </c>
+      <c r="BE28">
+        <v>250000000</v>
+      </c>
+      <c r="BF28">
+        <v>250000000</v>
+      </c>
+      <c r="BG28">
+        <v>250000000</v>
+      </c>
+      <c r="BH28">
+        <v>250000000</v>
+      </c>
+      <c r="BI28">
+        <v>250000000</v>
+      </c>
+      <c r="BJ28">
+        <v>250000000</v>
+      </c>
+      <c r="BK28">
+        <v>250000000</v>
+      </c>
+      <c r="BL28">
+        <v>250000000</v>
+      </c>
+      <c r="BM28">
+        <v>250000000</v>
+      </c>
+      <c r="BN28">
+        <v>250000000</v>
+      </c>
+      <c r="BO28">
+        <v>250000000</v>
+      </c>
+      <c r="BP28">
+        <v>250000000</v>
+      </c>
+      <c r="BQ28">
+        <v>250000000</v>
+      </c>
+      <c r="BR28">
+        <v>250000000</v>
+      </c>
+      <c r="BS28">
+        <v>250000000</v>
+      </c>
+      <c r="BT28">
+        <v>250000000</v>
+      </c>
+      <c r="BU28">
+        <v>250000000</v>
+      </c>
+      <c r="BV28">
+        <v>250000000</v>
+      </c>
+      <c r="BW28">
+        <v>250000000</v>
+      </c>
+      <c r="BX28">
+        <v>250000000</v>
+      </c>
+      <c r="BY28">
+        <v>250000000</v>
+      </c>
+      <c r="BZ28">
+        <v>250000000</v>
+      </c>
+      <c r="CA28">
+        <v>250000000</v>
+      </c>
+      <c r="CB28">
+        <v>250000000</v>
+      </c>
+      <c r="CC28">
+        <v>250000000</v>
+      </c>
+      <c r="CD28">
+        <v>250000000</v>
+      </c>
+      <c r="CE28">
+        <v>250000000</v>
+      </c>
+      <c r="CF28">
+        <v>250000000</v>
+      </c>
+      <c r="CG28">
+        <v>250000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3411,8 +8959,194 @@
       <c r="W29">
         <v>0.9</v>
       </c>
+      <c r="X29">
+        <v>0.9</v>
+      </c>
+      <c r="Y29">
+        <v>0.9</v>
+      </c>
+      <c r="Z29">
+        <v>0.9</v>
+      </c>
+      <c r="AA29">
+        <v>0.9</v>
+      </c>
+      <c r="AB29">
+        <v>0.9</v>
+      </c>
+      <c r="AC29">
+        <v>0.9</v>
+      </c>
+      <c r="AD29">
+        <v>0.9</v>
+      </c>
+      <c r="AE29">
+        <v>0.9</v>
+      </c>
+      <c r="AF29">
+        <v>0.9</v>
+      </c>
+      <c r="AG29">
+        <v>0.9</v>
+      </c>
+      <c r="AH29">
+        <v>0.9</v>
+      </c>
+      <c r="AI29">
+        <v>0.9</v>
+      </c>
+      <c r="AJ29">
+        <v>0.9</v>
+      </c>
+      <c r="AK29">
+        <v>0.9</v>
+      </c>
+      <c r="AL29">
+        <v>0.9</v>
+      </c>
+      <c r="AM29">
+        <v>0.9</v>
+      </c>
+      <c r="AN29">
+        <v>0.9</v>
+      </c>
+      <c r="AO29">
+        <v>0.9</v>
+      </c>
+      <c r="AP29">
+        <v>0.9</v>
+      </c>
+      <c r="AQ29">
+        <v>0.9</v>
+      </c>
+      <c r="AR29">
+        <v>0.9</v>
+      </c>
+      <c r="AS29">
+        <v>0.9</v>
+      </c>
+      <c r="AT29">
+        <v>0.9</v>
+      </c>
+      <c r="AU29">
+        <v>0.9</v>
+      </c>
+      <c r="AV29">
+        <v>0.9</v>
+      </c>
+      <c r="AW29">
+        <v>0.9</v>
+      </c>
+      <c r="AX29">
+        <v>0.9</v>
+      </c>
+      <c r="AY29">
+        <v>0.9</v>
+      </c>
+      <c r="AZ29">
+        <v>0.9</v>
+      </c>
+      <c r="BA29">
+        <v>0.9</v>
+      </c>
+      <c r="BB29">
+        <v>0.9</v>
+      </c>
+      <c r="BC29">
+        <v>0.9</v>
+      </c>
+      <c r="BD29">
+        <v>0.9</v>
+      </c>
+      <c r="BE29">
+        <v>0.9</v>
+      </c>
+      <c r="BF29">
+        <v>0.9</v>
+      </c>
+      <c r="BG29">
+        <v>0.9</v>
+      </c>
+      <c r="BH29">
+        <v>0.9</v>
+      </c>
+      <c r="BI29">
+        <v>0.9</v>
+      </c>
+      <c r="BJ29">
+        <v>0.9</v>
+      </c>
+      <c r="BK29">
+        <v>0.9</v>
+      </c>
+      <c r="BL29">
+        <v>0.9</v>
+      </c>
+      <c r="BM29">
+        <v>0.9</v>
+      </c>
+      <c r="BN29">
+        <v>0.9</v>
+      </c>
+      <c r="BO29">
+        <v>0.9</v>
+      </c>
+      <c r="BP29">
+        <v>0.9</v>
+      </c>
+      <c r="BQ29">
+        <v>0.9</v>
+      </c>
+      <c r="BR29">
+        <v>0.9</v>
+      </c>
+      <c r="BS29">
+        <v>0.9</v>
+      </c>
+      <c r="BT29">
+        <v>0.9</v>
+      </c>
+      <c r="BU29">
+        <v>0.9</v>
+      </c>
+      <c r="BV29">
+        <v>0.9</v>
+      </c>
+      <c r="BW29">
+        <v>0.9</v>
+      </c>
+      <c r="BX29">
+        <v>0.9</v>
+      </c>
+      <c r="BY29">
+        <v>0.9</v>
+      </c>
+      <c r="BZ29">
+        <v>0.9</v>
+      </c>
+      <c r="CA29">
+        <v>0.9</v>
+      </c>
+      <c r="CB29">
+        <v>0.9</v>
+      </c>
+      <c r="CC29">
+        <v>0.9</v>
+      </c>
+      <c r="CD29">
+        <v>0.9</v>
+      </c>
+      <c r="CE29">
+        <v>0.9</v>
+      </c>
+      <c r="CF29">
+        <v>0.9</v>
+      </c>
+      <c r="CG29">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3482,8 +9216,194 @@
       <c r="W30">
         <v>0.9</v>
       </c>
+      <c r="X30">
+        <v>0.9</v>
+      </c>
+      <c r="Y30">
+        <v>0.9</v>
+      </c>
+      <c r="Z30">
+        <v>0.9</v>
+      </c>
+      <c r="AA30">
+        <v>0.9</v>
+      </c>
+      <c r="AB30">
+        <v>0.9</v>
+      </c>
+      <c r="AC30">
+        <v>0.9</v>
+      </c>
+      <c r="AD30">
+        <v>0.9</v>
+      </c>
+      <c r="AE30">
+        <v>0.9</v>
+      </c>
+      <c r="AF30">
+        <v>0.9</v>
+      </c>
+      <c r="AG30">
+        <v>0.9</v>
+      </c>
+      <c r="AH30">
+        <v>0.9</v>
+      </c>
+      <c r="AI30">
+        <v>0.9</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9</v>
+      </c>
+      <c r="AK30">
+        <v>0.9</v>
+      </c>
+      <c r="AL30">
+        <v>0.9</v>
+      </c>
+      <c r="AM30">
+        <v>0.9</v>
+      </c>
+      <c r="AN30">
+        <v>0.9</v>
+      </c>
+      <c r="AO30">
+        <v>0.9</v>
+      </c>
+      <c r="AP30">
+        <v>0.9</v>
+      </c>
+      <c r="AQ30">
+        <v>0.9</v>
+      </c>
+      <c r="AR30">
+        <v>0.9</v>
+      </c>
+      <c r="AS30">
+        <v>0.9</v>
+      </c>
+      <c r="AT30">
+        <v>0.9</v>
+      </c>
+      <c r="AU30">
+        <v>0.9</v>
+      </c>
+      <c r="AV30">
+        <v>0.9</v>
+      </c>
+      <c r="AW30">
+        <v>0.9</v>
+      </c>
+      <c r="AX30">
+        <v>0.9</v>
+      </c>
+      <c r="AY30">
+        <v>0.9</v>
+      </c>
+      <c r="AZ30">
+        <v>0.9</v>
+      </c>
+      <c r="BA30">
+        <v>0.9</v>
+      </c>
+      <c r="BB30">
+        <v>0.9</v>
+      </c>
+      <c r="BC30">
+        <v>0.9</v>
+      </c>
+      <c r="BD30">
+        <v>0.9</v>
+      </c>
+      <c r="BE30">
+        <v>0.9</v>
+      </c>
+      <c r="BF30">
+        <v>0.9</v>
+      </c>
+      <c r="BG30">
+        <v>0.9</v>
+      </c>
+      <c r="BH30">
+        <v>0.9</v>
+      </c>
+      <c r="BI30">
+        <v>0.9</v>
+      </c>
+      <c r="BJ30">
+        <v>0.9</v>
+      </c>
+      <c r="BK30">
+        <v>0.9</v>
+      </c>
+      <c r="BL30">
+        <v>0.9</v>
+      </c>
+      <c r="BM30">
+        <v>0.9</v>
+      </c>
+      <c r="BN30">
+        <v>0.9</v>
+      </c>
+      <c r="BO30">
+        <v>0.9</v>
+      </c>
+      <c r="BP30">
+        <v>0.9</v>
+      </c>
+      <c r="BQ30">
+        <v>0.9</v>
+      </c>
+      <c r="BR30">
+        <v>0.9</v>
+      </c>
+      <c r="BS30">
+        <v>0.9</v>
+      </c>
+      <c r="BT30">
+        <v>0.9</v>
+      </c>
+      <c r="BU30">
+        <v>0.9</v>
+      </c>
+      <c r="BV30">
+        <v>0.9</v>
+      </c>
+      <c r="BW30">
+        <v>0.9</v>
+      </c>
+      <c r="BX30">
+        <v>0.9</v>
+      </c>
+      <c r="BY30">
+        <v>0.9</v>
+      </c>
+      <c r="BZ30">
+        <v>0.9</v>
+      </c>
+      <c r="CA30">
+        <v>0.9</v>
+      </c>
+      <c r="CB30">
+        <v>0.9</v>
+      </c>
+      <c r="CC30">
+        <v>0.9</v>
+      </c>
+      <c r="CD30">
+        <v>0.9</v>
+      </c>
+      <c r="CE30">
+        <v>0.9</v>
+      </c>
+      <c r="CF30">
+        <v>0.9</v>
+      </c>
+      <c r="CG30">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3553,8 +9473,194 @@
       <c r="W31">
         <v>4</v>
       </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
+        <v>4</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>4</v>
+      </c>
+      <c r="AH31">
+        <v>4</v>
+      </c>
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>4</v>
+      </c>
+      <c r="AK31">
+        <v>4</v>
+      </c>
+      <c r="AL31">
+        <v>4</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="AO31">
+        <v>4</v>
+      </c>
+      <c r="AP31">
+        <v>4</v>
+      </c>
+      <c r="AQ31">
+        <v>4</v>
+      </c>
+      <c r="AR31">
+        <v>4</v>
+      </c>
+      <c r="AS31">
+        <v>4</v>
+      </c>
+      <c r="AT31">
+        <v>4</v>
+      </c>
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>4</v>
+      </c>
+      <c r="BD31">
+        <v>4</v>
+      </c>
+      <c r="BE31">
+        <v>4</v>
+      </c>
+      <c r="BF31">
+        <v>4</v>
+      </c>
+      <c r="BG31">
+        <v>4</v>
+      </c>
+      <c r="BH31">
+        <v>4</v>
+      </c>
+      <c r="BI31">
+        <v>4</v>
+      </c>
+      <c r="BJ31">
+        <v>4</v>
+      </c>
+      <c r="BK31">
+        <v>4</v>
+      </c>
+      <c r="BL31">
+        <v>4</v>
+      </c>
+      <c r="BM31">
+        <v>4</v>
+      </c>
+      <c r="BN31">
+        <v>4</v>
+      </c>
+      <c r="BO31">
+        <v>4</v>
+      </c>
+      <c r="BP31">
+        <v>4</v>
+      </c>
+      <c r="BQ31">
+        <v>4</v>
+      </c>
+      <c r="BR31">
+        <v>4</v>
+      </c>
+      <c r="BS31">
+        <v>4</v>
+      </c>
+      <c r="BT31">
+        <v>4</v>
+      </c>
+      <c r="BU31">
+        <v>4</v>
+      </c>
+      <c r="BV31">
+        <v>4</v>
+      </c>
+      <c r="BW31">
+        <v>4</v>
+      </c>
+      <c r="BX31">
+        <v>4</v>
+      </c>
+      <c r="BY31">
+        <v>4</v>
+      </c>
+      <c r="BZ31">
+        <v>4</v>
+      </c>
+      <c r="CA31">
+        <v>4</v>
+      </c>
+      <c r="CB31">
+        <v>4</v>
+      </c>
+      <c r="CC31">
+        <v>4</v>
+      </c>
+      <c r="CD31">
+        <v>4</v>
+      </c>
+      <c r="CE31">
+        <v>4</v>
+      </c>
+      <c r="CF31">
+        <v>4</v>
+      </c>
+      <c r="CG31">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3624,8 +9730,194 @@
       <c r="W32">
         <v>20</v>
       </c>
+      <c r="X32">
+        <v>20</v>
+      </c>
+      <c r="Y32">
+        <v>20</v>
+      </c>
+      <c r="Z32">
+        <v>20</v>
+      </c>
+      <c r="AA32">
+        <v>20</v>
+      </c>
+      <c r="AB32">
+        <v>20</v>
+      </c>
+      <c r="AC32">
+        <v>20</v>
+      </c>
+      <c r="AD32">
+        <v>20</v>
+      </c>
+      <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32">
+        <v>20</v>
+      </c>
+      <c r="AG32">
+        <v>20</v>
+      </c>
+      <c r="AH32">
+        <v>20</v>
+      </c>
+      <c r="AI32">
+        <v>20</v>
+      </c>
+      <c r="AJ32">
+        <v>20</v>
+      </c>
+      <c r="AK32">
+        <v>20</v>
+      </c>
+      <c r="AL32">
+        <v>20</v>
+      </c>
+      <c r="AM32">
+        <v>20</v>
+      </c>
+      <c r="AN32">
+        <v>20</v>
+      </c>
+      <c r="AO32">
+        <v>20</v>
+      </c>
+      <c r="AP32">
+        <v>20</v>
+      </c>
+      <c r="AQ32">
+        <v>20</v>
+      </c>
+      <c r="AR32">
+        <v>20</v>
+      </c>
+      <c r="AS32">
+        <v>20</v>
+      </c>
+      <c r="AT32">
+        <v>20</v>
+      </c>
+      <c r="AU32">
+        <v>20</v>
+      </c>
+      <c r="AV32">
+        <v>20</v>
+      </c>
+      <c r="AW32">
+        <v>20</v>
+      </c>
+      <c r="AX32">
+        <v>20</v>
+      </c>
+      <c r="AY32">
+        <v>20</v>
+      </c>
+      <c r="AZ32">
+        <v>20</v>
+      </c>
+      <c r="BA32">
+        <v>20</v>
+      </c>
+      <c r="BB32">
+        <v>20</v>
+      </c>
+      <c r="BC32">
+        <v>20</v>
+      </c>
+      <c r="BD32">
+        <v>20</v>
+      </c>
+      <c r="BE32">
+        <v>20</v>
+      </c>
+      <c r="BF32">
+        <v>20</v>
+      </c>
+      <c r="BG32">
+        <v>20</v>
+      </c>
+      <c r="BH32">
+        <v>20</v>
+      </c>
+      <c r="BI32">
+        <v>20</v>
+      </c>
+      <c r="BJ32">
+        <v>20</v>
+      </c>
+      <c r="BK32">
+        <v>20</v>
+      </c>
+      <c r="BL32">
+        <v>20</v>
+      </c>
+      <c r="BM32">
+        <v>20</v>
+      </c>
+      <c r="BN32">
+        <v>20</v>
+      </c>
+      <c r="BO32">
+        <v>20</v>
+      </c>
+      <c r="BP32">
+        <v>20</v>
+      </c>
+      <c r="BQ32">
+        <v>20</v>
+      </c>
+      <c r="BR32">
+        <v>20</v>
+      </c>
+      <c r="BS32">
+        <v>20</v>
+      </c>
+      <c r="BT32">
+        <v>20</v>
+      </c>
+      <c r="BU32">
+        <v>20</v>
+      </c>
+      <c r="BV32">
+        <v>20</v>
+      </c>
+      <c r="BW32">
+        <v>20</v>
+      </c>
+      <c r="BX32">
+        <v>20</v>
+      </c>
+      <c r="BY32">
+        <v>20</v>
+      </c>
+      <c r="BZ32">
+        <v>20</v>
+      </c>
+      <c r="CA32">
+        <v>20</v>
+      </c>
+      <c r="CB32">
+        <v>20</v>
+      </c>
+      <c r="CC32">
+        <v>20</v>
+      </c>
+      <c r="CD32">
+        <v>20</v>
+      </c>
+      <c r="CE32">
+        <v>20</v>
+      </c>
+      <c r="CF32">
+        <v>20</v>
+      </c>
+      <c r="CG32">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3695,551 +9987,2342 @@
       <c r="W33">
         <v>0.05</v>
       </c>
+      <c r="X33">
+        <v>0.05</v>
+      </c>
+      <c r="Y33">
+        <v>0.05</v>
+      </c>
+      <c r="Z33">
+        <v>0.05</v>
+      </c>
+      <c r="AA33">
+        <v>0.05</v>
+      </c>
+      <c r="AB33">
+        <v>0.05</v>
+      </c>
+      <c r="AC33">
+        <v>0.05</v>
+      </c>
+      <c r="AD33">
+        <v>0.05</v>
+      </c>
+      <c r="AE33">
+        <v>0.05</v>
+      </c>
+      <c r="AF33">
+        <v>0.05</v>
+      </c>
+      <c r="AG33">
+        <v>0.05</v>
+      </c>
+      <c r="AH33">
+        <v>0.05</v>
+      </c>
+      <c r="AI33">
+        <v>0.05</v>
+      </c>
+      <c r="AJ33">
+        <v>0.05</v>
+      </c>
+      <c r="AK33">
+        <v>0.05</v>
+      </c>
+      <c r="AL33">
+        <v>0.05</v>
+      </c>
+      <c r="AM33">
+        <v>0.05</v>
+      </c>
+      <c r="AN33">
+        <v>0.05</v>
+      </c>
+      <c r="AO33">
+        <v>0.05</v>
+      </c>
+      <c r="AP33">
+        <v>0.05</v>
+      </c>
+      <c r="AQ33">
+        <v>0.05</v>
+      </c>
+      <c r="AR33">
+        <v>0.05</v>
+      </c>
+      <c r="AS33">
+        <v>0.05</v>
+      </c>
+      <c r="AT33">
+        <v>0.05</v>
+      </c>
+      <c r="AU33">
+        <v>0.05</v>
+      </c>
+      <c r="AV33">
+        <v>0.05</v>
+      </c>
+      <c r="AW33">
+        <v>0.05</v>
+      </c>
+      <c r="AX33">
+        <v>0.05</v>
+      </c>
+      <c r="AY33">
+        <v>0.05</v>
+      </c>
+      <c r="AZ33">
+        <v>0.05</v>
+      </c>
+      <c r="BA33">
+        <v>0.05</v>
+      </c>
+      <c r="BB33">
+        <v>0.05</v>
+      </c>
+      <c r="BC33">
+        <v>0.05</v>
+      </c>
+      <c r="BD33">
+        <v>0.05</v>
+      </c>
+      <c r="BE33">
+        <v>0.05</v>
+      </c>
+      <c r="BF33">
+        <v>0.05</v>
+      </c>
+      <c r="BG33">
+        <v>0.05</v>
+      </c>
+      <c r="BH33">
+        <v>0.05</v>
+      </c>
+      <c r="BI33">
+        <v>0.05</v>
+      </c>
+      <c r="BJ33">
+        <v>0.05</v>
+      </c>
+      <c r="BK33">
+        <v>0.05</v>
+      </c>
+      <c r="BL33">
+        <v>0.05</v>
+      </c>
+      <c r="BM33">
+        <v>0.05</v>
+      </c>
+      <c r="BN33">
+        <v>0.05</v>
+      </c>
+      <c r="BO33">
+        <v>0.05</v>
+      </c>
+      <c r="BP33">
+        <v>0.05</v>
+      </c>
+      <c r="BQ33">
+        <v>0.05</v>
+      </c>
+      <c r="BR33">
+        <v>0.05</v>
+      </c>
+      <c r="BS33">
+        <v>0.05</v>
+      </c>
+      <c r="BT33">
+        <v>0.05</v>
+      </c>
+      <c r="BU33">
+        <v>0.05</v>
+      </c>
+      <c r="BV33">
+        <v>0.05</v>
+      </c>
+      <c r="BW33">
+        <v>0.05</v>
+      </c>
+      <c r="BX33">
+        <v>0.05</v>
+      </c>
+      <c r="BY33">
+        <v>0.05</v>
+      </c>
+      <c r="BZ33">
+        <v>0.05</v>
+      </c>
+      <c r="CA33">
+        <v>0.05</v>
+      </c>
+      <c r="CB33">
+        <v>0.05</v>
+      </c>
+      <c r="CC33">
+        <v>0.05</v>
+      </c>
+      <c r="CD33">
+        <v>0.05</v>
+      </c>
+      <c r="CE33">
+        <v>0.05</v>
+      </c>
+      <c r="CF33">
+        <v>0.05</v>
+      </c>
+      <c r="CG33">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:85" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Y34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AG34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AH34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AJ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AK34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AL34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AM34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AN34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AO34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AP34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AQ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AR34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AS34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AT34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AU34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AV34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AW34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AX34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AY34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AZ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BA34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BB34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BF34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BG34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BJ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BK34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BL34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BN34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BO34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BP34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BQ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BR34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BS34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BT34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BU34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BV34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BW34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BX34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BY34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BZ34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CA34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CB34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CC34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CD34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CE34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CF34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="CG34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>25000</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>25000</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>25000</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>25000</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>25000</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>25000</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>25000</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>25000</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>25000</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>25000</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>25000</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>25000</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>25000</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>25000</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>25000</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>25000</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <v>25000</v>
       </c>
-      <c r="S34">
+      <c r="S35">
         <v>25000</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>25000</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>25000</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>25000</v>
       </c>
-      <c r="W34">
+      <c r="W35">
         <v>25000</v>
       </c>
+      <c r="X35">
+        <v>25000</v>
+      </c>
+      <c r="Y35">
+        <v>25000</v>
+      </c>
+      <c r="Z35">
+        <v>25000</v>
+      </c>
+      <c r="AA35">
+        <v>25000</v>
+      </c>
+      <c r="AB35">
+        <v>25000</v>
+      </c>
+      <c r="AC35">
+        <v>25000</v>
+      </c>
+      <c r="AD35">
+        <v>25000</v>
+      </c>
+      <c r="AE35">
+        <v>25000</v>
+      </c>
+      <c r="AF35">
+        <v>25000</v>
+      </c>
+      <c r="AG35">
+        <v>25000</v>
+      </c>
+      <c r="AH35">
+        <v>25000</v>
+      </c>
+      <c r="AI35">
+        <v>25000</v>
+      </c>
+      <c r="AJ35">
+        <v>25000</v>
+      </c>
+      <c r="AK35">
+        <v>25000</v>
+      </c>
+      <c r="AL35">
+        <v>25000</v>
+      </c>
+      <c r="AM35">
+        <v>25000</v>
+      </c>
+      <c r="AN35">
+        <v>25000</v>
+      </c>
+      <c r="AO35">
+        <v>25000</v>
+      </c>
+      <c r="AP35">
+        <v>25000</v>
+      </c>
+      <c r="AQ35">
+        <v>25000</v>
+      </c>
+      <c r="AR35">
+        <v>25000</v>
+      </c>
+      <c r="AS35">
+        <v>25000</v>
+      </c>
+      <c r="AT35">
+        <v>25000</v>
+      </c>
+      <c r="AU35">
+        <v>25000</v>
+      </c>
+      <c r="AV35">
+        <v>25000</v>
+      </c>
+      <c r="AW35">
+        <v>25000</v>
+      </c>
+      <c r="AX35">
+        <v>25000</v>
+      </c>
+      <c r="AY35">
+        <v>25000</v>
+      </c>
+      <c r="AZ35">
+        <v>25000</v>
+      </c>
+      <c r="BA35">
+        <v>25000</v>
+      </c>
+      <c r="BB35">
+        <v>25000</v>
+      </c>
+      <c r="BC35">
+        <v>25000</v>
+      </c>
+      <c r="BD35">
+        <v>25000</v>
+      </c>
+      <c r="BE35">
+        <v>25000</v>
+      </c>
+      <c r="BF35">
+        <v>25000</v>
+      </c>
+      <c r="BG35">
+        <v>25000</v>
+      </c>
+      <c r="BH35">
+        <v>25000</v>
+      </c>
+      <c r="BI35">
+        <v>25000</v>
+      </c>
+      <c r="BJ35">
+        <v>25000</v>
+      </c>
+      <c r="BK35">
+        <v>25000</v>
+      </c>
+      <c r="BL35">
+        <v>25000</v>
+      </c>
+      <c r="BM35">
+        <v>25000</v>
+      </c>
+      <c r="BN35">
+        <v>25000</v>
+      </c>
+      <c r="BO35">
+        <v>25000</v>
+      </c>
+      <c r="BP35">
+        <v>25000</v>
+      </c>
+      <c r="BQ35">
+        <v>25000</v>
+      </c>
+      <c r="BR35">
+        <v>25000</v>
+      </c>
+      <c r="BS35">
+        <v>25000</v>
+      </c>
+      <c r="BT35">
+        <v>25000</v>
+      </c>
+      <c r="BU35">
+        <v>25000</v>
+      </c>
+      <c r="BV35">
+        <v>25000</v>
+      </c>
+      <c r="BW35">
+        <v>25000</v>
+      </c>
+      <c r="BX35">
+        <v>25000</v>
+      </c>
+      <c r="BY35">
+        <v>25000</v>
+      </c>
+      <c r="BZ35">
+        <v>25000</v>
+      </c>
+      <c r="CA35">
+        <v>25000</v>
+      </c>
+      <c r="CB35">
+        <v>25000</v>
+      </c>
+      <c r="CC35">
+        <v>25000</v>
+      </c>
+      <c r="CD35">
+        <v>25000</v>
+      </c>
+      <c r="CE35">
+        <v>25000</v>
+      </c>
+      <c r="CF35">
+        <v>25000</v>
+      </c>
+      <c r="CG35">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>0.1</v>
+      </c>
+      <c r="AS36">
+        <v>0.1</v>
+      </c>
+      <c r="AT36">
+        <v>0.1</v>
+      </c>
+      <c r="AU36">
+        <v>0.1</v>
+      </c>
+      <c r="AV36">
+        <v>0.1</v>
+      </c>
+      <c r="AW36">
+        <v>0.1</v>
+      </c>
+      <c r="AX36">
+        <v>0.1</v>
+      </c>
+      <c r="AY36">
+        <v>0.1</v>
+      </c>
+      <c r="AZ36">
+        <v>0.1</v>
+      </c>
+      <c r="BA36">
+        <v>0.1</v>
+      </c>
+      <c r="BB36">
+        <v>0.1</v>
+      </c>
+      <c r="BC36">
+        <v>0.1</v>
+      </c>
+      <c r="BD36">
+        <v>0.1</v>
+      </c>
+      <c r="BE36">
+        <v>0.1</v>
+      </c>
+      <c r="BF36">
+        <v>0.1</v>
+      </c>
+      <c r="BG36">
+        <v>0.1</v>
+      </c>
+      <c r="BH36">
+        <v>0.1</v>
+      </c>
+      <c r="BI36">
+        <v>0.1</v>
+      </c>
+      <c r="BJ36">
+        <v>0.1</v>
+      </c>
+      <c r="BK36">
+        <v>0.1</v>
+      </c>
+      <c r="BL36">
+        <v>0.1</v>
+      </c>
+      <c r="BM36">
+        <v>0.1</v>
+      </c>
+      <c r="BN36">
+        <v>0.1</v>
+      </c>
+      <c r="BO36">
+        <v>0.1</v>
+      </c>
+      <c r="BP36">
+        <v>0.1</v>
+      </c>
+      <c r="BQ36">
+        <v>0.1</v>
+      </c>
+      <c r="BR36">
+        <v>0.1</v>
+      </c>
+      <c r="BS36">
+        <v>0.1</v>
+      </c>
+      <c r="BT36">
+        <v>0.1</v>
+      </c>
+      <c r="BU36">
+        <v>0.1</v>
+      </c>
+      <c r="BV36">
+        <v>0.1</v>
+      </c>
+      <c r="BW36">
+        <v>0.1</v>
+      </c>
+      <c r="BX36">
+        <v>0.1</v>
+      </c>
+      <c r="BY36">
+        <v>0.1</v>
+      </c>
+      <c r="BZ36">
+        <v>0.1</v>
+      </c>
+      <c r="CA36">
+        <v>0.1</v>
+      </c>
+      <c r="CB36">
+        <v>0.1</v>
+      </c>
+      <c r="CC36">
+        <v>0.1</v>
+      </c>
+      <c r="CD36">
+        <v>0.1</v>
+      </c>
+      <c r="CE36">
+        <v>0.1</v>
+      </c>
+      <c r="CF36">
+        <v>0.1</v>
+      </c>
+      <c r="CG36">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36">
-        <v>0.1</v>
-      </c>
-      <c r="D36">
-        <v>0.1</v>
-      </c>
-      <c r="E36">
-        <v>0.1</v>
-      </c>
-      <c r="F36">
-        <v>0.1</v>
-      </c>
-      <c r="G36">
-        <v>0.1</v>
-      </c>
-      <c r="H36">
-        <v>0.1</v>
-      </c>
-      <c r="I36">
-        <v>0.1</v>
-      </c>
-      <c r="J36">
-        <v>0.1</v>
-      </c>
-      <c r="K36">
-        <v>0.1</v>
-      </c>
-      <c r="L36">
-        <v>0.1</v>
-      </c>
-      <c r="M36">
-        <v>0.1</v>
-      </c>
-      <c r="N36">
-        <v>0.1</v>
-      </c>
-      <c r="O36">
-        <v>0.1</v>
-      </c>
-      <c r="P36">
-        <v>0.1</v>
-      </c>
-      <c r="Q36">
-        <v>0.1</v>
-      </c>
-      <c r="R36">
-        <v>0.1</v>
-      </c>
-      <c r="S36">
-        <v>0.1</v>
-      </c>
-      <c r="T36">
-        <v>0.1</v>
-      </c>
-      <c r="U36">
-        <v>0.1</v>
-      </c>
-      <c r="V36">
-        <v>0.1</v>
-      </c>
-      <c r="W36">
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="C37">
+        <v>0.1</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+      <c r="G37">
+        <v>0.1</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+      <c r="I37">
+        <v>0.1</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
+        <v>0.1</v>
+      </c>
+      <c r="L37">
+        <v>0.1</v>
+      </c>
+      <c r="M37">
+        <v>0.1</v>
+      </c>
+      <c r="N37">
+        <v>0.1</v>
+      </c>
+      <c r="O37">
+        <v>0.1</v>
+      </c>
+      <c r="P37">
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <v>0.1</v>
+      </c>
+      <c r="R37">
+        <v>0.1</v>
+      </c>
+      <c r="S37">
+        <v>0.1</v>
+      </c>
+      <c r="T37">
+        <v>0.1</v>
+      </c>
+      <c r="U37">
+        <v>0.1</v>
+      </c>
+      <c r="V37">
+        <v>0.1</v>
+      </c>
+      <c r="W37">
+        <v>0.1</v>
+      </c>
+      <c r="X37">
+        <v>0.1</v>
+      </c>
+      <c r="Y37">
+        <v>0.1</v>
+      </c>
+      <c r="Z37">
+        <v>0.1</v>
+      </c>
+      <c r="AA37">
+        <v>0.1</v>
+      </c>
+      <c r="AB37">
+        <v>0.1</v>
+      </c>
+      <c r="AC37">
+        <v>0.1</v>
+      </c>
+      <c r="AD37">
+        <v>0.1</v>
+      </c>
+      <c r="AE37">
+        <v>0.1</v>
+      </c>
+      <c r="AF37">
+        <v>0.1</v>
+      </c>
+      <c r="AG37">
+        <v>0.1</v>
+      </c>
+      <c r="AH37">
+        <v>0.1</v>
+      </c>
+      <c r="AI37">
+        <v>0.1</v>
+      </c>
+      <c r="AJ37">
+        <v>0.1</v>
+      </c>
+      <c r="AK37">
+        <v>0.1</v>
+      </c>
+      <c r="AL37">
+        <v>0.1</v>
+      </c>
+      <c r="AM37">
+        <v>0.1</v>
+      </c>
+      <c r="AN37">
+        <v>0.1</v>
+      </c>
+      <c r="AO37">
+        <v>0.1</v>
+      </c>
+      <c r="AP37">
+        <v>0.1</v>
+      </c>
+      <c r="AQ37">
+        <v>0.1</v>
+      </c>
+      <c r="AR37">
+        <v>0.1</v>
+      </c>
+      <c r="AS37">
+        <v>0.1</v>
+      </c>
+      <c r="AT37">
+        <v>0.1</v>
+      </c>
+      <c r="AU37">
+        <v>0.1</v>
+      </c>
+      <c r="AV37">
+        <v>0.1</v>
+      </c>
+      <c r="AW37">
+        <v>0.1</v>
+      </c>
+      <c r="AX37">
+        <v>0.1</v>
+      </c>
+      <c r="AY37">
+        <v>0.1</v>
+      </c>
+      <c r="AZ37">
+        <v>0.1</v>
+      </c>
+      <c r="BA37">
+        <v>0.1</v>
+      </c>
+      <c r="BB37">
+        <v>0.1</v>
+      </c>
+      <c r="BC37">
+        <v>0.1</v>
+      </c>
+      <c r="BD37">
+        <v>0.1</v>
+      </c>
+      <c r="BE37">
+        <v>0.1</v>
+      </c>
+      <c r="BF37">
+        <v>0.1</v>
+      </c>
+      <c r="BG37">
+        <v>0.1</v>
+      </c>
+      <c r="BH37">
+        <v>0.1</v>
+      </c>
+      <c r="BI37">
+        <v>0.1</v>
+      </c>
+      <c r="BJ37">
+        <v>0.1</v>
+      </c>
+      <c r="BK37">
+        <v>0.1</v>
+      </c>
+      <c r="BL37">
+        <v>0.1</v>
+      </c>
+      <c r="BM37">
+        <v>0.1</v>
+      </c>
+      <c r="BN37">
+        <v>0.1</v>
+      </c>
+      <c r="BO37">
+        <v>0.1</v>
+      </c>
+      <c r="BP37">
+        <v>0.1</v>
+      </c>
+      <c r="BQ37">
+        <v>0.1</v>
+      </c>
+      <c r="BR37">
+        <v>0.1</v>
+      </c>
+      <c r="BS37">
+        <v>0.1</v>
+      </c>
+      <c r="BT37">
+        <v>0.1</v>
+      </c>
+      <c r="BU37">
+        <v>0.1</v>
+      </c>
+      <c r="BV37">
+        <v>0.1</v>
+      </c>
+      <c r="BW37">
+        <v>0.1</v>
+      </c>
+      <c r="BX37">
+        <v>0.1</v>
+      </c>
+      <c r="BY37">
+        <v>0.1</v>
+      </c>
+      <c r="BZ37">
+        <v>0.1</v>
+      </c>
+      <c r="CA37">
+        <v>0.1</v>
+      </c>
+      <c r="CB37">
+        <v>0.1</v>
+      </c>
+      <c r="CC37">
+        <v>0.1</v>
+      </c>
+      <c r="CD37">
+        <v>0.1</v>
+      </c>
+      <c r="CE37">
+        <v>0.1</v>
+      </c>
+      <c r="CF37">
+        <v>0.1</v>
+      </c>
+      <c r="CG37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>0</v>
+      </c>
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>0</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
+      <c r="CC38">
+        <v>0</v>
+      </c>
+      <c r="CD38">
+        <v>0</v>
+      </c>
+      <c r="CE38">
+        <v>0</v>
+      </c>
+      <c r="CF38">
+        <v>0</v>
+      </c>
+      <c r="CG38">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>120</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>120</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>120</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>120</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>120</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>120</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>120</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>120</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>120</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>120</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>120</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>120</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>120</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>120</v>
       </c>
-      <c r="P38">
+      <c r="P39">
         <v>120</v>
       </c>
-      <c r="Q38">
+      <c r="Q39">
         <v>120</v>
       </c>
-      <c r="R38">
+      <c r="R39">
         <v>120</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>120</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>120</v>
       </c>
-      <c r="U38">
+      <c r="U39">
         <v>120</v>
       </c>
-      <c r="V38">
+      <c r="V39">
         <v>120</v>
       </c>
-      <c r="W38">
+      <c r="W39">
         <v>120</v>
       </c>
+      <c r="X39">
+        <v>120</v>
+      </c>
+      <c r="Y39">
+        <v>120</v>
+      </c>
+      <c r="Z39">
+        <v>120</v>
+      </c>
+      <c r="AA39">
+        <v>120</v>
+      </c>
+      <c r="AB39">
+        <v>120</v>
+      </c>
+      <c r="AC39">
+        <v>120</v>
+      </c>
+      <c r="AD39">
+        <v>120</v>
+      </c>
+      <c r="AE39">
+        <v>120</v>
+      </c>
+      <c r="AF39">
+        <v>120</v>
+      </c>
+      <c r="AG39">
+        <v>120</v>
+      </c>
+      <c r="AH39">
+        <v>120</v>
+      </c>
+      <c r="AI39">
+        <v>120</v>
+      </c>
+      <c r="AJ39">
+        <v>120</v>
+      </c>
+      <c r="AK39">
+        <v>120</v>
+      </c>
+      <c r="AL39">
+        <v>120</v>
+      </c>
+      <c r="AM39">
+        <v>120</v>
+      </c>
+      <c r="AN39">
+        <v>120</v>
+      </c>
+      <c r="AO39">
+        <v>120</v>
+      </c>
+      <c r="AP39">
+        <v>120</v>
+      </c>
+      <c r="AQ39">
+        <v>120</v>
+      </c>
+      <c r="AR39">
+        <v>120</v>
+      </c>
+      <c r="AS39">
+        <v>120</v>
+      </c>
+      <c r="AT39">
+        <v>120</v>
+      </c>
+      <c r="AU39">
+        <v>120</v>
+      </c>
+      <c r="AV39">
+        <v>120</v>
+      </c>
+      <c r="AW39">
+        <v>120</v>
+      </c>
+      <c r="AX39">
+        <v>120</v>
+      </c>
+      <c r="AY39">
+        <v>120</v>
+      </c>
+      <c r="AZ39">
+        <v>120</v>
+      </c>
+      <c r="BA39">
+        <v>120</v>
+      </c>
+      <c r="BB39">
+        <v>120</v>
+      </c>
+      <c r="BC39">
+        <v>120</v>
+      </c>
+      <c r="BD39">
+        <v>120</v>
+      </c>
+      <c r="BE39">
+        <v>120</v>
+      </c>
+      <c r="BF39">
+        <v>120</v>
+      </c>
+      <c r="BG39">
+        <v>120</v>
+      </c>
+      <c r="BH39">
+        <v>120</v>
+      </c>
+      <c r="BI39">
+        <v>120</v>
+      </c>
+      <c r="BJ39">
+        <v>120</v>
+      </c>
+      <c r="BK39">
+        <v>120</v>
+      </c>
+      <c r="BL39">
+        <v>120</v>
+      </c>
+      <c r="BM39">
+        <v>120</v>
+      </c>
+      <c r="BN39">
+        <v>120</v>
+      </c>
+      <c r="BO39">
+        <v>120</v>
+      </c>
+      <c r="BP39">
+        <v>120</v>
+      </c>
+      <c r="BQ39">
+        <v>120</v>
+      </c>
+      <c r="BR39">
+        <v>120</v>
+      </c>
+      <c r="BS39">
+        <v>120</v>
+      </c>
+      <c r="BT39">
+        <v>120</v>
+      </c>
+      <c r="BU39">
+        <v>120</v>
+      </c>
+      <c r="BV39">
+        <v>120</v>
+      </c>
+      <c r="BW39">
+        <v>120</v>
+      </c>
+      <c r="BX39">
+        <v>120</v>
+      </c>
+      <c r="BY39">
+        <v>120</v>
+      </c>
+      <c r="BZ39">
+        <v>120</v>
+      </c>
+      <c r="CA39">
+        <v>120</v>
+      </c>
+      <c r="CB39">
+        <v>120</v>
+      </c>
+      <c r="CC39">
+        <v>120</v>
+      </c>
+      <c r="CD39">
+        <v>120</v>
+      </c>
+      <c r="CE39">
+        <v>120</v>
+      </c>
+      <c r="CF39">
+        <v>120</v>
+      </c>
+      <c r="CG39">
+        <v>120</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>20000</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>20000</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>20000</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>20000</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>20000</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>20000</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>20000</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>20000</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>20000</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>20000</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>20000</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>20000</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>20000</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>20000</v>
       </c>
-      <c r="P39">
+      <c r="P40">
         <v>20000</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <v>20000</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <v>20000</v>
       </c>
-      <c r="S39">
+      <c r="S40">
         <v>20000</v>
       </c>
-      <c r="T39">
+      <c r="T40">
         <v>20000</v>
       </c>
-      <c r="U39">
+      <c r="U40">
         <v>20000</v>
       </c>
-      <c r="V39">
+      <c r="V40">
         <v>20000</v>
       </c>
-      <c r="W39">
+      <c r="W40">
         <v>20000</v>
       </c>
+      <c r="X40">
+        <v>20000</v>
+      </c>
+      <c r="Y40">
+        <v>20000</v>
+      </c>
+      <c r="Z40">
+        <v>20000</v>
+      </c>
+      <c r="AA40">
+        <v>20000</v>
+      </c>
+      <c r="AB40">
+        <v>20000</v>
+      </c>
+      <c r="AC40">
+        <v>20000</v>
+      </c>
+      <c r="AD40">
+        <v>20000</v>
+      </c>
+      <c r="AE40">
+        <v>20000</v>
+      </c>
+      <c r="AF40">
+        <v>20000</v>
+      </c>
+      <c r="AG40">
+        <v>20000</v>
+      </c>
+      <c r="AH40">
+        <v>20000</v>
+      </c>
+      <c r="AI40">
+        <v>20000</v>
+      </c>
+      <c r="AJ40">
+        <v>20000</v>
+      </c>
+      <c r="AK40">
+        <v>20000</v>
+      </c>
+      <c r="AL40">
+        <v>20000</v>
+      </c>
+      <c r="AM40">
+        <v>20000</v>
+      </c>
+      <c r="AN40">
+        <v>20000</v>
+      </c>
+      <c r="AO40">
+        <v>20000</v>
+      </c>
+      <c r="AP40">
+        <v>20000</v>
+      </c>
+      <c r="AQ40">
+        <v>20000</v>
+      </c>
+      <c r="AR40">
+        <v>20000</v>
+      </c>
+      <c r="AS40">
+        <v>20000</v>
+      </c>
+      <c r="AT40">
+        <v>20000</v>
+      </c>
+      <c r="AU40">
+        <v>20000</v>
+      </c>
+      <c r="AV40">
+        <v>20000</v>
+      </c>
+      <c r="AW40">
+        <v>20000</v>
+      </c>
+      <c r="AX40">
+        <v>20000</v>
+      </c>
+      <c r="AY40">
+        <v>20000</v>
+      </c>
+      <c r="AZ40">
+        <v>20000</v>
+      </c>
+      <c r="BA40">
+        <v>20000</v>
+      </c>
+      <c r="BB40">
+        <v>20000</v>
+      </c>
+      <c r="BC40">
+        <v>20000</v>
+      </c>
+      <c r="BD40">
+        <v>20000</v>
+      </c>
+      <c r="BE40">
+        <v>20000</v>
+      </c>
+      <c r="BF40">
+        <v>20000</v>
+      </c>
+      <c r="BG40">
+        <v>20000</v>
+      </c>
+      <c r="BH40">
+        <v>20000</v>
+      </c>
+      <c r="BI40">
+        <v>20000</v>
+      </c>
+      <c r="BJ40">
+        <v>20000</v>
+      </c>
+      <c r="BK40">
+        <v>20000</v>
+      </c>
+      <c r="BL40">
+        <v>20000</v>
+      </c>
+      <c r="BM40">
+        <v>20000</v>
+      </c>
+      <c r="BN40">
+        <v>20000</v>
+      </c>
+      <c r="BO40">
+        <v>20000</v>
+      </c>
+      <c r="BP40">
+        <v>20000</v>
+      </c>
+      <c r="BQ40">
+        <v>20000</v>
+      </c>
+      <c r="BR40">
+        <v>20000</v>
+      </c>
+      <c r="BS40">
+        <v>20000</v>
+      </c>
+      <c r="BT40">
+        <v>20000</v>
+      </c>
+      <c r="BU40">
+        <v>20000</v>
+      </c>
+      <c r="BV40">
+        <v>20000</v>
+      </c>
+      <c r="BW40">
+        <v>20000</v>
+      </c>
+      <c r="BX40">
+        <v>20000</v>
+      </c>
+      <c r="BY40">
+        <v>20000</v>
+      </c>
+      <c r="BZ40">
+        <v>20000</v>
+      </c>
+      <c r="CA40">
+        <v>20000</v>
+      </c>
+      <c r="CB40">
+        <v>20000</v>
+      </c>
+      <c r="CC40">
+        <v>20000</v>
+      </c>
+      <c r="CD40">
+        <v>20000</v>
+      </c>
+      <c r="CE40">
+        <v>20000</v>
+      </c>
+      <c r="CF40">
+        <v>20000</v>
+      </c>
+      <c r="CG40">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:85" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>5</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>5</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>5</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>5</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>5</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>5</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="M40">
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>5</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>5</v>
       </c>
-      <c r="P40">
+      <c r="P41">
         <v>5</v>
       </c>
-      <c r="Q40">
+      <c r="Q41">
         <v>5</v>
       </c>
-      <c r="R40">
+      <c r="R41">
         <v>5</v>
       </c>
-      <c r="S40">
+      <c r="S41">
         <v>5</v>
       </c>
-      <c r="T40">
+      <c r="T41">
         <v>5</v>
       </c>
-      <c r="U40">
+      <c r="U41">
         <v>5</v>
       </c>
-      <c r="V40">
+      <c r="V41">
         <v>5</v>
       </c>
-      <c r="W40">
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>5</v>
+      </c>
+      <c r="AD41">
+        <v>5</v>
+      </c>
+      <c r="AE41">
+        <v>5</v>
+      </c>
+      <c r="AF41">
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <v>5</v>
+      </c>
+      <c r="AH41">
+        <v>5</v>
+      </c>
+      <c r="AI41">
+        <v>5</v>
+      </c>
+      <c r="AJ41">
+        <v>5</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>5</v>
+      </c>
+      <c r="AM41">
+        <v>5</v>
+      </c>
+      <c r="AN41">
+        <v>5</v>
+      </c>
+      <c r="AO41">
+        <v>5</v>
+      </c>
+      <c r="AP41">
+        <v>5</v>
+      </c>
+      <c r="AQ41">
+        <v>5</v>
+      </c>
+      <c r="AR41">
+        <v>5</v>
+      </c>
+      <c r="AS41">
+        <v>5</v>
+      </c>
+      <c r="AT41">
+        <v>5</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>5</v>
+      </c>
+      <c r="AY41">
+        <v>5</v>
+      </c>
+      <c r="AZ41">
+        <v>5</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>5</v>
+      </c>
+      <c r="BD41">
+        <v>5</v>
+      </c>
+      <c r="BE41">
+        <v>5</v>
+      </c>
+      <c r="BF41">
+        <v>5</v>
+      </c>
+      <c r="BG41">
+        <v>5</v>
+      </c>
+      <c r="BH41">
+        <v>5</v>
+      </c>
+      <c r="BI41">
+        <v>5</v>
+      </c>
+      <c r="BJ41">
+        <v>5</v>
+      </c>
+      <c r="BK41">
+        <v>5</v>
+      </c>
+      <c r="BL41">
+        <v>5</v>
+      </c>
+      <c r="BM41">
+        <v>5</v>
+      </c>
+      <c r="BN41">
+        <v>5</v>
+      </c>
+      <c r="BO41">
+        <v>5</v>
+      </c>
+      <c r="BP41">
+        <v>5</v>
+      </c>
+      <c r="BQ41">
+        <v>5</v>
+      </c>
+      <c r="BR41">
+        <v>5</v>
+      </c>
+      <c r="BS41">
+        <v>5</v>
+      </c>
+      <c r="BT41">
+        <v>5</v>
+      </c>
+      <c r="BU41">
+        <v>5</v>
+      </c>
+      <c r="BV41">
+        <v>5</v>
+      </c>
+      <c r="BW41">
+        <v>5</v>
+      </c>
+      <c r="BX41">
+        <v>5</v>
+      </c>
+      <c r="BY41">
+        <v>5</v>
+      </c>
+      <c r="BZ41">
+        <v>5</v>
+      </c>
+      <c r="CA41">
+        <v>5</v>
+      </c>
+      <c r="CB41">
+        <v>5</v>
+      </c>
+      <c r="CC41">
+        <v>5</v>
+      </c>
+      <c r="CD41">
+        <v>5</v>
+      </c>
+      <c r="CE41">
+        <v>5</v>
+      </c>
+      <c r="CF41">
+        <v>5</v>
+      </c>
+      <c r="CG41">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C41:C1048576">
-    <cfRule type="expression" dxfId="8" priority="31">
-      <formula>$B41&lt;&gt;$C41</formula>
+  <conditionalFormatting sqref="C42:C1048576">
+    <cfRule type="expression" dxfId="26" priority="54">
+      <formula>$B42&lt;&gt;$C42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:G31">
-    <cfRule type="expression" dxfId="7" priority="22">
+  <conditionalFormatting sqref="C1:G31 C35:G41">
+    <cfRule type="expression" dxfId="25" priority="45">
       <formula>$B1&lt;&gt;C1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:G40">
-    <cfRule type="expression" dxfId="6" priority="29">
-      <formula>$B34&lt;&gt;C34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="5" priority="45">
+  <conditionalFormatting sqref="H1:H33 N1:W33 N35:W41 H35:H1048576">
+    <cfRule type="expression" dxfId="24" priority="68">
       <formula>$H1&lt;&gt;$B1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I31 I34:I40">
-    <cfRule type="expression" dxfId="4" priority="14">
+  <conditionalFormatting sqref="I1:I31 I35:I41">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>$H1&lt;&gt;$I1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 L1:M1 J2:M31 J34:M40">
-    <cfRule type="expression" dxfId="3" priority="12">
+  <conditionalFormatting sqref="J1 L1:M1 J2:M31 J35:M41 X35:AG41">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$H1&lt;&gt;J1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>$B1&lt;&gt;K1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N40 P2:P40 R2:R40 T2:T40 V2:V40">
-    <cfRule type="expression" dxfId="1" priority="10">
+  <conditionalFormatting sqref="X1:AG4 X6:AG31">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$H1&lt;&gt;X1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:AG5">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$H5&lt;&gt;$B5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1:AQ41">
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS42:AS1048576">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$B42&lt;&gt;$C42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS1:AW31 AS35:AW41">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$B1&lt;&gt;AS1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX1:AX33 BD1:BM33 BD35:BM41 AX35:AX1048576">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$H1&lt;&gt;$B1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O40 P1:W1 Q2:Q40 S2:S40 U2:U40 W2:W40">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$H1&lt;&gt;$B1</formula>
+  <conditionalFormatting sqref="AY1:AY31 AY35:AY41">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$H1&lt;&gt;$I1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ1 BB1:BC1 AZ2:BC31 AZ35:BC41 BN35:BW41">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$H1&lt;&gt;AZ1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA1">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B1&lt;&gt;BA1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN1:BW4 BN6:BW31">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H1&lt;&gt;BN1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN5:BW5">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H5&lt;&gt;$B5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX1:CG41">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenario_defaults.xlsx
+++ b/scenario_defaults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\project_run\semikr_ppa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\pyPPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D6F734-8EC1-458B-9A8A-BA053F432553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CB918-201D-4574-80F3-AF6789E9F553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10284" yWindow="3576" windowWidth="28764" windowHeight="19332" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
+    <workbookView xWindow="5820" yWindow="3600" windowWidth="28764" windowHeight="19332" xr2:uid="{FD634187-AE3F-4821-B7D0-C551EE024968}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_defaults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -956,133 +956,7 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1476,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D3535E-5386-407C-865F-4665FABC59A2}">
-  <dimension ref="A1:CG41"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1502,26 +1376,9 @@
     <col min="33" max="33" width="34.296875" bestFit="1" customWidth="1"/>
     <col min="34" max="42" width="37.69921875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38.796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.09765625" customWidth="1"/>
-    <col min="54" max="54" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="55" max="64" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="74" width="33" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="34.296875" bestFit="1" customWidth="1"/>
-    <col min="76" max="84" width="37.69921875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="38.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1651,134 +1508,8 @@
       <c r="AQ1" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1950,176 +1681,8 @@
         <f t="shared" si="4"/>
         <v>PPA100_G10</v>
       </c>
-      <c r="AR2" t="str">
-        <f t="shared" ref="AR2:BP2" si="5">AR1</f>
-        <v>REC100_REF</v>
-      </c>
-      <c r="AS2" t="str">
-        <f t="shared" si="5"/>
-        <v>REC100_highSMP</v>
-      </c>
-      <c r="AT2" t="str">
-        <f t="shared" si="5"/>
-        <v>REC100_fixedREC</v>
-      </c>
-      <c r="AU2" t="str">
-        <f t="shared" si="5"/>
-        <v>REC100_noREC</v>
-      </c>
-      <c r="AV2" t="str">
-        <f t="shared" si="5"/>
-        <v>REC100_Market</v>
-      </c>
-      <c r="AW2" t="str">
-        <f t="shared" si="5"/>
-        <v>REC100_Levelised</v>
-      </c>
-      <c r="AX2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF</v>
-      </c>
-      <c r="AY2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_highSMP</v>
-      </c>
-      <c r="AZ2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_fixedREC</v>
-      </c>
-      <c r="BA2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_noREC</v>
-      </c>
-      <c r="BB2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_Market</v>
-      </c>
-      <c r="BC2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_Levelised</v>
-      </c>
-      <c r="BD2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF1GW</v>
-      </c>
-      <c r="BE2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF2GW</v>
-      </c>
-      <c r="BF2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF3GW</v>
-      </c>
-      <c r="BG2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF4GW</v>
-      </c>
-      <c r="BH2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF5GW</v>
-      </c>
-      <c r="BI2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF6GW</v>
-      </c>
-      <c r="BJ2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF7GW</v>
-      </c>
-      <c r="BK2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF8GW</v>
-      </c>
-      <c r="BL2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF9GW</v>
-      </c>
-      <c r="BM2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_REF10GW</v>
-      </c>
-      <c r="BN2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_Levelised1GW</v>
-      </c>
-      <c r="BO2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_Levelised2GW</v>
-      </c>
-      <c r="BP2" t="str">
-        <f t="shared" si="5"/>
-        <v>PPA100_Levelised3GW</v>
-      </c>
-      <c r="BQ2" t="str">
-        <f t="shared" ref="BQ2:CG2" si="6">BQ1</f>
-        <v>PPA100_Levelised4GW</v>
-      </c>
-      <c r="BR2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised5GW</v>
-      </c>
-      <c r="BS2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised6GW</v>
-      </c>
-      <c r="BT2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised7GW</v>
-      </c>
-      <c r="BU2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised8GW</v>
-      </c>
-      <c r="BV2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised9GW</v>
-      </c>
-      <c r="BW2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_Levelised10GW</v>
-      </c>
-      <c r="BX2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G100</v>
-      </c>
-      <c r="BY2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G90</v>
-      </c>
-      <c r="BZ2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G80</v>
-      </c>
-      <c r="CA2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G70</v>
-      </c>
-      <c r="CB2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G60</v>
-      </c>
-      <c r="CC2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G50</v>
-      </c>
-      <c r="CD2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G40</v>
-      </c>
-      <c r="CE2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G30</v>
-      </c>
-      <c r="CF2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G20</v>
-      </c>
-      <c r="CG2" t="str">
-        <f t="shared" si="6"/>
-        <v>PPA100_G10</v>
-      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2128,339 +1691,171 @@
         <v>output_20250218/REC100_REF.xlsx</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:AQ3" si="7">"output_20250218/"&amp;C2&amp;".xlsx"</f>
+        <f t="shared" ref="C3:AQ3" si="5">"output_20250218/"&amp;C2&amp;".xlsx"</f>
         <v>output_20250218/REC100_highSMP.xlsx</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/REC100_fixedREC.xlsx</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/REC100_noREC.xlsx</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/REC100_Market.xlsx</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/REC100_Levelised.xlsx</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF.xlsx</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_highSMP.xlsx</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_fixedREC.xlsx</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_noREC.xlsx</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Market.xlsx</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised.xlsx</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF1GW.xlsx</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF2GW.xlsx</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF3GW.xlsx</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF4GW.xlsx</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF5GW.xlsx</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF6GW.xlsx</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF7GW.xlsx</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF8GW.xlsx</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF9GW.xlsx</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_REF10GW.xlsx</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised1GW.xlsx</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised2GW.xlsx</v>
       </c>
       <c r="Z3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised3GW.xlsx</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised4GW.xlsx</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised5GW.xlsx</v>
       </c>
       <c r="AC3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised6GW.xlsx</v>
       </c>
       <c r="AD3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised7GW.xlsx</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised8GW.xlsx</v>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised9GW.xlsx</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_Levelised10GW.xlsx</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G100.xlsx</v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G90.xlsx</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G80.xlsx</v>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G70.xlsx</v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G60.xlsx</v>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G50.xlsx</v>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G40.xlsx</v>
       </c>
       <c r="AO3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G30.xlsx</v>
       </c>
       <c r="AP3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G20.xlsx</v>
       </c>
       <c r="AQ3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>output_20250218/PPA100_G10.xlsx</v>
       </c>
-      <c r="AR3" t="str">
-        <f>"output_20250218_01GW/"&amp;AR2&amp;".xlsx"</f>
-        <v>output_20250218_01GW/REC100_REF.xlsx</v>
-      </c>
-      <c r="AS3" t="str">
-        <f t="shared" ref="AS3:CG3" si="8">"output_20250218_01GW/"&amp;AS2&amp;".xlsx"</f>
-        <v>output_20250218_01GW/REC100_highSMP.xlsx</v>
-      </c>
-      <c r="AT3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/REC100_fixedREC.xlsx</v>
-      </c>
-      <c r="AU3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/REC100_noREC.xlsx</v>
-      </c>
-      <c r="AV3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/REC100_Market.xlsx</v>
-      </c>
-      <c r="AW3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/REC100_Levelised.xlsx</v>
-      </c>
-      <c r="AX3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF.xlsx</v>
-      </c>
-      <c r="AY3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_highSMP.xlsx</v>
-      </c>
-      <c r="AZ3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_fixedREC.xlsx</v>
-      </c>
-      <c r="BA3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_noREC.xlsx</v>
-      </c>
-      <c r="BB3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Market.xlsx</v>
-      </c>
-      <c r="BC3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised.xlsx</v>
-      </c>
-      <c r="BD3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF1GW.xlsx</v>
-      </c>
-      <c r="BE3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF2GW.xlsx</v>
-      </c>
-      <c r="BF3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF3GW.xlsx</v>
-      </c>
-      <c r="BG3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF4GW.xlsx</v>
-      </c>
-      <c r="BH3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF5GW.xlsx</v>
-      </c>
-      <c r="BI3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF6GW.xlsx</v>
-      </c>
-      <c r="BJ3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF7GW.xlsx</v>
-      </c>
-      <c r="BK3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF8GW.xlsx</v>
-      </c>
-      <c r="BL3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF9GW.xlsx</v>
-      </c>
-      <c r="BM3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_REF10GW.xlsx</v>
-      </c>
-      <c r="BN3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised1GW.xlsx</v>
-      </c>
-      <c r="BO3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised2GW.xlsx</v>
-      </c>
-      <c r="BP3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised3GW.xlsx</v>
-      </c>
-      <c r="BQ3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised4GW.xlsx</v>
-      </c>
-      <c r="BR3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised5GW.xlsx</v>
-      </c>
-      <c r="BS3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised6GW.xlsx</v>
-      </c>
-      <c r="BT3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised7GW.xlsx</v>
-      </c>
-      <c r="BU3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised8GW.xlsx</v>
-      </c>
-      <c r="BV3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised9GW.xlsx</v>
-      </c>
-      <c r="BW3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_Levelised10GW.xlsx</v>
-      </c>
-      <c r="BX3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G100.xlsx</v>
-      </c>
-      <c r="BY3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G90.xlsx</v>
-      </c>
-      <c r="BZ3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G80.xlsx</v>
-      </c>
-      <c r="CA3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G70.xlsx</v>
-      </c>
-      <c r="CB3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G60.xlsx</v>
-      </c>
-      <c r="CC3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G50.xlsx</v>
-      </c>
-      <c r="CD3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G40.xlsx</v>
-      </c>
-      <c r="CE3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G30.xlsx</v>
-      </c>
-      <c r="CF3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G20.xlsx</v>
-      </c>
-      <c r="CG3" t="str">
-        <f t="shared" si="8"/>
-        <v>output_20250218_01GW/PPA100_G10.xlsx</v>
-      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2590,134 +1985,8 @@
       <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2847,134 +2116,8 @@
       <c r="AQ5">
         <v>3000</v>
       </c>
-      <c r="AR5">
-        <v>3000</v>
-      </c>
-      <c r="AS5">
-        <v>3000</v>
-      </c>
-      <c r="AT5">
-        <v>3000</v>
-      </c>
-      <c r="AU5">
-        <v>3000</v>
-      </c>
-      <c r="AV5">
-        <v>3000</v>
-      </c>
-      <c r="AW5">
-        <v>3000</v>
-      </c>
-      <c r="AX5">
-        <v>3000</v>
-      </c>
-      <c r="AY5">
-        <v>3000</v>
-      </c>
-      <c r="AZ5">
-        <v>3000</v>
-      </c>
-      <c r="BA5">
-        <v>3000</v>
-      </c>
-      <c r="BB5">
-        <v>3000</v>
-      </c>
-      <c r="BC5">
-        <v>3000</v>
-      </c>
-      <c r="BD5">
-        <v>1000</v>
-      </c>
-      <c r="BE5">
-        <v>2000</v>
-      </c>
-      <c r="BF5">
-        <v>3000</v>
-      </c>
-      <c r="BG5">
-        <v>4000</v>
-      </c>
-      <c r="BH5">
-        <v>5000</v>
-      </c>
-      <c r="BI5">
-        <v>6000</v>
-      </c>
-      <c r="BJ5">
-        <v>7000</v>
-      </c>
-      <c r="BK5">
-        <v>8000</v>
-      </c>
-      <c r="BL5">
-        <v>9000</v>
-      </c>
-      <c r="BM5">
-        <v>10000</v>
-      </c>
-      <c r="BN5">
-        <v>1000</v>
-      </c>
-      <c r="BO5">
-        <v>2000</v>
-      </c>
-      <c r="BP5">
-        <v>3000</v>
-      </c>
-      <c r="BQ5">
-        <v>4000</v>
-      </c>
-      <c r="BR5">
-        <v>5000</v>
-      </c>
-      <c r="BS5">
-        <v>6000</v>
-      </c>
-      <c r="BT5">
-        <v>7000</v>
-      </c>
-      <c r="BU5">
-        <v>8000</v>
-      </c>
-      <c r="BV5">
-        <v>9000</v>
-      </c>
-      <c r="BW5">
-        <v>10000</v>
-      </c>
-      <c r="BX5">
-        <v>3000</v>
-      </c>
-      <c r="BY5">
-        <v>3000</v>
-      </c>
-      <c r="BZ5">
-        <v>3000</v>
-      </c>
-      <c r="CA5">
-        <v>3000</v>
-      </c>
-      <c r="CB5">
-        <v>3000</v>
-      </c>
-      <c r="CC5">
-        <v>3000</v>
-      </c>
-      <c r="CD5">
-        <v>3000</v>
-      </c>
-      <c r="CE5">
-        <v>3000</v>
-      </c>
-      <c r="CF5">
-        <v>3000</v>
-      </c>
-      <c r="CG5">
-        <v>3000</v>
-      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3104,134 +2247,8 @@
       <c r="AQ6" t="b">
         <v>1</v>
       </c>
-      <c r="AR6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG6" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3361,134 +2378,8 @@
       <c r="AQ7">
         <v>10</v>
       </c>
-      <c r="AR7">
-        <v>100</v>
-      </c>
-      <c r="AS7">
-        <v>100</v>
-      </c>
-      <c r="AT7">
-        <v>100</v>
-      </c>
-      <c r="AU7">
-        <v>100</v>
-      </c>
-      <c r="AV7">
-        <v>100</v>
-      </c>
-      <c r="AW7">
-        <v>100</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>100</v>
-      </c>
-      <c r="BY7">
-        <v>90</v>
-      </c>
-      <c r="BZ7">
-        <v>80</v>
-      </c>
-      <c r="CA7">
-        <v>70</v>
-      </c>
-      <c r="CB7">
-        <v>60</v>
-      </c>
-      <c r="CC7">
-        <v>50</v>
-      </c>
-      <c r="CD7">
-        <v>40</v>
-      </c>
-      <c r="CE7">
-        <v>30</v>
-      </c>
-      <c r="CF7">
-        <v>20</v>
-      </c>
-      <c r="CG7">
-        <v>10</v>
-      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3618,134 +2509,8 @@
       <c r="AQ8" t="s">
         <v>9</v>
       </c>
-      <c r="AR8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3875,134 +2640,8 @@
       <c r="AQ9">
         <v>2023</v>
       </c>
-      <c r="AR9">
-        <v>2023</v>
-      </c>
-      <c r="AS9">
-        <v>2023</v>
-      </c>
-      <c r="AT9">
-        <v>2023</v>
-      </c>
-      <c r="AU9">
-        <v>2023</v>
-      </c>
-      <c r="AV9">
-        <v>2023</v>
-      </c>
-      <c r="AW9">
-        <v>2023</v>
-      </c>
-      <c r="AX9">
-        <v>2023</v>
-      </c>
-      <c r="AY9">
-        <v>2023</v>
-      </c>
-      <c r="AZ9">
-        <v>2023</v>
-      </c>
-      <c r="BA9">
-        <v>2023</v>
-      </c>
-      <c r="BB9">
-        <v>2023</v>
-      </c>
-      <c r="BC9">
-        <v>2023</v>
-      </c>
-      <c r="BD9">
-        <v>2023</v>
-      </c>
-      <c r="BE9">
-        <v>2023</v>
-      </c>
-      <c r="BF9">
-        <v>2023</v>
-      </c>
-      <c r="BG9">
-        <v>2023</v>
-      </c>
-      <c r="BH9">
-        <v>2023</v>
-      </c>
-      <c r="BI9">
-        <v>2023</v>
-      </c>
-      <c r="BJ9">
-        <v>2023</v>
-      </c>
-      <c r="BK9">
-        <v>2023</v>
-      </c>
-      <c r="BL9">
-        <v>2023</v>
-      </c>
-      <c r="BM9">
-        <v>2023</v>
-      </c>
-      <c r="BN9">
-        <v>2023</v>
-      </c>
-      <c r="BO9">
-        <v>2023</v>
-      </c>
-      <c r="BP9">
-        <v>2023</v>
-      </c>
-      <c r="BQ9">
-        <v>2023</v>
-      </c>
-      <c r="BR9">
-        <v>2023</v>
-      </c>
-      <c r="BS9">
-        <v>2023</v>
-      </c>
-      <c r="BT9">
-        <v>2023</v>
-      </c>
-      <c r="BU9">
-        <v>2023</v>
-      </c>
-      <c r="BV9">
-        <v>2023</v>
-      </c>
-      <c r="BW9">
-        <v>2023</v>
-      </c>
-      <c r="BX9">
-        <v>2023</v>
-      </c>
-      <c r="BY9">
-        <v>2023</v>
-      </c>
-      <c r="BZ9">
-        <v>2023</v>
-      </c>
-      <c r="CA9">
-        <v>2023</v>
-      </c>
-      <c r="CB9">
-        <v>2023</v>
-      </c>
-      <c r="CC9">
-        <v>2023</v>
-      </c>
-      <c r="CD9">
-        <v>2023</v>
-      </c>
-      <c r="CE9">
-        <v>2023</v>
-      </c>
-      <c r="CF9">
-        <v>2023</v>
-      </c>
-      <c r="CG9">
-        <v>2023</v>
-      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4132,134 +2771,8 @@
       <c r="AQ10">
         <v>2050</v>
       </c>
-      <c r="AR10">
-        <v>2050</v>
-      </c>
-      <c r="AS10">
-        <v>2050</v>
-      </c>
-      <c r="AT10">
-        <v>2050</v>
-      </c>
-      <c r="AU10">
-        <v>2050</v>
-      </c>
-      <c r="AV10">
-        <v>2050</v>
-      </c>
-      <c r="AW10">
-        <v>2050</v>
-      </c>
-      <c r="AX10">
-        <v>2050</v>
-      </c>
-      <c r="AY10">
-        <v>2050</v>
-      </c>
-      <c r="AZ10">
-        <v>2050</v>
-      </c>
-      <c r="BA10">
-        <v>2050</v>
-      </c>
-      <c r="BB10">
-        <v>2050</v>
-      </c>
-      <c r="BC10">
-        <v>2050</v>
-      </c>
-      <c r="BD10">
-        <v>2050</v>
-      </c>
-      <c r="BE10">
-        <v>2050</v>
-      </c>
-      <c r="BF10">
-        <v>2050</v>
-      </c>
-      <c r="BG10">
-        <v>2050</v>
-      </c>
-      <c r="BH10">
-        <v>2050</v>
-      </c>
-      <c r="BI10">
-        <v>2050</v>
-      </c>
-      <c r="BJ10">
-        <v>2050</v>
-      </c>
-      <c r="BK10">
-        <v>2050</v>
-      </c>
-      <c r="BL10">
-        <v>2050</v>
-      </c>
-      <c r="BM10">
-        <v>2050</v>
-      </c>
-      <c r="BN10">
-        <v>2050</v>
-      </c>
-      <c r="BO10">
-        <v>2050</v>
-      </c>
-      <c r="BP10">
-        <v>2050</v>
-      </c>
-      <c r="BQ10">
-        <v>2050</v>
-      </c>
-      <c r="BR10">
-        <v>2050</v>
-      </c>
-      <c r="BS10">
-        <v>2050</v>
-      </c>
-      <c r="BT10">
-        <v>2050</v>
-      </c>
-      <c r="BU10">
-        <v>2050</v>
-      </c>
-      <c r="BV10">
-        <v>2050</v>
-      </c>
-      <c r="BW10">
-        <v>2050</v>
-      </c>
-      <c r="BX10">
-        <v>2050</v>
-      </c>
-      <c r="BY10">
-        <v>2050</v>
-      </c>
-      <c r="BZ10">
-        <v>2050</v>
-      </c>
-      <c r="CA10">
-        <v>2050</v>
-      </c>
-      <c r="CB10">
-        <v>2050</v>
-      </c>
-      <c r="CC10">
-        <v>2050</v>
-      </c>
-      <c r="CD10">
-        <v>2050</v>
-      </c>
-      <c r="CE10">
-        <v>2050</v>
-      </c>
-      <c r="CF10">
-        <v>2050</v>
-      </c>
-      <c r="CG10">
-        <v>2050</v>
-      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4389,134 +2902,8 @@
       <c r="AQ11">
         <v>2030</v>
       </c>
-      <c r="AR11">
-        <v>2030</v>
-      </c>
-      <c r="AS11">
-        <v>2030</v>
-      </c>
-      <c r="AT11">
-        <v>2030</v>
-      </c>
-      <c r="AU11">
-        <v>2030</v>
-      </c>
-      <c r="AV11">
-        <v>2030</v>
-      </c>
-      <c r="AW11">
-        <v>2030</v>
-      </c>
-      <c r="AX11">
-        <v>2030</v>
-      </c>
-      <c r="AY11">
-        <v>2030</v>
-      </c>
-      <c r="AZ11">
-        <v>2030</v>
-      </c>
-      <c r="BA11">
-        <v>2030</v>
-      </c>
-      <c r="BB11">
-        <v>2030</v>
-      </c>
-      <c r="BC11">
-        <v>2030</v>
-      </c>
-      <c r="BD11">
-        <v>2030</v>
-      </c>
-      <c r="BE11">
-        <v>2030</v>
-      </c>
-      <c r="BF11">
-        <v>2030</v>
-      </c>
-      <c r="BG11">
-        <v>2030</v>
-      </c>
-      <c r="BH11">
-        <v>2030</v>
-      </c>
-      <c r="BI11">
-        <v>2030</v>
-      </c>
-      <c r="BJ11">
-        <v>2030</v>
-      </c>
-      <c r="BK11">
-        <v>2030</v>
-      </c>
-      <c r="BL11">
-        <v>2030</v>
-      </c>
-      <c r="BM11">
-        <v>2030</v>
-      </c>
-      <c r="BN11">
-        <v>2030</v>
-      </c>
-      <c r="BO11">
-        <v>2030</v>
-      </c>
-      <c r="BP11">
-        <v>2030</v>
-      </c>
-      <c r="BQ11">
-        <v>2030</v>
-      </c>
-      <c r="BR11">
-        <v>2030</v>
-      </c>
-      <c r="BS11">
-        <v>2030</v>
-      </c>
-      <c r="BT11">
-        <v>2030</v>
-      </c>
-      <c r="BU11">
-        <v>2030</v>
-      </c>
-      <c r="BV11">
-        <v>2030</v>
-      </c>
-      <c r="BW11">
-        <v>2030</v>
-      </c>
-      <c r="BX11">
-        <v>2030</v>
-      </c>
-      <c r="BY11">
-        <v>2030</v>
-      </c>
-      <c r="BZ11">
-        <v>2030</v>
-      </c>
-      <c r="CA11">
-        <v>2030</v>
-      </c>
-      <c r="CB11">
-        <v>2030</v>
-      </c>
-      <c r="CC11">
-        <v>2030</v>
-      </c>
-      <c r="CD11">
-        <v>2030</v>
-      </c>
-      <c r="CE11">
-        <v>2030</v>
-      </c>
-      <c r="CF11">
-        <v>2030</v>
-      </c>
-      <c r="CG11">
-        <v>2030</v>
-      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4646,134 +3033,8 @@
       <c r="AQ12" t="s">
         <v>14</v>
       </c>
-      <c r="AR12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>14</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4903,134 +3164,8 @@
       <c r="AQ13">
         <v>0.04</v>
       </c>
-      <c r="AR13">
-        <v>0.04</v>
-      </c>
-      <c r="AS13">
-        <v>0.08</v>
-      </c>
-      <c r="AT13">
-        <v>0.04</v>
-      </c>
-      <c r="AU13">
-        <v>0.04</v>
-      </c>
-      <c r="AV13">
-        <v>0.04</v>
-      </c>
-      <c r="AW13">
-        <v>0.04</v>
-      </c>
-      <c r="AX13">
-        <v>0.04</v>
-      </c>
-      <c r="AY13">
-        <v>0.08</v>
-      </c>
-      <c r="AZ13">
-        <v>0.04</v>
-      </c>
-      <c r="BA13">
-        <v>0.04</v>
-      </c>
-      <c r="BB13">
-        <v>0.04</v>
-      </c>
-      <c r="BC13">
-        <v>0.04</v>
-      </c>
-      <c r="BD13">
-        <v>0.04</v>
-      </c>
-      <c r="BE13">
-        <v>0.04</v>
-      </c>
-      <c r="BF13">
-        <v>0.04</v>
-      </c>
-      <c r="BG13">
-        <v>0.04</v>
-      </c>
-      <c r="BH13">
-        <v>0.04</v>
-      </c>
-      <c r="BI13">
-        <v>0.04</v>
-      </c>
-      <c r="BJ13">
-        <v>0.04</v>
-      </c>
-      <c r="BK13">
-        <v>0.04</v>
-      </c>
-      <c r="BL13">
-        <v>0.04</v>
-      </c>
-      <c r="BM13">
-        <v>0.04</v>
-      </c>
-      <c r="BN13">
-        <v>0.04</v>
-      </c>
-      <c r="BO13">
-        <v>0.04</v>
-      </c>
-      <c r="BP13">
-        <v>0.04</v>
-      </c>
-      <c r="BQ13">
-        <v>0.04</v>
-      </c>
-      <c r="BR13">
-        <v>0.04</v>
-      </c>
-      <c r="BS13">
-        <v>0.04</v>
-      </c>
-      <c r="BT13">
-        <v>0.04</v>
-      </c>
-      <c r="BU13">
-        <v>0.04</v>
-      </c>
-      <c r="BV13">
-        <v>0.04</v>
-      </c>
-      <c r="BW13">
-        <v>0.04</v>
-      </c>
-      <c r="BX13">
-        <v>0.04</v>
-      </c>
-      <c r="BY13">
-        <v>0.04</v>
-      </c>
-      <c r="BZ13">
-        <v>0.04</v>
-      </c>
-      <c r="CA13">
-        <v>0.04</v>
-      </c>
-      <c r="CB13">
-        <v>0.04</v>
-      </c>
-      <c r="CC13">
-        <v>0.04</v>
-      </c>
-      <c r="CD13">
-        <v>0.04</v>
-      </c>
-      <c r="CE13">
-        <v>0.04</v>
-      </c>
-      <c r="CF13">
-        <v>0.04</v>
-      </c>
-      <c r="CG13">
-        <v>0.04</v>
-      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5160,134 +3295,8 @@
       <c r="AQ14" t="s">
         <v>49</v>
       </c>
-      <c r="AR14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>49</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>49</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5417,134 +3426,8 @@
       <c r="AQ15" t="b">
         <v>1</v>
       </c>
-      <c r="AR15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG15" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5674,134 +3557,8 @@
       <c r="AQ16">
         <v>167000</v>
       </c>
-      <c r="AR16">
-        <v>167000</v>
-      </c>
-      <c r="AS16">
-        <v>167000</v>
-      </c>
-      <c r="AT16">
-        <v>167000</v>
-      </c>
-      <c r="AU16">
-        <v>167000</v>
-      </c>
-      <c r="AV16">
-        <v>167000</v>
-      </c>
-      <c r="AW16">
-        <v>167000</v>
-      </c>
-      <c r="AX16">
-        <v>167000</v>
-      </c>
-      <c r="AY16">
-        <v>167000</v>
-      </c>
-      <c r="AZ16">
-        <v>167000</v>
-      </c>
-      <c r="BA16">
-        <v>167000</v>
-      </c>
-      <c r="BB16">
-        <v>167000</v>
-      </c>
-      <c r="BC16">
-        <v>167000</v>
-      </c>
-      <c r="BD16">
-        <v>167000</v>
-      </c>
-      <c r="BE16">
-        <v>167000</v>
-      </c>
-      <c r="BF16">
-        <v>167000</v>
-      </c>
-      <c r="BG16">
-        <v>167000</v>
-      </c>
-      <c r="BH16">
-        <v>167000</v>
-      </c>
-      <c r="BI16">
-        <v>167000</v>
-      </c>
-      <c r="BJ16">
-        <v>167000</v>
-      </c>
-      <c r="BK16">
-        <v>167000</v>
-      </c>
-      <c r="BL16">
-        <v>167000</v>
-      </c>
-      <c r="BM16">
-        <v>167000</v>
-      </c>
-      <c r="BN16">
-        <v>167000</v>
-      </c>
-      <c r="BO16">
-        <v>167000</v>
-      </c>
-      <c r="BP16">
-        <v>167000</v>
-      </c>
-      <c r="BQ16">
-        <v>167000</v>
-      </c>
-      <c r="BR16">
-        <v>167000</v>
-      </c>
-      <c r="BS16">
-        <v>167000</v>
-      </c>
-      <c r="BT16">
-        <v>167000</v>
-      </c>
-      <c r="BU16">
-        <v>167000</v>
-      </c>
-      <c r="BV16">
-        <v>167000</v>
-      </c>
-      <c r="BW16">
-        <v>167000</v>
-      </c>
-      <c r="BX16">
-        <v>167000</v>
-      </c>
-      <c r="BY16">
-        <v>167000</v>
-      </c>
-      <c r="BZ16">
-        <v>167000</v>
-      </c>
-      <c r="CA16">
-        <v>167000</v>
-      </c>
-      <c r="CB16">
-        <v>167000</v>
-      </c>
-      <c r="CC16">
-        <v>167000</v>
-      </c>
-      <c r="CD16">
-        <v>167000</v>
-      </c>
-      <c r="CE16">
-        <v>167000</v>
-      </c>
-      <c r="CF16">
-        <v>167000</v>
-      </c>
-      <c r="CG16">
-        <v>167000</v>
-      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5933,136 +3690,8 @@
       <c r="AQ17">
         <v>0.04</v>
       </c>
-      <c r="AR17">
-        <v>0.04</v>
-      </c>
-      <c r="AS17">
-        <f>AS13</f>
-        <v>0.08</v>
-      </c>
-      <c r="AT17">
-        <v>0.04</v>
-      </c>
-      <c r="AU17">
-        <v>0.04</v>
-      </c>
-      <c r="AV17">
-        <v>0.04</v>
-      </c>
-      <c r="AW17">
-        <v>0.04</v>
-      </c>
-      <c r="AX17">
-        <v>0.04</v>
-      </c>
-      <c r="AY17">
-        <f>AY13</f>
-        <v>0.08</v>
-      </c>
-      <c r="AZ17">
-        <v>0.04</v>
-      </c>
-      <c r="BA17">
-        <v>0.04</v>
-      </c>
-      <c r="BB17">
-        <v>0.04</v>
-      </c>
-      <c r="BC17">
-        <v>0.04</v>
-      </c>
-      <c r="BD17">
-        <v>0.04</v>
-      </c>
-      <c r="BE17">
-        <v>0.04</v>
-      </c>
-      <c r="BF17">
-        <v>0.04</v>
-      </c>
-      <c r="BG17">
-        <v>0.04</v>
-      </c>
-      <c r="BH17">
-        <v>0.04</v>
-      </c>
-      <c r="BI17">
-        <v>0.04</v>
-      </c>
-      <c r="BJ17">
-        <v>0.04</v>
-      </c>
-      <c r="BK17">
-        <v>0.04</v>
-      </c>
-      <c r="BL17">
-        <v>0.04</v>
-      </c>
-      <c r="BM17">
-        <v>0.04</v>
-      </c>
-      <c r="BN17">
-        <v>0.04</v>
-      </c>
-      <c r="BO17">
-        <v>0.04</v>
-      </c>
-      <c r="BP17">
-        <v>0.04</v>
-      </c>
-      <c r="BQ17">
-        <v>0.04</v>
-      </c>
-      <c r="BR17">
-        <v>0.04</v>
-      </c>
-      <c r="BS17">
-        <v>0.04</v>
-      </c>
-      <c r="BT17">
-        <v>0.04</v>
-      </c>
-      <c r="BU17">
-        <v>0.04</v>
-      </c>
-      <c r="BV17">
-        <v>0.04</v>
-      </c>
-      <c r="BW17">
-        <v>0.04</v>
-      </c>
-      <c r="BX17">
-        <v>0.04</v>
-      </c>
-      <c r="BY17">
-        <v>0.04</v>
-      </c>
-      <c r="BZ17">
-        <v>0.04</v>
-      </c>
-      <c r="CA17">
-        <v>0.04</v>
-      </c>
-      <c r="CB17">
-        <v>0.04</v>
-      </c>
-      <c r="CC17">
-        <v>0.04</v>
-      </c>
-      <c r="CD17">
-        <v>0.04</v>
-      </c>
-      <c r="CE17">
-        <v>0.04</v>
-      </c>
-      <c r="CF17">
-        <v>0.04</v>
-      </c>
-      <c r="CG17">
-        <v>0.04</v>
-      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6192,134 +3821,8 @@
       <c r="AQ18" t="b">
         <v>0</v>
       </c>
-      <c r="AR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -6449,134 +3952,8 @@
       <c r="AQ19">
         <v>0</v>
       </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
-        <v>0</v>
-      </c>
-      <c r="BY19">
-        <v>0</v>
-      </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
-        <v>0</v>
-      </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
-        <v>0</v>
-      </c>
-      <c r="CD19">
-        <v>0</v>
-      </c>
-      <c r="CE19">
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -6706,134 +4083,8 @@
       <c r="AQ20">
         <v>0</v>
       </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
-      <c r="BY20">
-        <v>0</v>
-      </c>
-      <c r="BZ20">
-        <v>0</v>
-      </c>
-      <c r="CA20">
-        <v>0</v>
-      </c>
-      <c r="CB20">
-        <v>0</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
-      <c r="CD20">
-        <v>0</v>
-      </c>
-      <c r="CE20">
-        <v>0</v>
-      </c>
-      <c r="CF20">
-        <v>0</v>
-      </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -6963,134 +4214,8 @@
       <c r="AQ21">
         <v>80000</v>
       </c>
-      <c r="AR21">
-        <v>80000</v>
-      </c>
-      <c r="AS21">
-        <v>80000</v>
-      </c>
-      <c r="AT21">
-        <v>80000</v>
-      </c>
-      <c r="AU21">
-        <v>80000</v>
-      </c>
-      <c r="AV21">
-        <v>80000</v>
-      </c>
-      <c r="AW21">
-        <v>80000</v>
-      </c>
-      <c r="AX21">
-        <v>80000</v>
-      </c>
-      <c r="AY21">
-        <v>80000</v>
-      </c>
-      <c r="AZ21">
-        <v>80000</v>
-      </c>
-      <c r="BA21">
-        <v>80000</v>
-      </c>
-      <c r="BB21">
-        <v>80000</v>
-      </c>
-      <c r="BC21">
-        <v>80000</v>
-      </c>
-      <c r="BD21">
-        <v>80000</v>
-      </c>
-      <c r="BE21">
-        <v>80000</v>
-      </c>
-      <c r="BF21">
-        <v>80000</v>
-      </c>
-      <c r="BG21">
-        <v>80000</v>
-      </c>
-      <c r="BH21">
-        <v>80000</v>
-      </c>
-      <c r="BI21">
-        <v>80000</v>
-      </c>
-      <c r="BJ21">
-        <v>80000</v>
-      </c>
-      <c r="BK21">
-        <v>80000</v>
-      </c>
-      <c r="BL21">
-        <v>80000</v>
-      </c>
-      <c r="BM21">
-        <v>80000</v>
-      </c>
-      <c r="BN21">
-        <v>80000</v>
-      </c>
-      <c r="BO21">
-        <v>80000</v>
-      </c>
-      <c r="BP21">
-        <v>80000</v>
-      </c>
-      <c r="BQ21">
-        <v>80000</v>
-      </c>
-      <c r="BR21">
-        <v>80000</v>
-      </c>
-      <c r="BS21">
-        <v>80000</v>
-      </c>
-      <c r="BT21">
-        <v>80000</v>
-      </c>
-      <c r="BU21">
-        <v>80000</v>
-      </c>
-      <c r="BV21">
-        <v>80000</v>
-      </c>
-      <c r="BW21">
-        <v>80000</v>
-      </c>
-      <c r="BX21">
-        <v>80000</v>
-      </c>
-      <c r="BY21">
-        <v>80000</v>
-      </c>
-      <c r="BZ21">
-        <v>80000</v>
-      </c>
-      <c r="CA21">
-        <v>80000</v>
-      </c>
-      <c r="CB21">
-        <v>80000</v>
-      </c>
-      <c r="CC21">
-        <v>80000</v>
-      </c>
-      <c r="CD21">
-        <v>80000</v>
-      </c>
-      <c r="CE21">
-        <v>80000</v>
-      </c>
-      <c r="CF21">
-        <v>80000</v>
-      </c>
-      <c r="CG21">
-        <v>80000</v>
-      </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7220,134 +4345,8 @@
       <c r="AQ22" t="b">
         <v>1</v>
       </c>
-      <c r="AR22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BY22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF22" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG22" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -7477,134 +4476,8 @@
       <c r="AQ23">
         <v>0</v>
       </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>0</v>
-      </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23">
-        <v>0</v>
-      </c>
-      <c r="BS23">
-        <v>0</v>
-      </c>
-      <c r="BT23">
-        <v>0</v>
-      </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
-      <c r="BV23">
-        <v>0</v>
-      </c>
-      <c r="BW23">
-        <v>0</v>
-      </c>
-      <c r="BX23">
-        <v>0</v>
-      </c>
-      <c r="BY23">
-        <v>0</v>
-      </c>
-      <c r="BZ23">
-        <v>0</v>
-      </c>
-      <c r="CA23">
-        <v>0</v>
-      </c>
-      <c r="CB23">
-        <v>0</v>
-      </c>
-      <c r="CC23">
-        <v>0</v>
-      </c>
-      <c r="CD23">
-        <v>0</v>
-      </c>
-      <c r="CE23">
-        <v>0</v>
-      </c>
-      <c r="CF23">
-        <v>0</v>
-      </c>
-      <c r="CG23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -7734,134 +4607,8 @@
       <c r="AQ24" t="b">
         <v>1</v>
       </c>
-      <c r="AR24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BY24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG24" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7991,134 +4738,8 @@
       <c r="AQ25">
         <v>1400</v>
       </c>
-      <c r="AR25">
-        <v>1400</v>
-      </c>
-      <c r="AS25">
-        <v>1400</v>
-      </c>
-      <c r="AT25">
-        <v>1400</v>
-      </c>
-      <c r="AU25">
-        <v>1400</v>
-      </c>
-      <c r="AV25">
-        <v>1400</v>
-      </c>
-      <c r="AW25">
-        <v>1400</v>
-      </c>
-      <c r="AX25">
-        <v>1400</v>
-      </c>
-      <c r="AY25">
-        <v>1400</v>
-      </c>
-      <c r="AZ25">
-        <v>1400</v>
-      </c>
-      <c r="BA25">
-        <v>1400</v>
-      </c>
-      <c r="BB25">
-        <v>1400</v>
-      </c>
-      <c r="BC25">
-        <v>1400</v>
-      </c>
-      <c r="BD25">
-        <v>1400</v>
-      </c>
-      <c r="BE25">
-        <v>1400</v>
-      </c>
-      <c r="BF25">
-        <v>1400</v>
-      </c>
-      <c r="BG25">
-        <v>1400</v>
-      </c>
-      <c r="BH25">
-        <v>1400</v>
-      </c>
-      <c r="BI25">
-        <v>1400</v>
-      </c>
-      <c r="BJ25">
-        <v>1400</v>
-      </c>
-      <c r="BK25">
-        <v>1400</v>
-      </c>
-      <c r="BL25">
-        <v>1400</v>
-      </c>
-      <c r="BM25">
-        <v>1400</v>
-      </c>
-      <c r="BN25">
-        <v>1400</v>
-      </c>
-      <c r="BO25">
-        <v>1400</v>
-      </c>
-      <c r="BP25">
-        <v>1400</v>
-      </c>
-      <c r="BQ25">
-        <v>1400</v>
-      </c>
-      <c r="BR25">
-        <v>1400</v>
-      </c>
-      <c r="BS25">
-        <v>1400</v>
-      </c>
-      <c r="BT25">
-        <v>1400</v>
-      </c>
-      <c r="BU25">
-        <v>1400</v>
-      </c>
-      <c r="BV25">
-        <v>1400</v>
-      </c>
-      <c r="BW25">
-        <v>1400</v>
-      </c>
-      <c r="BX25">
-        <v>1400</v>
-      </c>
-      <c r="BY25">
-        <v>1400</v>
-      </c>
-      <c r="BZ25">
-        <v>1400</v>
-      </c>
-      <c r="CA25">
-        <v>1400</v>
-      </c>
-      <c r="CB25">
-        <v>1400</v>
-      </c>
-      <c r="CC25">
-        <v>1400</v>
-      </c>
-      <c r="CD25">
-        <v>1400</v>
-      </c>
-      <c r="CE25">
-        <v>1400</v>
-      </c>
-      <c r="CF25">
-        <v>1400</v>
-      </c>
-      <c r="CG25">
-        <v>1400</v>
-      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -8248,134 +4869,8 @@
       <c r="AQ26" t="b">
         <v>0</v>
       </c>
-      <c r="AR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -8505,134 +5000,8 @@
       <c r="AQ27">
         <v>1000000000</v>
       </c>
-      <c r="AR27">
-        <v>1000000000</v>
-      </c>
-      <c r="AS27">
-        <v>1000000000</v>
-      </c>
-      <c r="AT27">
-        <v>1000000000</v>
-      </c>
-      <c r="AU27">
-        <v>1000000000</v>
-      </c>
-      <c r="AV27">
-        <v>1000000000</v>
-      </c>
-      <c r="AW27">
-        <v>1000000000</v>
-      </c>
-      <c r="AX27">
-        <v>1000000000</v>
-      </c>
-      <c r="AY27">
-        <v>1000000000</v>
-      </c>
-      <c r="AZ27">
-        <v>1000000000</v>
-      </c>
-      <c r="BA27">
-        <v>1000000000</v>
-      </c>
-      <c r="BB27">
-        <v>1000000000</v>
-      </c>
-      <c r="BC27">
-        <v>1000000000</v>
-      </c>
-      <c r="BD27">
-        <v>1000000000</v>
-      </c>
-      <c r="BE27">
-        <v>1000000000</v>
-      </c>
-      <c r="BF27">
-        <v>1000000000</v>
-      </c>
-      <c r="BG27">
-        <v>1000000000</v>
-      </c>
-      <c r="BH27">
-        <v>1000000000</v>
-      </c>
-      <c r="BI27">
-        <v>1000000000</v>
-      </c>
-      <c r="BJ27">
-        <v>1000000000</v>
-      </c>
-      <c r="BK27">
-        <v>1000000000</v>
-      </c>
-      <c r="BL27">
-        <v>1000000000</v>
-      </c>
-      <c r="BM27">
-        <v>1000000000</v>
-      </c>
-      <c r="BN27">
-        <v>1000000000</v>
-      </c>
-      <c r="BO27">
-        <v>1000000000</v>
-      </c>
-      <c r="BP27">
-        <v>1000000000</v>
-      </c>
-      <c r="BQ27">
-        <v>1000000000</v>
-      </c>
-      <c r="BR27">
-        <v>1000000000</v>
-      </c>
-      <c r="BS27">
-        <v>1000000000</v>
-      </c>
-      <c r="BT27">
-        <v>1000000000</v>
-      </c>
-      <c r="BU27">
-        <v>1000000000</v>
-      </c>
-      <c r="BV27">
-        <v>1000000000</v>
-      </c>
-      <c r="BW27">
-        <v>1000000000</v>
-      </c>
-      <c r="BX27">
-        <v>1000000000</v>
-      </c>
-      <c r="BY27">
-        <v>1000000000</v>
-      </c>
-      <c r="BZ27">
-        <v>1000000000</v>
-      </c>
-      <c r="CA27">
-        <v>1000000000</v>
-      </c>
-      <c r="CB27">
-        <v>1000000000</v>
-      </c>
-      <c r="CC27">
-        <v>1000000000</v>
-      </c>
-      <c r="CD27">
-        <v>1000000000</v>
-      </c>
-      <c r="CE27">
-        <v>1000000000</v>
-      </c>
-      <c r="CF27">
-        <v>1000000000</v>
-      </c>
-      <c r="CG27">
-        <v>1000000000</v>
-      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8762,134 +5131,8 @@
       <c r="AQ28">
         <v>250000000</v>
       </c>
-      <c r="AR28">
-        <v>250000000</v>
-      </c>
-      <c r="AS28">
-        <v>250000000</v>
-      </c>
-      <c r="AT28">
-        <v>250000000</v>
-      </c>
-      <c r="AU28">
-        <v>250000000</v>
-      </c>
-      <c r="AV28">
-        <v>250000000</v>
-      </c>
-      <c r="AW28">
-        <v>250000000</v>
-      </c>
-      <c r="AX28">
-        <v>250000000</v>
-      </c>
-      <c r="AY28">
-        <v>250000000</v>
-      </c>
-      <c r="AZ28">
-        <v>250000000</v>
-      </c>
-      <c r="BA28">
-        <v>250000000</v>
-      </c>
-      <c r="BB28">
-        <v>250000000</v>
-      </c>
-      <c r="BC28">
-        <v>250000000</v>
-      </c>
-      <c r="BD28">
-        <v>250000000</v>
-      </c>
-      <c r="BE28">
-        <v>250000000</v>
-      </c>
-      <c r="BF28">
-        <v>250000000</v>
-      </c>
-      <c r="BG28">
-        <v>250000000</v>
-      </c>
-      <c r="BH28">
-        <v>250000000</v>
-      </c>
-      <c r="BI28">
-        <v>250000000</v>
-      </c>
-      <c r="BJ28">
-        <v>250000000</v>
-      </c>
-      <c r="BK28">
-        <v>250000000</v>
-      </c>
-      <c r="BL28">
-        <v>250000000</v>
-      </c>
-      <c r="BM28">
-        <v>250000000</v>
-      </c>
-      <c r="BN28">
-        <v>250000000</v>
-      </c>
-      <c r="BO28">
-        <v>250000000</v>
-      </c>
-      <c r="BP28">
-        <v>250000000</v>
-      </c>
-      <c r="BQ28">
-        <v>250000000</v>
-      </c>
-      <c r="BR28">
-        <v>250000000</v>
-      </c>
-      <c r="BS28">
-        <v>250000000</v>
-      </c>
-      <c r="BT28">
-        <v>250000000</v>
-      </c>
-      <c r="BU28">
-        <v>250000000</v>
-      </c>
-      <c r="BV28">
-        <v>250000000</v>
-      </c>
-      <c r="BW28">
-        <v>250000000</v>
-      </c>
-      <c r="BX28">
-        <v>250000000</v>
-      </c>
-      <c r="BY28">
-        <v>250000000</v>
-      </c>
-      <c r="BZ28">
-        <v>250000000</v>
-      </c>
-      <c r="CA28">
-        <v>250000000</v>
-      </c>
-      <c r="CB28">
-        <v>250000000</v>
-      </c>
-      <c r="CC28">
-        <v>250000000</v>
-      </c>
-      <c r="CD28">
-        <v>250000000</v>
-      </c>
-      <c r="CE28">
-        <v>250000000</v>
-      </c>
-      <c r="CF28">
-        <v>250000000</v>
-      </c>
-      <c r="CG28">
-        <v>250000000</v>
-      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -9019,134 +5262,8 @@
       <c r="AQ29">
         <v>0.9</v>
       </c>
-      <c r="AR29">
-        <v>0.9</v>
-      </c>
-      <c r="AS29">
-        <v>0.9</v>
-      </c>
-      <c r="AT29">
-        <v>0.9</v>
-      </c>
-      <c r="AU29">
-        <v>0.9</v>
-      </c>
-      <c r="AV29">
-        <v>0.9</v>
-      </c>
-      <c r="AW29">
-        <v>0.9</v>
-      </c>
-      <c r="AX29">
-        <v>0.9</v>
-      </c>
-      <c r="AY29">
-        <v>0.9</v>
-      </c>
-      <c r="AZ29">
-        <v>0.9</v>
-      </c>
-      <c r="BA29">
-        <v>0.9</v>
-      </c>
-      <c r="BB29">
-        <v>0.9</v>
-      </c>
-      <c r="BC29">
-        <v>0.9</v>
-      </c>
-      <c r="BD29">
-        <v>0.9</v>
-      </c>
-      <c r="BE29">
-        <v>0.9</v>
-      </c>
-      <c r="BF29">
-        <v>0.9</v>
-      </c>
-      <c r="BG29">
-        <v>0.9</v>
-      </c>
-      <c r="BH29">
-        <v>0.9</v>
-      </c>
-      <c r="BI29">
-        <v>0.9</v>
-      </c>
-      <c r="BJ29">
-        <v>0.9</v>
-      </c>
-      <c r="BK29">
-        <v>0.9</v>
-      </c>
-      <c r="BL29">
-        <v>0.9</v>
-      </c>
-      <c r="BM29">
-        <v>0.9</v>
-      </c>
-      <c r="BN29">
-        <v>0.9</v>
-      </c>
-      <c r="BO29">
-        <v>0.9</v>
-      </c>
-      <c r="BP29">
-        <v>0.9</v>
-      </c>
-      <c r="BQ29">
-        <v>0.9</v>
-      </c>
-      <c r="BR29">
-        <v>0.9</v>
-      </c>
-      <c r="BS29">
-        <v>0.9</v>
-      </c>
-      <c r="BT29">
-        <v>0.9</v>
-      </c>
-      <c r="BU29">
-        <v>0.9</v>
-      </c>
-      <c r="BV29">
-        <v>0.9</v>
-      </c>
-      <c r="BW29">
-        <v>0.9</v>
-      </c>
-      <c r="BX29">
-        <v>0.9</v>
-      </c>
-      <c r="BY29">
-        <v>0.9</v>
-      </c>
-      <c r="BZ29">
-        <v>0.9</v>
-      </c>
-      <c r="CA29">
-        <v>0.9</v>
-      </c>
-      <c r="CB29">
-        <v>0.9</v>
-      </c>
-      <c r="CC29">
-        <v>0.9</v>
-      </c>
-      <c r="CD29">
-        <v>0.9</v>
-      </c>
-      <c r="CE29">
-        <v>0.9</v>
-      </c>
-      <c r="CF29">
-        <v>0.9</v>
-      </c>
-      <c r="CG29">
-        <v>0.9</v>
-      </c>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -9276,134 +5393,8 @@
       <c r="AQ30">
         <v>0.9</v>
       </c>
-      <c r="AR30">
-        <v>0.9</v>
-      </c>
-      <c r="AS30">
-        <v>0.9</v>
-      </c>
-      <c r="AT30">
-        <v>0.9</v>
-      </c>
-      <c r="AU30">
-        <v>0.9</v>
-      </c>
-      <c r="AV30">
-        <v>0.9</v>
-      </c>
-      <c r="AW30">
-        <v>0.9</v>
-      </c>
-      <c r="AX30">
-        <v>0.9</v>
-      </c>
-      <c r="AY30">
-        <v>0.9</v>
-      </c>
-      <c r="AZ30">
-        <v>0.9</v>
-      </c>
-      <c r="BA30">
-        <v>0.9</v>
-      </c>
-      <c r="BB30">
-        <v>0.9</v>
-      </c>
-      <c r="BC30">
-        <v>0.9</v>
-      </c>
-      <c r="BD30">
-        <v>0.9</v>
-      </c>
-      <c r="BE30">
-        <v>0.9</v>
-      </c>
-      <c r="BF30">
-        <v>0.9</v>
-      </c>
-      <c r="BG30">
-        <v>0.9</v>
-      </c>
-      <c r="BH30">
-        <v>0.9</v>
-      </c>
-      <c r="BI30">
-        <v>0.9</v>
-      </c>
-      <c r="BJ30">
-        <v>0.9</v>
-      </c>
-      <c r="BK30">
-        <v>0.9</v>
-      </c>
-      <c r="BL30">
-        <v>0.9</v>
-      </c>
-      <c r="BM30">
-        <v>0.9</v>
-      </c>
-      <c r="BN30">
-        <v>0.9</v>
-      </c>
-      <c r="BO30">
-        <v>0.9</v>
-      </c>
-      <c r="BP30">
-        <v>0.9</v>
-      </c>
-      <c r="BQ30">
-        <v>0.9</v>
-      </c>
-      <c r="BR30">
-        <v>0.9</v>
-      </c>
-      <c r="BS30">
-        <v>0.9</v>
-      </c>
-      <c r="BT30">
-        <v>0.9</v>
-      </c>
-      <c r="BU30">
-        <v>0.9</v>
-      </c>
-      <c r="BV30">
-        <v>0.9</v>
-      </c>
-      <c r="BW30">
-        <v>0.9</v>
-      </c>
-      <c r="BX30">
-        <v>0.9</v>
-      </c>
-      <c r="BY30">
-        <v>0.9</v>
-      </c>
-      <c r="BZ30">
-        <v>0.9</v>
-      </c>
-      <c r="CA30">
-        <v>0.9</v>
-      </c>
-      <c r="CB30">
-        <v>0.9</v>
-      </c>
-      <c r="CC30">
-        <v>0.9</v>
-      </c>
-      <c r="CD30">
-        <v>0.9</v>
-      </c>
-      <c r="CE30">
-        <v>0.9</v>
-      </c>
-      <c r="CF30">
-        <v>0.9</v>
-      </c>
-      <c r="CG30">
-        <v>0.9</v>
-      </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -9533,134 +5524,8 @@
       <c r="AQ31">
         <v>4</v>
       </c>
-      <c r="AR31">
-        <v>4</v>
-      </c>
-      <c r="AS31">
-        <v>4</v>
-      </c>
-      <c r="AT31">
-        <v>4</v>
-      </c>
-      <c r="AU31">
-        <v>4</v>
-      </c>
-      <c r="AV31">
-        <v>4</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>4</v>
-      </c>
-      <c r="AY31">
-        <v>4</v>
-      </c>
-      <c r="AZ31">
-        <v>4</v>
-      </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
-      <c r="BC31">
-        <v>4</v>
-      </c>
-      <c r="BD31">
-        <v>4</v>
-      </c>
-      <c r="BE31">
-        <v>4</v>
-      </c>
-      <c r="BF31">
-        <v>4</v>
-      </c>
-      <c r="BG31">
-        <v>4</v>
-      </c>
-      <c r="BH31">
-        <v>4</v>
-      </c>
-      <c r="BI31">
-        <v>4</v>
-      </c>
-      <c r="BJ31">
-        <v>4</v>
-      </c>
-      <c r="BK31">
-        <v>4</v>
-      </c>
-      <c r="BL31">
-        <v>4</v>
-      </c>
-      <c r="BM31">
-        <v>4</v>
-      </c>
-      <c r="BN31">
-        <v>4</v>
-      </c>
-      <c r="BO31">
-        <v>4</v>
-      </c>
-      <c r="BP31">
-        <v>4</v>
-      </c>
-      <c r="BQ31">
-        <v>4</v>
-      </c>
-      <c r="BR31">
-        <v>4</v>
-      </c>
-      <c r="BS31">
-        <v>4</v>
-      </c>
-      <c r="BT31">
-        <v>4</v>
-      </c>
-      <c r="BU31">
-        <v>4</v>
-      </c>
-      <c r="BV31">
-        <v>4</v>
-      </c>
-      <c r="BW31">
-        <v>4</v>
-      </c>
-      <c r="BX31">
-        <v>4</v>
-      </c>
-      <c r="BY31">
-        <v>4</v>
-      </c>
-      <c r="BZ31">
-        <v>4</v>
-      </c>
-      <c r="CA31">
-        <v>4</v>
-      </c>
-      <c r="CB31">
-        <v>4</v>
-      </c>
-      <c r="CC31">
-        <v>4</v>
-      </c>
-      <c r="CD31">
-        <v>4</v>
-      </c>
-      <c r="CE31">
-        <v>4</v>
-      </c>
-      <c r="CF31">
-        <v>4</v>
-      </c>
-      <c r="CG31">
-        <v>4</v>
-      </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -9790,134 +5655,8 @@
       <c r="AQ32">
         <v>20</v>
       </c>
-      <c r="AR32">
-        <v>20</v>
-      </c>
-      <c r="AS32">
-        <v>20</v>
-      </c>
-      <c r="AT32">
-        <v>20</v>
-      </c>
-      <c r="AU32">
-        <v>20</v>
-      </c>
-      <c r="AV32">
-        <v>20</v>
-      </c>
-      <c r="AW32">
-        <v>20</v>
-      </c>
-      <c r="AX32">
-        <v>20</v>
-      </c>
-      <c r="AY32">
-        <v>20</v>
-      </c>
-      <c r="AZ32">
-        <v>20</v>
-      </c>
-      <c r="BA32">
-        <v>20</v>
-      </c>
-      <c r="BB32">
-        <v>20</v>
-      </c>
-      <c r="BC32">
-        <v>20</v>
-      </c>
-      <c r="BD32">
-        <v>20</v>
-      </c>
-      <c r="BE32">
-        <v>20</v>
-      </c>
-      <c r="BF32">
-        <v>20</v>
-      </c>
-      <c r="BG32">
-        <v>20</v>
-      </c>
-      <c r="BH32">
-        <v>20</v>
-      </c>
-      <c r="BI32">
-        <v>20</v>
-      </c>
-      <c r="BJ32">
-        <v>20</v>
-      </c>
-      <c r="BK32">
-        <v>20</v>
-      </c>
-      <c r="BL32">
-        <v>20</v>
-      </c>
-      <c r="BM32">
-        <v>20</v>
-      </c>
-      <c r="BN32">
-        <v>20</v>
-      </c>
-      <c r="BO32">
-        <v>20</v>
-      </c>
-      <c r="BP32">
-        <v>20</v>
-      </c>
-      <c r="BQ32">
-        <v>20</v>
-      </c>
-      <c r="BR32">
-        <v>20</v>
-      </c>
-      <c r="BS32">
-        <v>20</v>
-      </c>
-      <c r="BT32">
-        <v>20</v>
-      </c>
-      <c r="BU32">
-        <v>20</v>
-      </c>
-      <c r="BV32">
-        <v>20</v>
-      </c>
-      <c r="BW32">
-        <v>20</v>
-      </c>
-      <c r="BX32">
-        <v>20</v>
-      </c>
-      <c r="BY32">
-        <v>20</v>
-      </c>
-      <c r="BZ32">
-        <v>20</v>
-      </c>
-      <c r="CA32">
-        <v>20</v>
-      </c>
-      <c r="CB32">
-        <v>20</v>
-      </c>
-      <c r="CC32">
-        <v>20</v>
-      </c>
-      <c r="CD32">
-        <v>20</v>
-      </c>
-      <c r="CE32">
-        <v>20</v>
-      </c>
-      <c r="CF32">
-        <v>20</v>
-      </c>
-      <c r="CG32">
-        <v>20</v>
-      </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10047,134 +5786,8 @@
       <c r="AQ33">
         <v>0.05</v>
       </c>
-      <c r="AR33">
-        <v>0.05</v>
-      </c>
-      <c r="AS33">
-        <v>0.05</v>
-      </c>
-      <c r="AT33">
-        <v>0.05</v>
-      </c>
-      <c r="AU33">
-        <v>0.05</v>
-      </c>
-      <c r="AV33">
-        <v>0.05</v>
-      </c>
-      <c r="AW33">
-        <v>0.05</v>
-      </c>
-      <c r="AX33">
-        <v>0.05</v>
-      </c>
-      <c r="AY33">
-        <v>0.05</v>
-      </c>
-      <c r="AZ33">
-        <v>0.05</v>
-      </c>
-      <c r="BA33">
-        <v>0.05</v>
-      </c>
-      <c r="BB33">
-        <v>0.05</v>
-      </c>
-      <c r="BC33">
-        <v>0.05</v>
-      </c>
-      <c r="BD33">
-        <v>0.05</v>
-      </c>
-      <c r="BE33">
-        <v>0.05</v>
-      </c>
-      <c r="BF33">
-        <v>0.05</v>
-      </c>
-      <c r="BG33">
-        <v>0.05</v>
-      </c>
-      <c r="BH33">
-        <v>0.05</v>
-      </c>
-      <c r="BI33">
-        <v>0.05</v>
-      </c>
-      <c r="BJ33">
-        <v>0.05</v>
-      </c>
-      <c r="BK33">
-        <v>0.05</v>
-      </c>
-      <c r="BL33">
-        <v>0.05</v>
-      </c>
-      <c r="BM33">
-        <v>0.05</v>
-      </c>
-      <c r="BN33">
-        <v>0.05</v>
-      </c>
-      <c r="BO33">
-        <v>0.05</v>
-      </c>
-      <c r="BP33">
-        <v>0.05</v>
-      </c>
-      <c r="BQ33">
-        <v>0.05</v>
-      </c>
-      <c r="BR33">
-        <v>0.05</v>
-      </c>
-      <c r="BS33">
-        <v>0.05</v>
-      </c>
-      <c r="BT33">
-        <v>0.05</v>
-      </c>
-      <c r="BU33">
-        <v>0.05</v>
-      </c>
-      <c r="BV33">
-        <v>0.05</v>
-      </c>
-      <c r="BW33">
-        <v>0.05</v>
-      </c>
-      <c r="BX33">
-        <v>0.05</v>
-      </c>
-      <c r="BY33">
-        <v>0.05</v>
-      </c>
-      <c r="BZ33">
-        <v>0.05</v>
-      </c>
-      <c r="CA33">
-        <v>0.05</v>
-      </c>
-      <c r="CB33">
-        <v>0.05</v>
-      </c>
-      <c r="CC33">
-        <v>0.05</v>
-      </c>
-      <c r="CD33">
-        <v>0.05</v>
-      </c>
-      <c r="CE33">
-        <v>0.05</v>
-      </c>
-      <c r="CF33">
-        <v>0.05</v>
-      </c>
-      <c r="CG33">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -10304,134 +5917,8 @@
       <c r="AQ34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AR34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AS34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AT34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AU34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AV34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AW34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AX34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AY34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AZ34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BA34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BB34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BE34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BF34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BG34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BI34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BJ34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BK34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BL34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BN34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BO34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BP34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BQ34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BR34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BS34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BT34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BU34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BV34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BW34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BX34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BY34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BZ34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CA34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CB34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CC34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CD34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CE34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CF34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="CG34">
-        <v>7.4999999999999997E-2</v>
-      </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -10561,134 +6048,8 @@
       <c r="AQ35">
         <v>25000</v>
       </c>
-      <c r="AR35">
-        <v>25000</v>
-      </c>
-      <c r="AS35">
-        <v>25000</v>
-      </c>
-      <c r="AT35">
-        <v>25000</v>
-      </c>
-      <c r="AU35">
-        <v>25000</v>
-      </c>
-      <c r="AV35">
-        <v>25000</v>
-      </c>
-      <c r="AW35">
-        <v>25000</v>
-      </c>
-      <c r="AX35">
-        <v>25000</v>
-      </c>
-      <c r="AY35">
-        <v>25000</v>
-      </c>
-      <c r="AZ35">
-        <v>25000</v>
-      </c>
-      <c r="BA35">
-        <v>25000</v>
-      </c>
-      <c r="BB35">
-        <v>25000</v>
-      </c>
-      <c r="BC35">
-        <v>25000</v>
-      </c>
-      <c r="BD35">
-        <v>25000</v>
-      </c>
-      <c r="BE35">
-        <v>25000</v>
-      </c>
-      <c r="BF35">
-        <v>25000</v>
-      </c>
-      <c r="BG35">
-        <v>25000</v>
-      </c>
-      <c r="BH35">
-        <v>25000</v>
-      </c>
-      <c r="BI35">
-        <v>25000</v>
-      </c>
-      <c r="BJ35">
-        <v>25000</v>
-      </c>
-      <c r="BK35">
-        <v>25000</v>
-      </c>
-      <c r="BL35">
-        <v>25000</v>
-      </c>
-      <c r="BM35">
-        <v>25000</v>
-      </c>
-      <c r="BN35">
-        <v>25000</v>
-      </c>
-      <c r="BO35">
-        <v>25000</v>
-      </c>
-      <c r="BP35">
-        <v>25000</v>
-      </c>
-      <c r="BQ35">
-        <v>25000</v>
-      </c>
-      <c r="BR35">
-        <v>25000</v>
-      </c>
-      <c r="BS35">
-        <v>25000</v>
-      </c>
-      <c r="BT35">
-        <v>25000</v>
-      </c>
-      <c r="BU35">
-        <v>25000</v>
-      </c>
-      <c r="BV35">
-        <v>25000</v>
-      </c>
-      <c r="BW35">
-        <v>25000</v>
-      </c>
-      <c r="BX35">
-        <v>25000</v>
-      </c>
-      <c r="BY35">
-        <v>25000</v>
-      </c>
-      <c r="BZ35">
-        <v>25000</v>
-      </c>
-      <c r="CA35">
-        <v>25000</v>
-      </c>
-      <c r="CB35">
-        <v>25000</v>
-      </c>
-      <c r="CC35">
-        <v>25000</v>
-      </c>
-      <c r="CD35">
-        <v>25000</v>
-      </c>
-      <c r="CE35">
-        <v>25000</v>
-      </c>
-      <c r="CF35">
-        <v>25000</v>
-      </c>
-      <c r="CG35">
-        <v>25000</v>
-      </c>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -10818,134 +6179,8 @@
       <c r="AQ36">
         <v>1</v>
       </c>
-      <c r="AR36">
-        <v>0.1</v>
-      </c>
-      <c r="AS36">
-        <v>0.1</v>
-      </c>
-      <c r="AT36">
-        <v>0.1</v>
-      </c>
-      <c r="AU36">
-        <v>0.1</v>
-      </c>
-      <c r="AV36">
-        <v>0.1</v>
-      </c>
-      <c r="AW36">
-        <v>0.1</v>
-      </c>
-      <c r="AX36">
-        <v>0.1</v>
-      </c>
-      <c r="AY36">
-        <v>0.1</v>
-      </c>
-      <c r="AZ36">
-        <v>0.1</v>
-      </c>
-      <c r="BA36">
-        <v>0.1</v>
-      </c>
-      <c r="BB36">
-        <v>0.1</v>
-      </c>
-      <c r="BC36">
-        <v>0.1</v>
-      </c>
-      <c r="BD36">
-        <v>0.1</v>
-      </c>
-      <c r="BE36">
-        <v>0.1</v>
-      </c>
-      <c r="BF36">
-        <v>0.1</v>
-      </c>
-      <c r="BG36">
-        <v>0.1</v>
-      </c>
-      <c r="BH36">
-        <v>0.1</v>
-      </c>
-      <c r="BI36">
-        <v>0.1</v>
-      </c>
-      <c r="BJ36">
-        <v>0.1</v>
-      </c>
-      <c r="BK36">
-        <v>0.1</v>
-      </c>
-      <c r="BL36">
-        <v>0.1</v>
-      </c>
-      <c r="BM36">
-        <v>0.1</v>
-      </c>
-      <c r="BN36">
-        <v>0.1</v>
-      </c>
-      <c r="BO36">
-        <v>0.1</v>
-      </c>
-      <c r="BP36">
-        <v>0.1</v>
-      </c>
-      <c r="BQ36">
-        <v>0.1</v>
-      </c>
-      <c r="BR36">
-        <v>0.1</v>
-      </c>
-      <c r="BS36">
-        <v>0.1</v>
-      </c>
-      <c r="BT36">
-        <v>0.1</v>
-      </c>
-      <c r="BU36">
-        <v>0.1</v>
-      </c>
-      <c r="BV36">
-        <v>0.1</v>
-      </c>
-      <c r="BW36">
-        <v>0.1</v>
-      </c>
-      <c r="BX36">
-        <v>0.1</v>
-      </c>
-      <c r="BY36">
-        <v>0.1</v>
-      </c>
-      <c r="BZ36">
-        <v>0.1</v>
-      </c>
-      <c r="CA36">
-        <v>0.1</v>
-      </c>
-      <c r="CB36">
-        <v>0.1</v>
-      </c>
-      <c r="CC36">
-        <v>0.1</v>
-      </c>
-      <c r="CD36">
-        <v>0.1</v>
-      </c>
-      <c r="CE36">
-        <v>0.1</v>
-      </c>
-      <c r="CF36">
-        <v>0.1</v>
-      </c>
-      <c r="CG36">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -11075,134 +6310,8 @@
       <c r="AQ37">
         <v>0.1</v>
       </c>
-      <c r="AR37">
-        <v>0.1</v>
-      </c>
-      <c r="AS37">
-        <v>0.1</v>
-      </c>
-      <c r="AT37">
-        <v>0.1</v>
-      </c>
-      <c r="AU37">
-        <v>0.1</v>
-      </c>
-      <c r="AV37">
-        <v>0.1</v>
-      </c>
-      <c r="AW37">
-        <v>0.1</v>
-      </c>
-      <c r="AX37">
-        <v>0.1</v>
-      </c>
-      <c r="AY37">
-        <v>0.1</v>
-      </c>
-      <c r="AZ37">
-        <v>0.1</v>
-      </c>
-      <c r="BA37">
-        <v>0.1</v>
-      </c>
-      <c r="BB37">
-        <v>0.1</v>
-      </c>
-      <c r="BC37">
-        <v>0.1</v>
-      </c>
-      <c r="BD37">
-        <v>0.1</v>
-      </c>
-      <c r="BE37">
-        <v>0.1</v>
-      </c>
-      <c r="BF37">
-        <v>0.1</v>
-      </c>
-      <c r="BG37">
-        <v>0.1</v>
-      </c>
-      <c r="BH37">
-        <v>0.1</v>
-      </c>
-      <c r="BI37">
-        <v>0.1</v>
-      </c>
-      <c r="BJ37">
-        <v>0.1</v>
-      </c>
-      <c r="BK37">
-        <v>0.1</v>
-      </c>
-      <c r="BL37">
-        <v>0.1</v>
-      </c>
-      <c r="BM37">
-        <v>0.1</v>
-      </c>
-      <c r="BN37">
-        <v>0.1</v>
-      </c>
-      <c r="BO37">
-        <v>0.1</v>
-      </c>
-      <c r="BP37">
-        <v>0.1</v>
-      </c>
-      <c r="BQ37">
-        <v>0.1</v>
-      </c>
-      <c r="BR37">
-        <v>0.1</v>
-      </c>
-      <c r="BS37">
-        <v>0.1</v>
-      </c>
-      <c r="BT37">
-        <v>0.1</v>
-      </c>
-      <c r="BU37">
-        <v>0.1</v>
-      </c>
-      <c r="BV37">
-        <v>0.1</v>
-      </c>
-      <c r="BW37">
-        <v>0.1</v>
-      </c>
-      <c r="BX37">
-        <v>0.1</v>
-      </c>
-      <c r="BY37">
-        <v>0.1</v>
-      </c>
-      <c r="BZ37">
-        <v>0.1</v>
-      </c>
-      <c r="CA37">
-        <v>0.1</v>
-      </c>
-      <c r="CB37">
-        <v>0.1</v>
-      </c>
-      <c r="CC37">
-        <v>0.1</v>
-      </c>
-      <c r="CD37">
-        <v>0.1</v>
-      </c>
-      <c r="CE37">
-        <v>0.1</v>
-      </c>
-      <c r="CF37">
-        <v>0.1</v>
-      </c>
-      <c r="CG37">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -11332,134 +6441,8 @@
       <c r="AQ38">
         <v>0</v>
       </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38">
-        <v>0</v>
-      </c>
-      <c r="BF38">
-        <v>0</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
-      </c>
-      <c r="BK38">
-        <v>0</v>
-      </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BM38">
-        <v>0</v>
-      </c>
-      <c r="BN38">
-        <v>0</v>
-      </c>
-      <c r="BO38">
-        <v>0</v>
-      </c>
-      <c r="BP38">
-        <v>0</v>
-      </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
-      <c r="BR38">
-        <v>0</v>
-      </c>
-      <c r="BS38">
-        <v>0</v>
-      </c>
-      <c r="BT38">
-        <v>0</v>
-      </c>
-      <c r="BU38">
-        <v>0</v>
-      </c>
-      <c r="BV38">
-        <v>0</v>
-      </c>
-      <c r="BW38">
-        <v>0</v>
-      </c>
-      <c r="BX38">
-        <v>0</v>
-      </c>
-      <c r="BY38">
-        <v>0</v>
-      </c>
-      <c r="BZ38">
-        <v>0</v>
-      </c>
-      <c r="CA38">
-        <v>0</v>
-      </c>
-      <c r="CB38">
-        <v>0</v>
-      </c>
-      <c r="CC38">
-        <v>0</v>
-      </c>
-      <c r="CD38">
-        <v>0</v>
-      </c>
-      <c r="CE38">
-        <v>0</v>
-      </c>
-      <c r="CF38">
-        <v>0</v>
-      </c>
-      <c r="CG38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -11589,134 +6572,8 @@
       <c r="AQ39">
         <v>120</v>
       </c>
-      <c r="AR39">
-        <v>120</v>
-      </c>
-      <c r="AS39">
-        <v>120</v>
-      </c>
-      <c r="AT39">
-        <v>120</v>
-      </c>
-      <c r="AU39">
-        <v>120</v>
-      </c>
-      <c r="AV39">
-        <v>120</v>
-      </c>
-      <c r="AW39">
-        <v>120</v>
-      </c>
-      <c r="AX39">
-        <v>120</v>
-      </c>
-      <c r="AY39">
-        <v>120</v>
-      </c>
-      <c r="AZ39">
-        <v>120</v>
-      </c>
-      <c r="BA39">
-        <v>120</v>
-      </c>
-      <c r="BB39">
-        <v>120</v>
-      </c>
-      <c r="BC39">
-        <v>120</v>
-      </c>
-      <c r="BD39">
-        <v>120</v>
-      </c>
-      <c r="BE39">
-        <v>120</v>
-      </c>
-      <c r="BF39">
-        <v>120</v>
-      </c>
-      <c r="BG39">
-        <v>120</v>
-      </c>
-      <c r="BH39">
-        <v>120</v>
-      </c>
-      <c r="BI39">
-        <v>120</v>
-      </c>
-      <c r="BJ39">
-        <v>120</v>
-      </c>
-      <c r="BK39">
-        <v>120</v>
-      </c>
-      <c r="BL39">
-        <v>120</v>
-      </c>
-      <c r="BM39">
-        <v>120</v>
-      </c>
-      <c r="BN39">
-        <v>120</v>
-      </c>
-      <c r="BO39">
-        <v>120</v>
-      </c>
-      <c r="BP39">
-        <v>120</v>
-      </c>
-      <c r="BQ39">
-        <v>120</v>
-      </c>
-      <c r="BR39">
-        <v>120</v>
-      </c>
-      <c r="BS39">
-        <v>120</v>
-      </c>
-      <c r="BT39">
-        <v>120</v>
-      </c>
-      <c r="BU39">
-        <v>120</v>
-      </c>
-      <c r="BV39">
-        <v>120</v>
-      </c>
-      <c r="BW39">
-        <v>120</v>
-      </c>
-      <c r="BX39">
-        <v>120</v>
-      </c>
-      <c r="BY39">
-        <v>120</v>
-      </c>
-      <c r="BZ39">
-        <v>120</v>
-      </c>
-      <c r="CA39">
-        <v>120</v>
-      </c>
-      <c r="CB39">
-        <v>120</v>
-      </c>
-      <c r="CC39">
-        <v>120</v>
-      </c>
-      <c r="CD39">
-        <v>120</v>
-      </c>
-      <c r="CE39">
-        <v>120</v>
-      </c>
-      <c r="CF39">
-        <v>120</v>
-      </c>
-      <c r="CG39">
-        <v>120</v>
-      </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -11846,134 +6703,8 @@
       <c r="AQ40">
         <v>20000</v>
       </c>
-      <c r="AR40">
-        <v>20000</v>
-      </c>
-      <c r="AS40">
-        <v>20000</v>
-      </c>
-      <c r="AT40">
-        <v>20000</v>
-      </c>
-      <c r="AU40">
-        <v>20000</v>
-      </c>
-      <c r="AV40">
-        <v>20000</v>
-      </c>
-      <c r="AW40">
-        <v>20000</v>
-      </c>
-      <c r="AX40">
-        <v>20000</v>
-      </c>
-      <c r="AY40">
-        <v>20000</v>
-      </c>
-      <c r="AZ40">
-        <v>20000</v>
-      </c>
-      <c r="BA40">
-        <v>20000</v>
-      </c>
-      <c r="BB40">
-        <v>20000</v>
-      </c>
-      <c r="BC40">
-        <v>20000</v>
-      </c>
-      <c r="BD40">
-        <v>20000</v>
-      </c>
-      <c r="BE40">
-        <v>20000</v>
-      </c>
-      <c r="BF40">
-        <v>20000</v>
-      </c>
-      <c r="BG40">
-        <v>20000</v>
-      </c>
-      <c r="BH40">
-        <v>20000</v>
-      </c>
-      <c r="BI40">
-        <v>20000</v>
-      </c>
-      <c r="BJ40">
-        <v>20000</v>
-      </c>
-      <c r="BK40">
-        <v>20000</v>
-      </c>
-      <c r="BL40">
-        <v>20000</v>
-      </c>
-      <c r="BM40">
-        <v>20000</v>
-      </c>
-      <c r="BN40">
-        <v>20000</v>
-      </c>
-      <c r="BO40">
-        <v>20000</v>
-      </c>
-      <c r="BP40">
-        <v>20000</v>
-      </c>
-      <c r="BQ40">
-        <v>20000</v>
-      </c>
-      <c r="BR40">
-        <v>20000</v>
-      </c>
-      <c r="BS40">
-        <v>20000</v>
-      </c>
-      <c r="BT40">
-        <v>20000</v>
-      </c>
-      <c r="BU40">
-        <v>20000</v>
-      </c>
-      <c r="BV40">
-        <v>20000</v>
-      </c>
-      <c r="BW40">
-        <v>20000</v>
-      </c>
-      <c r="BX40">
-        <v>20000</v>
-      </c>
-      <c r="BY40">
-        <v>20000</v>
-      </c>
-      <c r="BZ40">
-        <v>20000</v>
-      </c>
-      <c r="CA40">
-        <v>20000</v>
-      </c>
-      <c r="CB40">
-        <v>20000</v>
-      </c>
-      <c r="CC40">
-        <v>20000</v>
-      </c>
-      <c r="CD40">
-        <v>20000</v>
-      </c>
-      <c r="CE40">
-        <v>20000</v>
-      </c>
-      <c r="CF40">
-        <v>20000</v>
-      </c>
-      <c r="CG40">
-        <v>20000</v>
-      </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -12101,224 +6832,53 @@
         <v>5</v>
       </c>
       <c r="AQ41">
-        <v>5</v>
-      </c>
-      <c r="AR41">
-        <v>5</v>
-      </c>
-      <c r="AS41">
-        <v>5</v>
-      </c>
-      <c r="AT41">
-        <v>5</v>
-      </c>
-      <c r="AU41">
-        <v>5</v>
-      </c>
-      <c r="AV41">
-        <v>5</v>
-      </c>
-      <c r="AW41">
-        <v>5</v>
-      </c>
-      <c r="AX41">
-        <v>5</v>
-      </c>
-      <c r="AY41">
-        <v>5</v>
-      </c>
-      <c r="AZ41">
-        <v>5</v>
-      </c>
-      <c r="BA41">
-        <v>5</v>
-      </c>
-      <c r="BB41">
-        <v>5</v>
-      </c>
-      <c r="BC41">
-        <v>5</v>
-      </c>
-      <c r="BD41">
-        <v>5</v>
-      </c>
-      <c r="BE41">
-        <v>5</v>
-      </c>
-      <c r="BF41">
-        <v>5</v>
-      </c>
-      <c r="BG41">
-        <v>5</v>
-      </c>
-      <c r="BH41">
-        <v>5</v>
-      </c>
-      <c r="BI41">
-        <v>5</v>
-      </c>
-      <c r="BJ41">
-        <v>5</v>
-      </c>
-      <c r="BK41">
-        <v>5</v>
-      </c>
-      <c r="BL41">
-        <v>5</v>
-      </c>
-      <c r="BM41">
-        <v>5</v>
-      </c>
-      <c r="BN41">
-        <v>5</v>
-      </c>
-      <c r="BO41">
-        <v>5</v>
-      </c>
-      <c r="BP41">
-        <v>5</v>
-      </c>
-      <c r="BQ41">
-        <v>5</v>
-      </c>
-      <c r="BR41">
-        <v>5</v>
-      </c>
-      <c r="BS41">
-        <v>5</v>
-      </c>
-      <c r="BT41">
-        <v>5</v>
-      </c>
-      <c r="BU41">
-        <v>5</v>
-      </c>
-      <c r="BV41">
-        <v>5</v>
-      </c>
-      <c r="BW41">
-        <v>5</v>
-      </c>
-      <c r="BX41">
-        <v>5</v>
-      </c>
-      <c r="BY41">
-        <v>5</v>
-      </c>
-      <c r="BZ41">
-        <v>5</v>
-      </c>
-      <c r="CA41">
-        <v>5</v>
-      </c>
-      <c r="CB41">
-        <v>5</v>
-      </c>
-      <c r="CC41">
-        <v>5</v>
-      </c>
-      <c r="CD41">
-        <v>5</v>
-      </c>
-      <c r="CE41">
-        <v>5</v>
-      </c>
-      <c r="CF41">
-        <v>5</v>
-      </c>
-      <c r="CG41">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C42:C1048576">
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="8" priority="54">
       <formula>$B42&lt;&gt;$C42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G31 C35:G41">
-    <cfRule type="expression" dxfId="25" priority="45">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>$B1&lt;&gt;C1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H33 N1:W33 N35:W41 H35:H1048576">
-    <cfRule type="expression" dxfId="24" priority="68">
+    <cfRule type="expression" dxfId="6" priority="68">
       <formula>$H1&lt;&gt;$B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I31 I35:I41">
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="5" priority="37">
       <formula>$H1&lt;&gt;$I1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 L1:M1 J2:M31 J35:M41 X35:AG41">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>$H1&lt;&gt;J1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="21" priority="34">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>$B1&lt;&gt;K1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AG4 X6:AG31">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>$H1&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:AG5">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>$H5&lt;&gt;$B5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AQ41">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AS1048576">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$B42&lt;&gt;$C42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS1:AW31 AS35:AW41">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$B1&lt;&gt;AS1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX1:AX33 BD1:BM33 BD35:BM41 AX35:AX1048576">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>$H1&lt;&gt;$B1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:AY31 AY35:AY41">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$H1&lt;&gt;$I1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ1 BB1:BC1 AZ2:BC31 AZ35:BC41 BN35:BW41">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$H1&lt;&gt;AZ1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA1">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B1&lt;&gt;BA1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN1:BW4 BN6:BW31">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$H1&lt;&gt;BN1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN5:BW5">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$H5&lt;&gt;$B5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX1:CG41">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
